--- a/Planning/Inds for Planting Final.six.xlsx
+++ b/Planning/Inds for Planting Final.six.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27127"/>
-  <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27430"/>
+  <workbookPr showInkAnnotation="0" checkCompatibility="1" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="5320" yWindow="0" windowWidth="25360" windowHeight="14000" tabRatio="500" firstSheet="6" activeTab="15"/>
+    <workbookView xWindow="240" yWindow="0" windowWidth="25360" windowHeight="13580" tabRatio="500" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="2 (2)" sheetId="6" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1092" uniqueCount="301">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1165" uniqueCount="303">
   <si>
     <t>Shrub Sun</t>
   </si>
@@ -180,12 +180,6 @@
     <t>SPIALB_WM_6</t>
   </si>
   <si>
-    <t>SPIALB_SH_1</t>
-  </si>
-  <si>
-    <t>SPIALB_SH_2</t>
-  </si>
-  <si>
     <t>AROMEL_SH_6</t>
   </si>
   <si>
@@ -198,9 +192,6 @@
     <t>MYRGAL_SH_2</t>
   </si>
   <si>
-    <t>SPIALB_SH_8</t>
-  </si>
-  <si>
     <t>MYRGAL_HF_3</t>
   </si>
   <si>
@@ -210,9 +201,6 @@
     <t>AROMEL_WM_5</t>
   </si>
   <si>
-    <t>SPIALB_SH_7</t>
-  </si>
-  <si>
     <t>VIBCAS_HF_1</t>
   </si>
   <si>
@@ -276,9 +264,6 @@
     <t>ALNINC_WM_1</t>
   </si>
   <si>
-    <t>ALNINC_GR_1</t>
-  </si>
-  <si>
     <t>AMECAN_HF_2</t>
   </si>
   <si>
@@ -564,9 +549,6 @@
     <t>ACEPEN_GR_7</t>
   </si>
   <si>
-    <t>BETPOP_WM_8</t>
-  </si>
-  <si>
     <t>BETPOP_GR_5</t>
   </si>
   <si>
@@ -867,9 +849,6 @@
     <t>BETALL_SH_9</t>
   </si>
   <si>
-    <t>ALNINC_HF_6</t>
-  </si>
-  <si>
     <t>DIELON_GR_5</t>
   </si>
   <si>
@@ -940,13 +919,40 @@
   </si>
   <si>
     <t>BETPOP_HF_4</t>
+  </si>
+  <si>
+    <t>ALNINC_GR_11</t>
+  </si>
+  <si>
+    <t>✓</t>
+  </si>
+  <si>
+    <t>ALNINC_HF_5</t>
+  </si>
+  <si>
+    <t>BETPOP_WM_7</t>
+  </si>
+  <si>
+    <t>SORAME_SH_3</t>
+  </si>
+  <si>
+    <t>SPIALB_SH_9</t>
+  </si>
+  <si>
+    <t>(was ALNINC_HF_6)</t>
+  </si>
+  <si>
+    <t>ALNINC_GR_12</t>
+  </si>
+  <si>
+    <t>(was ALNINC_GR_1)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1016,8 +1022,43 @@
       <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Zapf Dingbats"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="Zapf Dingbats"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Zapf Dingbats"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FFFF0000"/>
+      <name val="Zapf Dingbats"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Zapf Dingbats"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Zapf Dingbats"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Zapf Dingbats"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1045,6 +1086,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2591,7 +2638,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="129">
+  <cellXfs count="162">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -2945,6 +2992,101 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -4495,7 +4637,7 @@
   <sheetData>
     <row r="1" spans="1:35" ht="36" customHeight="1">
       <c r="A1" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="B1">
         <v>1</v>
@@ -4503,15 +4645,15 @@
     </row>
     <row r="2" spans="1:35" ht="36" customHeight="1">
       <c r="A2" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="B2" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
     </row>
     <row r="3" spans="1:35" ht="36" customHeight="1">
       <c r="A3" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="B3">
         <v>19</v>
@@ -4519,7 +4661,7 @@
     </row>
     <row r="4" spans="1:35" ht="36" customHeight="1">
       <c r="D4" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
     </row>
     <row r="5" spans="1:35" ht="36" customHeight="1" thickBot="1">
@@ -4622,7 +4764,7 @@
     </row>
     <row r="6" spans="1:35" ht="36" customHeight="1" thickTop="1">
       <c r="B6" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="C6">
         <v>1</v>
@@ -4743,43 +4885,43 @@
       <c r="F9" s="19"/>
       <c r="G9" s="5"/>
       <c r="H9" s="39" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="I9" s="54"/>
       <c r="J9" s="54"/>
       <c r="K9" s="54"/>
       <c r="L9" s="39" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="M9" s="54"/>
       <c r="N9" s="54"/>
       <c r="O9" s="54"/>
       <c r="P9" s="39" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="Q9" s="54"/>
       <c r="R9" s="54"/>
       <c r="S9" s="54"/>
       <c r="T9" s="39" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="U9" s="54"/>
       <c r="V9" s="54"/>
       <c r="W9" s="54"/>
       <c r="X9" s="39" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="Y9" s="54"/>
       <c r="Z9" s="54"/>
       <c r="AA9" s="54"/>
       <c r="AB9" s="39" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="AC9" s="54"/>
       <c r="AD9" s="54"/>
       <c r="AE9" s="54"/>
       <c r="AF9" s="39" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="AG9" s="19"/>
       <c r="AH9" s="19"/>
@@ -4941,44 +5083,44 @@
       <c r="E14" s="19"/>
       <c r="F14" s="19"/>
       <c r="G14" s="42" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="H14" s="23"/>
       <c r="I14" s="24"/>
       <c r="J14" s="24"/>
       <c r="K14" s="24"/>
       <c r="L14" s="45" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="M14" s="24"/>
       <c r="N14" s="24"/>
       <c r="O14" s="26"/>
       <c r="P14" s="44" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="Q14" s="24"/>
       <c r="R14" s="24"/>
       <c r="S14" s="24"/>
       <c r="T14" s="45" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="U14" s="24"/>
       <c r="V14" s="24"/>
       <c r="W14" s="24"/>
       <c r="X14" s="45" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="Y14" s="24"/>
       <c r="Z14" s="24"/>
       <c r="AA14" s="26"/>
       <c r="AB14" s="44" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="AC14" s="24"/>
       <c r="AD14" s="24"/>
       <c r="AE14" s="27"/>
       <c r="AF14" s="43" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="AG14" s="19"/>
       <c r="AH14" s="19"/>
@@ -5103,44 +5245,44 @@
       <c r="E18" s="19"/>
       <c r="F18" s="19"/>
       <c r="G18" s="42" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="H18" s="18"/>
       <c r="I18" s="19"/>
       <c r="J18" s="19"/>
       <c r="K18" s="19"/>
       <c r="L18" s="46" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="M18" s="19"/>
       <c r="N18" s="19"/>
       <c r="O18" s="21"/>
       <c r="P18" s="40" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="Q18" s="19"/>
       <c r="R18" s="19"/>
       <c r="S18" s="19"/>
       <c r="T18" s="46" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="U18" s="19"/>
       <c r="V18" s="19"/>
       <c r="W18" s="19"/>
       <c r="X18" s="46" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="Y18" s="19"/>
       <c r="Z18" s="19"/>
       <c r="AA18" s="21"/>
       <c r="AB18" s="40" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="AC18" s="19"/>
       <c r="AD18" s="19"/>
       <c r="AE18" s="22"/>
       <c r="AF18" s="43" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="AG18" s="19"/>
       <c r="AH18" s="19"/>
@@ -5265,44 +5407,44 @@
       <c r="E22" s="19"/>
       <c r="F22" s="19"/>
       <c r="G22" s="42" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="H22" s="23"/>
       <c r="I22" s="24"/>
       <c r="J22" s="24"/>
       <c r="K22" s="24"/>
       <c r="L22" s="45" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="M22" s="24"/>
       <c r="N22" s="24"/>
       <c r="O22" s="26"/>
       <c r="P22" s="44" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="Q22" s="24"/>
       <c r="R22" s="24"/>
       <c r="S22" s="24"/>
       <c r="T22" s="45" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="U22" s="24"/>
       <c r="V22" s="24"/>
       <c r="W22" s="24"/>
       <c r="X22" s="45" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="Y22" s="24"/>
       <c r="Z22" s="24"/>
       <c r="AA22" s="26"/>
       <c r="AB22" s="44" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="AC22" s="24"/>
       <c r="AD22" s="24"/>
       <c r="AE22" s="27"/>
       <c r="AF22" s="43" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="AG22" s="19"/>
       <c r="AH22" s="19"/>
@@ -5427,44 +5569,44 @@
       <c r="E26" s="19"/>
       <c r="F26" s="19"/>
       <c r="G26" s="42" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="H26" s="23"/>
       <c r="I26" s="24"/>
       <c r="J26" s="24"/>
       <c r="K26" s="24"/>
       <c r="L26" s="45" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="M26" s="24"/>
       <c r="N26" s="24"/>
       <c r="O26" s="26"/>
       <c r="P26" s="44" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="Q26" s="24"/>
       <c r="R26" s="24"/>
       <c r="S26" s="24"/>
       <c r="T26" s="45" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="U26" s="24"/>
       <c r="V26" s="24"/>
       <c r="W26" s="24"/>
       <c r="X26" s="45" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="Y26" s="24"/>
       <c r="Z26" s="24"/>
       <c r="AA26" s="26"/>
       <c r="AB26" s="44" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="AC26" s="24"/>
       <c r="AD26" s="24"/>
       <c r="AE26" s="27"/>
       <c r="AF26" s="43" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="AG26" s="19"/>
       <c r="AH26" s="19"/>
@@ -5589,44 +5731,44 @@
       <c r="E30" s="19"/>
       <c r="F30" s="19"/>
       <c r="G30" s="42" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="H30" s="18"/>
       <c r="I30" s="19"/>
       <c r="J30" s="19"/>
       <c r="K30" s="19"/>
       <c r="L30" s="46" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="M30" s="19"/>
       <c r="N30" s="19"/>
       <c r="O30" s="21"/>
       <c r="P30" s="40" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="Q30" s="19"/>
       <c r="R30" s="19"/>
       <c r="S30" s="19"/>
       <c r="T30" s="46" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="U30" s="19"/>
       <c r="V30" s="19"/>
       <c r="W30" s="19"/>
       <c r="X30" s="46" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="Y30" s="19"/>
       <c r="Z30" s="19"/>
       <c r="AA30" s="21"/>
       <c r="AB30" s="40" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="AC30" s="19"/>
       <c r="AD30" s="19"/>
       <c r="AE30" s="22"/>
       <c r="AF30" s="43" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="AG30" s="19"/>
       <c r="AH30" s="19"/>
@@ -5752,43 +5894,43 @@
       <c r="F34" s="19"/>
       <c r="G34" s="5"/>
       <c r="H34" s="40" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="I34" s="19"/>
       <c r="J34" s="19"/>
       <c r="K34" s="19"/>
       <c r="L34" s="40" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="M34" s="19"/>
       <c r="N34" s="19"/>
       <c r="O34" s="19"/>
       <c r="P34" s="43" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="Q34" s="19"/>
       <c r="R34" s="19"/>
       <c r="S34" s="19"/>
       <c r="T34" s="40" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="U34" s="19"/>
       <c r="V34" s="19"/>
       <c r="W34" s="19"/>
       <c r="X34" s="40" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="Y34" s="19"/>
       <c r="Z34" s="19"/>
       <c r="AA34" s="19"/>
       <c r="AB34" s="40" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="AC34" s="19"/>
       <c r="AD34" s="19"/>
       <c r="AE34" s="19"/>
       <c r="AF34" s="43" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="AG34" s="19"/>
       <c r="AH34" s="19"/>
@@ -5907,6 +6049,7 @@
     </row>
     <row r="38" spans="3:35" ht="36" customHeight="1" thickTop="1"/>
   </sheetData>
+  <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
@@ -5921,15 +6064,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AI38"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="AB34" sqref="AB34"/>
+    <sheetView topLeftCell="G7" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="75" workbookViewId="0">
+      <selection activeCell="Z15" sqref="Z15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="6" defaultRowHeight="36" customHeight="1" x14ac:dyDescent="0"/>
   <sheetData>
     <row r="1" spans="1:35" ht="36" customHeight="1">
       <c r="A1" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="B1">
         <v>8</v>
@@ -5937,7 +6080,7 @@
     </row>
     <row r="2" spans="1:35" ht="36" customHeight="1">
       <c r="A2" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="B2" t="s">
         <v>0</v>
@@ -5945,7 +6088,7 @@
     </row>
     <row r="3" spans="1:35" ht="36" customHeight="1">
       <c r="A3" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="B3">
         <v>46</v>
@@ -5953,7 +6096,7 @@
     </row>
     <row r="4" spans="1:35" ht="36" customHeight="1">
       <c r="D4" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
     </row>
     <row r="5" spans="1:35" ht="36" customHeight="1" thickBot="1">
@@ -6056,7 +6199,7 @@
     </row>
     <row r="6" spans="1:35" ht="36" customHeight="1" thickTop="1">
       <c r="B6" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="C6">
         <v>1</v>
@@ -6177,43 +6320,43 @@
       <c r="F9" s="5"/>
       <c r="G9" s="5"/>
       <c r="H9" s="39" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="I9" s="54"/>
       <c r="J9" s="54"/>
       <c r="K9" s="54"/>
       <c r="L9" s="39" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="M9" s="54"/>
       <c r="N9" s="54"/>
       <c r="O9" s="54"/>
       <c r="P9" s="39" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="Q9" s="54"/>
       <c r="R9" s="54"/>
       <c r="S9" s="54"/>
       <c r="T9" s="39" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="U9" s="54"/>
       <c r="V9" s="54"/>
       <c r="W9" s="54"/>
       <c r="X9" s="39" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="Y9" s="54"/>
       <c r="Z9" s="54"/>
       <c r="AA9" s="54"/>
       <c r="AB9" s="39" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="AC9" s="54"/>
       <c r="AD9" s="54"/>
       <c r="AE9" s="54"/>
       <c r="AF9" s="39" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="AG9" s="5"/>
       <c r="AH9" s="5"/>
@@ -6234,25 +6377,25 @@
       <c r="J10" s="13"/>
       <c r="K10" s="13"/>
       <c r="L10" s="115" t="s">
-        <v>281</v>
+        <v>274</v>
       </c>
       <c r="M10" s="13"/>
       <c r="N10" s="13"/>
       <c r="O10" s="16"/>
       <c r="P10" s="110" t="s">
-        <v>281</v>
+        <v>274</v>
       </c>
       <c r="Q10" s="13"/>
       <c r="R10" s="13"/>
       <c r="S10" s="13"/>
       <c r="T10" s="86" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="U10" s="13"/>
       <c r="V10" s="13"/>
       <c r="W10" s="13"/>
       <c r="X10" s="15" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="Y10" s="13"/>
       <c r="Z10" s="13"/>
@@ -6389,12 +6532,14 @@
       <c r="E14" s="5"/>
       <c r="F14" s="5"/>
       <c r="G14" s="42" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="H14" s="88" t="s">
-        <v>74</v>
-      </c>
-      <c r="I14" s="24"/>
+        <v>70</v>
+      </c>
+      <c r="I14" s="137" t="s">
+        <v>295</v>
+      </c>
       <c r="J14" s="24"/>
       <c r="K14" s="24"/>
       <c r="L14" s="90" t="s">
@@ -6410,7 +6555,7 @@
       <c r="R14" s="24"/>
       <c r="S14" s="24"/>
       <c r="T14" s="90" t="s">
-        <v>282</v>
+        <v>275</v>
       </c>
       <c r="U14" s="24"/>
       <c r="V14" s="24"/>
@@ -6418,7 +6563,9 @@
       <c r="X14" s="89" t="s">
         <v>1</v>
       </c>
-      <c r="Y14" s="24"/>
+      <c r="Y14" s="137" t="s">
+        <v>295</v>
+      </c>
       <c r="Z14" s="24"/>
       <c r="AA14" s="26"/>
       <c r="AB14" s="24" t="s">
@@ -6428,9 +6575,11 @@
       <c r="AD14" s="24"/>
       <c r="AE14" s="27"/>
       <c r="AF14" s="80" t="s">
-        <v>264</v>
-      </c>
-      <c r="AG14" s="5"/>
+        <v>258</v>
+      </c>
+      <c r="AG14" s="148" t="s">
+        <v>295</v>
+      </c>
       <c r="AH14" s="5"/>
       <c r="AI14" s="6"/>
     </row>
@@ -6553,22 +6702,22 @@
       <c r="E18" s="5"/>
       <c r="F18" s="5"/>
       <c r="G18" s="42" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="H18" s="18" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="I18" s="19"/>
       <c r="J18" s="19"/>
       <c r="K18" s="19"/>
       <c r="L18" s="20" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="M18" s="19"/>
       <c r="N18" s="19"/>
       <c r="O18" s="21"/>
       <c r="P18" s="80" t="s">
-        <v>283</v>
+        <v>276</v>
       </c>
       <c r="Q18" s="19"/>
       <c r="R18" s="19"/>
@@ -6580,7 +6729,7 @@
       <c r="V18" s="19"/>
       <c r="W18" s="19"/>
       <c r="X18" s="71" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="Y18" s="19"/>
       <c r="Z18" s="19"/>
@@ -6717,22 +6866,22 @@
       <c r="E22" s="5"/>
       <c r="F22" s="5"/>
       <c r="G22" s="42" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="H22" s="92" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="I22" s="24"/>
       <c r="J22" s="24"/>
       <c r="K22" s="24"/>
       <c r="L22" s="90" t="s">
-        <v>284</v>
+        <v>277</v>
       </c>
       <c r="M22" s="24"/>
       <c r="N22" s="24"/>
       <c r="O22" s="26"/>
       <c r="P22" s="24" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="Q22" s="24"/>
       <c r="R22" s="24"/>
@@ -6750,7 +6899,7 @@
       <c r="Z22" s="24"/>
       <c r="AA22" s="26"/>
       <c r="AB22" s="24" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="AC22" s="24"/>
       <c r="AD22" s="24"/>
@@ -6867,9 +7016,9 @@
       <c r="AB25" s="29"/>
       <c r="AC25" s="29"/>
       <c r="AD25" s="29"/>
-      <c r="AE25" s="32"/>
-      <c r="AF25" s="19"/>
-      <c r="AG25" s="5"/>
+      <c r="AE25" s="130"/>
+      <c r="AF25" s="103"/>
+      <c r="AG25" s="133"/>
       <c r="AH25" s="5"/>
       <c r="AI25" s="6"/>
     </row>
@@ -6881,34 +7030,36 @@
       <c r="E26" s="5"/>
       <c r="F26" s="5"/>
       <c r="G26" s="42" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="H26" s="88" t="s">
-        <v>285</v>
+        <v>278</v>
       </c>
       <c r="I26" s="24"/>
       <c r="J26" s="24"/>
       <c r="K26" s="24"/>
       <c r="L26" s="90" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="M26" s="24"/>
       <c r="N26" s="24"/>
       <c r="O26" s="26"/>
       <c r="P26" s="93" t="s">
-        <v>264</v>
-      </c>
-      <c r="Q26" s="24"/>
+        <v>258</v>
+      </c>
+      <c r="Q26" s="137" t="s">
+        <v>295</v>
+      </c>
       <c r="R26" s="24"/>
       <c r="S26" s="24"/>
       <c r="T26" s="25" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="U26" s="24"/>
       <c r="V26" s="24"/>
       <c r="W26" s="24"/>
       <c r="X26" s="90" t="s">
-        <v>286</v>
+        <v>279</v>
       </c>
       <c r="Y26" s="24"/>
       <c r="Z26" s="24"/>
@@ -6916,11 +7067,11 @@
       <c r="AB26" s="24"/>
       <c r="AC26" s="24"/>
       <c r="AD26" s="24"/>
-      <c r="AE26" s="27"/>
+      <c r="AE26" s="131"/>
       <c r="AF26" s="63" t="s">
-        <v>287</v>
-      </c>
-      <c r="AG26" s="5"/>
+        <v>280</v>
+      </c>
+      <c r="AG26" s="133"/>
       <c r="AH26" s="5"/>
       <c r="AI26" s="6"/>
     </row>
@@ -6955,9 +7106,9 @@
       <c r="AB27" s="19"/>
       <c r="AC27" s="19"/>
       <c r="AD27" s="19"/>
-      <c r="AE27" s="22"/>
-      <c r="AF27" s="19"/>
-      <c r="AG27" s="5"/>
+      <c r="AE27" s="132"/>
+      <c r="AF27" s="103"/>
+      <c r="AG27" s="133"/>
       <c r="AH27" s="5"/>
       <c r="AI27" s="6"/>
     </row>
@@ -7043,7 +7194,7 @@
       <c r="E30" s="5"/>
       <c r="F30" s="5"/>
       <c r="G30" s="42" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="H30" s="18" t="s">
         <v>25</v>
@@ -7054,7 +7205,9 @@
       <c r="L30" s="71" t="s">
         <v>37</v>
       </c>
-      <c r="M30" s="19"/>
+      <c r="M30" s="139" t="s">
+        <v>295</v>
+      </c>
       <c r="N30" s="19"/>
       <c r="O30" s="21"/>
       <c r="P30" s="19" t="s">
@@ -7076,7 +7229,7 @@
       <c r="Z30" s="19"/>
       <c r="AA30" s="21"/>
       <c r="AB30" s="19" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="AC30" s="19"/>
       <c r="AD30" s="19"/>
@@ -7084,7 +7237,9 @@
       <c r="AF30" s="80" t="s">
         <v>37</v>
       </c>
-      <c r="AG30" s="5"/>
+      <c r="AG30" s="148" t="s">
+        <v>295</v>
+      </c>
       <c r="AH30" s="5"/>
       <c r="AI30" s="6"/>
     </row>
@@ -7208,7 +7363,7 @@
       <c r="F34" s="5"/>
       <c r="G34" s="5"/>
       <c r="H34" s="63" t="s">
-        <v>288</v>
+        <v>281</v>
       </c>
       <c r="I34" s="19"/>
       <c r="J34" s="19"/>
@@ -7358,7 +7513,9 @@
     </row>
     <row r="38" spans="3:35" ht="36" customHeight="1" thickTop="1"/>
   </sheetData>
+  <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -7371,8 +7528,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AI38"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView topLeftCell="H12" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="U17" sqref="U17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -7382,7 +7539,7 @@
   <sheetData>
     <row r="1" spans="1:35" ht="36" customHeight="1">
       <c r="A1" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="B1">
         <v>9</v>
@@ -7390,15 +7547,15 @@
     </row>
     <row r="2" spans="1:35" ht="36" customHeight="1">
       <c r="A2" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="B2" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
     </row>
     <row r="3" spans="1:35" ht="36" customHeight="1">
       <c r="A3" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="B3">
         <v>14</v>
@@ -7406,7 +7563,7 @@
     </row>
     <row r="4" spans="1:35" ht="36" customHeight="1">
       <c r="D4" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
     </row>
     <row r="5" spans="1:35" ht="36" customHeight="1" thickBot="1">
@@ -7509,7 +7666,7 @@
     </row>
     <row r="6" spans="1:35" ht="36" customHeight="1" thickTop="1">
       <c r="B6" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="C6">
         <v>1</v>
@@ -7630,43 +7787,43 @@
       <c r="F9" s="5"/>
       <c r="G9" s="5"/>
       <c r="H9" s="39" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="I9" s="54"/>
       <c r="J9" s="54"/>
       <c r="K9" s="54"/>
       <c r="L9" s="39" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="M9" s="54"/>
       <c r="N9" s="54"/>
       <c r="O9" s="54"/>
       <c r="P9" s="39" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="Q9" s="54"/>
       <c r="R9" s="54"/>
       <c r="S9" s="54"/>
       <c r="T9" s="39" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="U9" s="54"/>
       <c r="V9" s="54"/>
       <c r="W9" s="54"/>
       <c r="X9" s="39" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="Y9" s="54"/>
       <c r="Z9" s="54"/>
       <c r="AA9" s="54"/>
       <c r="AB9" s="39" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="AC9" s="54"/>
       <c r="AD9" s="54"/>
       <c r="AE9" s="54"/>
       <c r="AF9" s="39" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="AG9" s="5"/>
       <c r="AH9" s="5"/>
@@ -7681,9 +7838,11 @@
       <c r="F10" s="5"/>
       <c r="G10" s="19"/>
       <c r="H10" s="85" t="s">
-        <v>193</v>
-      </c>
-      <c r="I10" s="13"/>
+        <v>187</v>
+      </c>
+      <c r="I10" s="147" t="s">
+        <v>295</v>
+      </c>
       <c r="J10" s="13"/>
       <c r="K10" s="13"/>
       <c r="L10" s="15"/>
@@ -7733,7 +7892,7 @@
       <c r="S11" s="19"/>
       <c r="T11" s="20"/>
       <c r="U11" s="63" t="s">
-        <v>298</v>
+        <v>291</v>
       </c>
       <c r="V11" s="19"/>
       <c r="W11" s="19"/>
@@ -7778,8 +7937,8 @@
       <c r="AA12" s="21"/>
       <c r="AB12" s="19"/>
       <c r="AC12" s="19"/>
-      <c r="AD12" s="80" t="s">
-        <v>175</v>
+      <c r="AD12" s="129" t="s">
+        <v>297</v>
       </c>
       <c r="AE12" s="22"/>
       <c r="AF12" s="19"/>
@@ -7832,44 +7991,44 @@
       <c r="E14" s="5"/>
       <c r="F14" s="5"/>
       <c r="G14" s="42" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="H14" s="23"/>
       <c r="I14" s="24"/>
       <c r="J14" s="24"/>
       <c r="K14" s="24"/>
       <c r="L14" s="45" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="M14" s="24"/>
       <c r="N14" s="24"/>
       <c r="O14" s="26"/>
       <c r="P14" s="44" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="Q14" s="24"/>
       <c r="R14" s="24"/>
       <c r="S14" s="24"/>
       <c r="T14" s="45" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="U14" s="24"/>
       <c r="V14" s="24"/>
       <c r="W14" s="24"/>
       <c r="X14" s="45" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="Y14" s="24"/>
       <c r="Z14" s="24"/>
       <c r="AA14" s="26"/>
       <c r="AB14" s="44" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="AC14" s="24"/>
       <c r="AD14" s="24"/>
       <c r="AE14" s="27"/>
       <c r="AF14" s="43" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="AG14" s="5"/>
       <c r="AH14" s="5"/>
@@ -7926,9 +8085,11 @@
       <c r="K16" s="19"/>
       <c r="L16" s="20"/>
       <c r="M16" s="80" t="s">
-        <v>96</v>
-      </c>
-      <c r="N16" s="19"/>
+        <v>91</v>
+      </c>
+      <c r="N16" s="139" t="s">
+        <v>295</v>
+      </c>
       <c r="O16" s="21"/>
       <c r="P16" s="19"/>
       <c r="Q16" s="19"/>
@@ -7973,9 +8134,11 @@
       <c r="S17" s="29"/>
       <c r="T17" s="30"/>
       <c r="U17" s="87" t="s">
-        <v>86</v>
-      </c>
-      <c r="V17" s="29"/>
+        <v>81</v>
+      </c>
+      <c r="V17" s="150" t="s">
+        <v>295</v>
+      </c>
       <c r="W17" s="29"/>
       <c r="X17" s="30"/>
       <c r="Y17" s="29"/>
@@ -7998,44 +8161,44 @@
       <c r="E18" s="5"/>
       <c r="F18" s="5"/>
       <c r="G18" s="42" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="H18" s="18"/>
       <c r="I18" s="19"/>
       <c r="J18" s="19"/>
       <c r="K18" s="19"/>
       <c r="L18" s="46" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="M18" s="19"/>
       <c r="N18" s="19"/>
       <c r="O18" s="21"/>
       <c r="P18" s="40" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="Q18" s="19"/>
       <c r="R18" s="19"/>
       <c r="S18" s="19"/>
       <c r="T18" s="46" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="U18" s="19"/>
       <c r="V18" s="19"/>
       <c r="W18" s="19"/>
       <c r="X18" s="46" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="Y18" s="19"/>
       <c r="Z18" s="19"/>
       <c r="AA18" s="21"/>
       <c r="AB18" s="40" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="AC18" s="19"/>
       <c r="AD18" s="19"/>
       <c r="AE18" s="22"/>
       <c r="AF18" s="43" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="AG18" s="5"/>
       <c r="AH18" s="5"/>
@@ -8087,7 +8250,7 @@
       <c r="F20" s="5"/>
       <c r="G20" s="19"/>
       <c r="H20" s="18" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="I20" s="19"/>
       <c r="J20" s="19"/>
@@ -8095,9 +8258,11 @@
       <c r="L20" s="20"/>
       <c r="M20" s="19"/>
       <c r="N20" s="80" t="s">
-        <v>121</v>
-      </c>
-      <c r="O20" s="21"/>
+        <v>116</v>
+      </c>
+      <c r="O20" s="156" t="s">
+        <v>295</v>
+      </c>
       <c r="P20" s="19"/>
       <c r="Q20" s="19"/>
       <c r="R20" s="19"/>
@@ -8145,9 +8310,11 @@
       <c r="W21" s="19"/>
       <c r="X21" s="20"/>
       <c r="Y21" s="80" t="s">
-        <v>194</v>
-      </c>
-      <c r="Z21" s="19"/>
+        <v>188</v>
+      </c>
+      <c r="Z21" s="139" t="s">
+        <v>295</v>
+      </c>
       <c r="AA21" s="21"/>
       <c r="AB21" s="19"/>
       <c r="AC21" s="19"/>
@@ -8166,44 +8333,44 @@
       <c r="E22" s="5"/>
       <c r="F22" s="5"/>
       <c r="G22" s="42" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="H22" s="23"/>
       <c r="I22" s="24"/>
       <c r="J22" s="24"/>
       <c r="K22" s="24"/>
       <c r="L22" s="45" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="M22" s="24"/>
       <c r="N22" s="24"/>
       <c r="O22" s="26"/>
       <c r="P22" s="44" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="Q22" s="24"/>
       <c r="R22" s="24"/>
       <c r="S22" s="24"/>
       <c r="T22" s="45" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="U22" s="24"/>
       <c r="V22" s="24"/>
       <c r="W22" s="24"/>
       <c r="X22" s="45" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="Y22" s="24"/>
       <c r="Z22" s="24"/>
       <c r="AA22" s="26"/>
       <c r="AB22" s="44" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="AC22" s="24"/>
       <c r="AD22" s="24"/>
       <c r="AE22" s="27"/>
       <c r="AF22" s="43" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="AG22" s="5"/>
       <c r="AH22" s="5"/>
@@ -8255,7 +8422,7 @@
       <c r="F24" s="5"/>
       <c r="G24" s="19"/>
       <c r="H24" s="82" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="I24" s="19"/>
       <c r="J24" s="19"/>
@@ -8266,8 +8433,8 @@
       <c r="O24" s="21"/>
       <c r="P24" s="19"/>
       <c r="Q24" s="19"/>
-      <c r="R24" s="80" t="s">
-        <v>276</v>
+      <c r="R24" s="129" t="s">
+        <v>95</v>
       </c>
       <c r="S24" s="19"/>
       <c r="T24" s="20"/>
@@ -8332,43 +8499,43 @@
       <c r="E26" s="5"/>
       <c r="F26" s="5"/>
       <c r="G26" s="42" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="H26" s="23"/>
       <c r="I26" s="24"/>
       <c r="J26" s="24"/>
       <c r="K26" s="24"/>
       <c r="L26" s="45" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="M26" s="24"/>
       <c r="N26" s="24"/>
       <c r="O26" s="26"/>
       <c r="P26" s="44" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="Q26" s="24"/>
       <c r="R26" s="24"/>
       <c r="S26" s="24"/>
       <c r="T26" s="45" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="U26" s="24"/>
       <c r="V26" s="24"/>
       <c r="W26" s="24"/>
       <c r="X26" s="45" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="Y26" s="24"/>
       <c r="Z26" s="24"/>
       <c r="AB26" s="44" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="AC26" s="24"/>
       <c r="AD26" s="24"/>
       <c r="AE26" s="27"/>
       <c r="AF26" s="43" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="AG26" s="5"/>
       <c r="AH26" s="5"/>
@@ -8425,9 +8592,11 @@
       <c r="K28" s="19"/>
       <c r="L28" s="20"/>
       <c r="M28" s="80" t="s">
-        <v>86</v>
-      </c>
-      <c r="N28" s="19"/>
+        <v>81</v>
+      </c>
+      <c r="N28" s="139" t="s">
+        <v>295</v>
+      </c>
       <c r="O28" s="21"/>
       <c r="P28" s="19"/>
       <c r="Q28" s="19"/>
@@ -8445,9 +8614,11 @@
       <c r="AC28" s="19"/>
       <c r="AD28" s="19"/>
       <c r="AE28" s="81" t="s">
-        <v>86</v>
-      </c>
-      <c r="AF28" s="41"/>
+        <v>81</v>
+      </c>
+      <c r="AF28" s="149" t="s">
+        <v>295</v>
+      </c>
       <c r="AG28" s="5"/>
       <c r="AH28" s="5"/>
       <c r="AI28" s="6"/>
@@ -8497,44 +8668,44 @@
       <c r="E30" s="5"/>
       <c r="F30" s="5"/>
       <c r="G30" s="42" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="H30" s="18"/>
       <c r="I30" s="19"/>
       <c r="J30" s="19"/>
       <c r="K30" s="19"/>
       <c r="L30" s="46" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="M30" s="19"/>
       <c r="N30" s="19"/>
       <c r="O30" s="21"/>
       <c r="P30" s="40" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="Q30" s="19"/>
       <c r="R30" s="19"/>
       <c r="S30" s="19"/>
       <c r="T30" s="46" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="U30" s="19"/>
       <c r="V30" s="19"/>
       <c r="W30" s="19"/>
       <c r="X30" s="46" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="Y30" s="19"/>
       <c r="Z30" s="19"/>
       <c r="AA30" s="21"/>
       <c r="AB30" s="40" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="AC30" s="19"/>
       <c r="AD30" s="19"/>
       <c r="AE30" s="22"/>
       <c r="AF30" s="43" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="AG30" s="5"/>
       <c r="AH30" s="5"/>
@@ -8626,7 +8797,7 @@
       <c r="I33" s="34"/>
       <c r="J33" s="34"/>
       <c r="K33" s="34" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="L33" s="35"/>
       <c r="M33" s="34"/>
@@ -8642,7 +8813,7 @@
       <c r="W33" s="34"/>
       <c r="X33" s="35"/>
       <c r="Y33" s="77" t="s">
-        <v>300</v>
+        <v>293</v>
       </c>
       <c r="Z33" s="34"/>
       <c r="AA33" s="36"/>
@@ -8664,43 +8835,43 @@
       <c r="F34" s="5"/>
       <c r="G34" s="5"/>
       <c r="H34" s="40" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="I34" s="19"/>
       <c r="J34" s="19"/>
       <c r="K34" s="19"/>
       <c r="L34" s="40" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="M34" s="19"/>
       <c r="N34" s="19"/>
       <c r="O34" s="19"/>
       <c r="P34" s="43" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="Q34" s="19"/>
       <c r="R34" s="19"/>
       <c r="S34" s="19"/>
       <c r="T34" s="40" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="U34" s="19"/>
       <c r="V34" s="19"/>
       <c r="W34" s="19"/>
       <c r="X34" s="40" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="Y34" s="19"/>
       <c r="Z34" s="19"/>
       <c r="AA34" s="19"/>
       <c r="AB34" s="40" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="AC34" s="19"/>
       <c r="AD34" s="19"/>
       <c r="AE34" s="19"/>
       <c r="AF34" s="43" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="AG34" s="5"/>
       <c r="AH34" s="5"/>
@@ -8819,6 +8990,7 @@
     </row>
     <row r="38" spans="3:35" ht="16" thickTop="1"/>
   </sheetData>
+  <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
@@ -8833,15 +9005,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AI38"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView topLeftCell="D11" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="75" workbookViewId="0">
+      <selection activeCell="N27" sqref="N27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="6" defaultRowHeight="36" customHeight="1" x14ac:dyDescent="0"/>
   <sheetData>
     <row r="1" spans="1:35" ht="36" customHeight="1">
       <c r="A1" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="B1">
         <v>10</v>
@@ -8849,15 +9021,15 @@
     </row>
     <row r="2" spans="1:35" ht="36" customHeight="1">
       <c r="A2" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="B2" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
     </row>
     <row r="3" spans="1:35" ht="36" customHeight="1">
       <c r="A3" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="B3">
         <v>37</v>
@@ -8865,7 +9037,7 @@
     </row>
     <row r="4" spans="1:35" ht="36" customHeight="1">
       <c r="D4" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
     </row>
     <row r="5" spans="1:35" ht="36" customHeight="1" thickBot="1">
@@ -8968,7 +9140,7 @@
     </row>
     <row r="6" spans="1:35" ht="36" customHeight="1" thickTop="1">
       <c r="B6" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="C6">
         <v>1</v>
@@ -9089,43 +9261,43 @@
       <c r="F9" s="5"/>
       <c r="G9" s="5"/>
       <c r="H9" s="39" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="I9" s="54"/>
       <c r="J9" s="54"/>
       <c r="K9" s="54"/>
       <c r="L9" s="39" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="M9" s="54"/>
       <c r="N9" s="54"/>
       <c r="O9" s="54"/>
       <c r="P9" s="39" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="Q9" s="54"/>
       <c r="R9" s="54"/>
       <c r="S9" s="54"/>
       <c r="T9" s="39" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="U9" s="54"/>
       <c r="V9" s="54"/>
       <c r="W9" s="54"/>
       <c r="X9" s="39" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="Y9" s="54"/>
       <c r="Z9" s="54"/>
       <c r="AA9" s="54"/>
       <c r="AB9" s="39" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="AC9" s="54"/>
       <c r="AD9" s="54"/>
       <c r="AE9" s="54"/>
       <c r="AF9" s="39" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="AG9" s="5"/>
       <c r="AH9" s="5"/>
@@ -9140,7 +9312,7 @@
       <c r="F10" s="5"/>
       <c r="G10" s="19"/>
       <c r="H10" s="14" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="I10" s="13"/>
       <c r="J10" s="13"/>
@@ -9148,7 +9320,7 @@
       <c r="L10" s="15"/>
       <c r="M10" s="13"/>
       <c r="N10" s="97" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="O10" s="16"/>
       <c r="P10" s="13"/>
@@ -9156,7 +9328,7 @@
       <c r="R10" s="13"/>
       <c r="S10" s="13"/>
       <c r="T10" s="15" t="s">
-        <v>291</v>
+        <v>284</v>
       </c>
       <c r="U10" s="13"/>
       <c r="V10" s="13"/>
@@ -9166,7 +9338,7 @@
       <c r="Z10" s="13"/>
       <c r="AA10" s="16"/>
       <c r="AB10" s="79" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="AC10" s="13"/>
       <c r="AD10" s="13"/>
@@ -9201,7 +9373,7 @@
       <c r="V11" s="19"/>
       <c r="W11" s="19"/>
       <c r="X11" s="71" t="s">
-        <v>295</v>
+        <v>288</v>
       </c>
       <c r="Y11" s="19"/>
       <c r="Z11" s="19"/>
@@ -9302,27 +9474,27 @@
       <c r="J14" s="24"/>
       <c r="K14" s="24"/>
       <c r="L14" s="45" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="M14" s="24" t="s">
-        <v>292</v>
+        <v>285</v>
       </c>
       <c r="N14" s="24"/>
       <c r="O14" s="26"/>
       <c r="P14" s="44"/>
       <c r="Q14" s="24" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="R14" s="24"/>
       <c r="S14" s="24"/>
       <c r="T14" s="45" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="U14" s="24"/>
       <c r="V14" s="24"/>
       <c r="W14" s="24"/>
       <c r="X14" s="45" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="Y14" s="24"/>
       <c r="Z14" s="24"/>
@@ -9330,10 +9502,10 @@
       <c r="AC14" s="24"/>
       <c r="AD14" s="24"/>
       <c r="AE14" s="117" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="AF14" s="43" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="AG14" s="5"/>
       <c r="AH14" s="5"/>
@@ -9348,7 +9520,7 @@
       <c r="F15" s="5"/>
       <c r="G15" s="19"/>
       <c r="H15" s="19" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="I15" s="19"/>
       <c r="K15" s="19"/>
@@ -9363,7 +9535,7 @@
       <c r="U15" s="19"/>
       <c r="V15" s="19"/>
       <c r="W15" s="19" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="X15" s="20"/>
       <c r="Y15" s="19"/>
@@ -9406,7 +9578,7 @@
       <c r="Y16" s="19"/>
       <c r="Z16" s="19"/>
       <c r="AA16" s="21" t="s">
-        <v>293</v>
+        <v>286</v>
       </c>
       <c r="AB16" s="19"/>
       <c r="AC16" s="19"/>
@@ -9462,46 +9634,46 @@
       <c r="E18" s="5"/>
       <c r="F18" s="5"/>
       <c r="G18" s="42" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="H18" s="18"/>
       <c r="I18" s="19"/>
       <c r="J18" s="19"/>
       <c r="K18" s="19"/>
       <c r="L18" s="46" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="M18" s="19"/>
       <c r="N18" s="19"/>
       <c r="O18" s="21"/>
       <c r="P18" s="40" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="Q18" s="80" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="R18" s="19"/>
       <c r="S18" s="19"/>
       <c r="T18" s="46" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="U18" s="19"/>
       <c r="V18" s="19"/>
       <c r="W18" s="19"/>
       <c r="X18" s="46" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="Y18" s="19"/>
       <c r="Z18" s="19"/>
       <c r="AA18" s="21"/>
       <c r="AB18" s="40" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="AC18" s="19"/>
       <c r="AD18" s="19"/>
       <c r="AE18" s="22"/>
       <c r="AF18" s="43" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="AG18" s="5"/>
       <c r="AH18" s="5"/>
@@ -9516,14 +9688,14 @@
       <c r="F19" s="5"/>
       <c r="G19" s="19"/>
       <c r="H19" s="118" t="s">
-        <v>279</v>
+        <v>272</v>
       </c>
       <c r="I19" s="19"/>
       <c r="J19" s="19"/>
       <c r="K19" s="19"/>
       <c r="L19" s="20"/>
       <c r="M19" s="19" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="O19" s="21"/>
       <c r="P19" s="19"/>
@@ -9531,7 +9703,7 @@
       <c r="R19" s="19"/>
       <c r="S19" s="19"/>
       <c r="T19" s="20" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="U19" s="19"/>
       <c r="V19" s="19"/>
@@ -9539,14 +9711,14 @@
       <c r="X19" s="20"/>
       <c r="Y19" s="19"/>
       <c r="Z19" s="80" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="AA19" s="21"/>
       <c r="AB19" s="19"/>
       <c r="AC19" s="19"/>
       <c r="AD19" s="19"/>
-      <c r="AE19" s="81" t="s">
-        <v>142</v>
+      <c r="AE19" s="143" t="s">
+        <v>298</v>
       </c>
       <c r="AF19" s="41"/>
       <c r="AG19" s="5"/>
@@ -9635,46 +9807,46 @@
       <c r="E22" s="5"/>
       <c r="F22" s="5"/>
       <c r="G22" s="42" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="H22" s="23"/>
       <c r="I22" s="24"/>
       <c r="J22" s="24"/>
       <c r="K22" s="24"/>
       <c r="L22" s="45" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="M22" s="24"/>
       <c r="N22" s="24"/>
       <c r="O22" s="26"/>
       <c r="P22" s="44" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="Q22" s="24"/>
       <c r="R22" s="24"/>
       <c r="S22" s="24"/>
       <c r="T22" s="45" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="U22" s="24"/>
       <c r="V22" s="24"/>
       <c r="W22" s="24"/>
       <c r="X22" s="45" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="Y22" s="24"/>
       <c r="Z22" s="24"/>
       <c r="AA22" s="62" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="AB22" s="44" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="AC22" s="24"/>
       <c r="AD22" s="24"/>
       <c r="AE22" s="27"/>
       <c r="AF22" s="43" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="AG22" s="5"/>
       <c r="AH22" s="5"/>
@@ -9693,14 +9865,14 @@
       <c r="J23" s="19"/>
       <c r="K23" s="19"/>
       <c r="L23" s="72" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="M23" s="19"/>
       <c r="N23" s="19"/>
       <c r="O23" s="21"/>
       <c r="P23" s="19"/>
-      <c r="Q23" s="80" t="s">
-        <v>142</v>
+      <c r="Q23" s="129" t="s">
+        <v>298</v>
       </c>
       <c r="R23" s="19"/>
       <c r="S23" s="19"/>
@@ -9708,7 +9880,7 @@
       <c r="U23" s="19"/>
       <c r="V23" s="19"/>
       <c r="W23" s="19" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="X23" s="20"/>
       <c r="Y23" s="19"/>
@@ -9730,9 +9902,9 @@
       <c r="D24" s="4"/>
       <c r="E24" s="5"/>
       <c r="F24" s="5"/>
-      <c r="G24" s="19"/>
-      <c r="H24" s="18"/>
-      <c r="I24" s="19"/>
+      <c r="G24" s="103"/>
+      <c r="H24" s="101"/>
+      <c r="I24" s="103"/>
       <c r="J24" s="19"/>
       <c r="K24" s="19"/>
       <c r="L24" s="20"/>
@@ -9755,7 +9927,7 @@
       <c r="AC24" s="19"/>
       <c r="AD24" s="19"/>
       <c r="AE24" s="22" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="AF24" s="41"/>
       <c r="AG24" s="5"/>
@@ -9769,11 +9941,13 @@
       <c r="D25" s="4"/>
       <c r="E25" s="5"/>
       <c r="F25" s="5"/>
-      <c r="G25" s="19"/>
+      <c r="G25" s="103"/>
       <c r="H25" s="65" t="s">
+        <v>288</v>
+      </c>
+      <c r="I25" s="153" t="s">
         <v>295</v>
       </c>
-      <c r="I25" s="29"/>
       <c r="J25" s="29"/>
       <c r="K25" s="29"/>
       <c r="L25" s="30"/>
@@ -9808,45 +9982,45 @@
       <c r="D26" s="4"/>
       <c r="E26" s="5"/>
       <c r="F26" s="5"/>
-      <c r="G26" s="42" t="s">
-        <v>229</v>
-      </c>
-      <c r="H26" s="23"/>
-      <c r="I26" s="24"/>
+      <c r="G26" s="144" t="s">
+        <v>223</v>
+      </c>
+      <c r="H26" s="98"/>
+      <c r="I26" s="100"/>
       <c r="J26" s="24"/>
       <c r="K26" s="24"/>
       <c r="L26" s="45" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="M26" s="24"/>
       <c r="N26" s="24"/>
       <c r="O26" s="26"/>
       <c r="P26" s="44" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="Q26" s="24"/>
       <c r="R26" s="24"/>
       <c r="S26" s="24"/>
       <c r="T26" s="45" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="U26" s="24"/>
       <c r="V26" s="24"/>
       <c r="W26" s="24"/>
       <c r="X26" s="127" t="s">
-        <v>280</v>
+        <v>273</v>
       </c>
       <c r="Y26" s="24"/>
       <c r="Z26" s="24"/>
       <c r="AA26" s="26"/>
       <c r="AB26" s="44" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="AC26" s="24"/>
       <c r="AD26" s="24"/>
       <c r="AE26" s="27"/>
       <c r="AF26" s="43" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="AG26" s="5"/>
       <c r="AH26" s="5"/>
@@ -9866,8 +10040,8 @@
       <c r="K27" s="19"/>
       <c r="L27" s="20"/>
       <c r="M27" s="19"/>
-      <c r="N27" s="80" t="s">
-        <v>142</v>
+      <c r="N27" s="129" t="s">
+        <v>298</v>
       </c>
       <c r="O27" s="21"/>
       <c r="P27" s="19"/>
@@ -9875,7 +10049,7 @@
       <c r="R27" s="19"/>
       <c r="S27" s="19"/>
       <c r="T27" s="20" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="U27" s="19"/>
       <c r="V27" s="19"/>
@@ -9885,7 +10059,7 @@
       <c r="Z27" s="19"/>
       <c r="AA27" s="21"/>
       <c r="AB27" s="103" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="AC27" s="19"/>
       <c r="AD27" s="19"/>
@@ -9906,7 +10080,7 @@
       <c r="H28" s="18"/>
       <c r="I28" s="19"/>
       <c r="J28" s="19" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="K28" s="19"/>
       <c r="L28" s="20"/>
@@ -9952,7 +10126,7 @@
       <c r="O29" s="31"/>
       <c r="P29" s="29"/>
       <c r="Q29" s="29" t="s">
-        <v>294</v>
+        <v>287</v>
       </c>
       <c r="S29" s="29"/>
       <c r="T29" s="30"/>
@@ -9980,7 +10154,7 @@
       <c r="E30" s="5"/>
       <c r="F30" s="5"/>
       <c r="G30" s="42" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="H30" s="18"/>
       <c r="I30" s="19"/>
@@ -9991,34 +10165,34 @@
       <c r="N30" s="19"/>
       <c r="O30" s="21"/>
       <c r="P30" s="40" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="R30" s="19"/>
       <c r="S30" s="19"/>
       <c r="T30" s="46" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="U30" s="19"/>
       <c r="V30" s="19"/>
       <c r="W30" s="80" t="s">
-        <v>157</v>
-      </c>
-      <c r="X30" s="46" t="s">
-        <v>252</v>
+        <v>152</v>
+      </c>
+      <c r="X30" s="160" t="s">
+        <v>295</v>
       </c>
       <c r="Y30" s="19"/>
       <c r="Z30" s="19"/>
       <c r="AA30" s="21"/>
       <c r="AB30" s="40" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="AC30" s="19"/>
       <c r="AD30" s="19"/>
       <c r="AE30" s="22" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="AF30" s="43" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="AG30" s="5"/>
       <c r="AH30" s="5"/>
@@ -10033,7 +10207,7 @@
       <c r="F31" s="5"/>
       <c r="G31" s="19"/>
       <c r="H31" s="118" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="I31" s="19"/>
       <c r="J31" s="19"/>
@@ -10041,7 +10215,7 @@
       <c r="L31" s="20"/>
       <c r="M31" s="19"/>
       <c r="N31" s="19" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="O31" s="21"/>
       <c r="Q31" s="19"/>
@@ -10091,9 +10265,11 @@
       <c r="Y32" s="19"/>
       <c r="Z32" s="19"/>
       <c r="AA32" s="111" t="s">
-        <v>157</v>
-      </c>
-      <c r="AB32" s="19"/>
+        <v>152</v>
+      </c>
+      <c r="AB32" s="139" t="s">
+        <v>295</v>
+      </c>
       <c r="AC32" s="19"/>
       <c r="AD32" s="19"/>
       <c r="AE32" s="22"/>
@@ -10147,47 +10323,47 @@
       <c r="E34" s="5"/>
       <c r="F34" s="5"/>
       <c r="H34" s="43" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="I34" s="19"/>
       <c r="J34" s="19"/>
       <c r="K34" s="80" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="L34" s="40" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="M34" s="19"/>
       <c r="N34" s="19"/>
       <c r="O34" s="19"/>
       <c r="P34" s="43" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="Q34" s="19"/>
       <c r="R34" s="19"/>
       <c r="S34" s="80" t="s">
-        <v>289</v>
+        <v>282</v>
       </c>
       <c r="T34" s="55"/>
       <c r="U34" s="19"/>
       <c r="V34" s="19"/>
       <c r="W34" s="19"/>
       <c r="X34" s="40" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="Y34" s="19"/>
       <c r="Z34" s="19"/>
       <c r="AA34" s="19"/>
       <c r="AB34" s="40" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="AC34" s="19"/>
       <c r="AD34" s="19"/>
       <c r="AE34" s="126" t="s">
-        <v>296</v>
+        <v>289</v>
       </c>
       <c r="AF34" s="43" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="AG34" s="5"/>
       <c r="AH34" s="5"/>
@@ -10306,6 +10482,7 @@
     </row>
     <row r="38" spans="3:35" ht="36" customHeight="1" thickTop="1"/>
   </sheetData>
+  <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
@@ -10320,15 +10497,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AI38"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="AB23" sqref="AB23"/>
+    <sheetView topLeftCell="A9" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
+      <selection activeCell="AB22" sqref="AB22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="6" defaultRowHeight="36" customHeight="1" x14ac:dyDescent="0"/>
   <sheetData>
     <row r="1" spans="1:35" ht="36" customHeight="1">
       <c r="A1" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="B1">
         <v>11</v>
@@ -10336,7 +10513,7 @@
     </row>
     <row r="2" spans="1:35" ht="36" customHeight="1">
       <c r="A2" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="B2" t="s">
         <v>0</v>
@@ -10344,7 +10521,7 @@
     </row>
     <row r="3" spans="1:35" ht="36" customHeight="1">
       <c r="A3" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="B3">
         <v>26</v>
@@ -10352,7 +10529,7 @@
     </row>
     <row r="4" spans="1:35" ht="36" customHeight="1">
       <c r="D4" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
     </row>
     <row r="5" spans="1:35" ht="36" customHeight="1" thickBot="1">
@@ -10455,7 +10632,7 @@
     </row>
     <row r="6" spans="1:35" ht="36" customHeight="1" thickTop="1">
       <c r="B6" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="C6">
         <v>1</v>
@@ -10576,43 +10753,43 @@
       <c r="F9" s="5"/>
       <c r="G9" s="5"/>
       <c r="H9" s="39" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="I9" s="54"/>
       <c r="J9" s="54"/>
       <c r="K9" s="54"/>
       <c r="L9" s="39" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="M9" s="54"/>
       <c r="N9" s="54"/>
       <c r="O9" s="54"/>
       <c r="P9" s="39" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="Q9" s="54"/>
       <c r="R9" s="54"/>
       <c r="S9" s="54"/>
       <c r="T9" s="39" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="U9" s="54"/>
       <c r="V9" s="54"/>
       <c r="W9" s="54"/>
       <c r="X9" s="39" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="Y9" s="54"/>
       <c r="Z9" s="54"/>
       <c r="AA9" s="54"/>
       <c r="AB9" s="39" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="AC9" s="54"/>
       <c r="AD9" s="54"/>
       <c r="AE9" s="54"/>
       <c r="AF9" s="39" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="AG9" s="5"/>
       <c r="AH9" s="5"/>
@@ -10639,21 +10816,23 @@
       <c r="N10" s="13"/>
       <c r="O10" s="16"/>
       <c r="P10" s="97" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="Q10" s="13"/>
       <c r="R10" s="13"/>
       <c r="S10" s="13"/>
       <c r="T10" s="119" t="s">
-        <v>290</v>
+        <v>283</v>
       </c>
       <c r="U10" s="13"/>
       <c r="V10" s="13"/>
       <c r="W10" s="13"/>
       <c r="X10" s="86" t="s">
-        <v>74</v>
-      </c>
-      <c r="Y10" s="13"/>
+        <v>70</v>
+      </c>
+      <c r="Y10" s="147" t="s">
+        <v>295</v>
+      </c>
       <c r="Z10" s="13"/>
       <c r="AA10" s="16"/>
       <c r="AB10" s="13"/>
@@ -10784,7 +10963,7 @@
       <c r="E14" s="5"/>
       <c r="F14" s="5"/>
       <c r="G14" s="42" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="H14" s="98" t="s">
         <v>30</v>
@@ -10805,7 +10984,7 @@
       <c r="R14" s="24"/>
       <c r="S14" s="24"/>
       <c r="T14" s="90" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="U14" s="24"/>
       <c r="V14" s="24"/>
@@ -10817,13 +10996,13 @@
       <c r="Z14" s="24"/>
       <c r="AA14" s="26"/>
       <c r="AB14" s="106" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="AC14" s="24"/>
       <c r="AD14" s="24"/>
       <c r="AE14" s="27"/>
       <c r="AF14" s="43" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="AG14" s="5"/>
       <c r="AH14" s="5"/>
@@ -10948,7 +11127,7 @@
       <c r="E18" s="5"/>
       <c r="F18" s="5"/>
       <c r="G18" s="42" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="H18" s="101" t="s">
         <v>8</v>
@@ -10957,27 +11136,31 @@
       <c r="J18" s="19"/>
       <c r="K18" s="19"/>
       <c r="L18" s="104" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="M18" s="19"/>
       <c r="N18" s="19"/>
       <c r="O18" s="21"/>
       <c r="P18" s="105" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="Q18" s="19"/>
       <c r="R18" s="19"/>
       <c r="S18" s="19"/>
-      <c r="T18" s="102" t="s">
+      <c r="T18" s="71" t="s">
         <v>7</v>
       </c>
-      <c r="U18" s="19"/>
+      <c r="U18" s="139" t="s">
+        <v>295</v>
+      </c>
       <c r="V18" s="19"/>
       <c r="W18" s="19"/>
       <c r="X18" s="71" t="s">
         <v>37</v>
       </c>
-      <c r="Y18" s="19"/>
+      <c r="Y18" s="139" t="s">
+        <v>295</v>
+      </c>
       <c r="Z18" s="19"/>
       <c r="AA18" s="21"/>
       <c r="AB18" s="103" t="s">
@@ -10987,7 +11170,7 @@
       <c r="AD18" s="19"/>
       <c r="AE18" s="22"/>
       <c r="AF18" s="43" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="AG18" s="5"/>
       <c r="AH18" s="5"/>
@@ -11112,7 +11295,7 @@
       <c r="E22" s="5"/>
       <c r="F22" s="5"/>
       <c r="G22" s="42" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="H22" s="23"/>
       <c r="I22" s="24"/>
@@ -11131,25 +11314,27 @@
       <c r="R22" s="24"/>
       <c r="S22" s="24"/>
       <c r="T22" s="107" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="U22" s="24"/>
       <c r="V22" s="24"/>
       <c r="W22" s="24"/>
       <c r="X22" s="107" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="Y22" s="24"/>
       <c r="Z22" s="24"/>
       <c r="AA22" s="26"/>
       <c r="AB22" s="93" t="s">
-        <v>56</v>
-      </c>
-      <c r="AC22" s="24"/>
+        <v>53</v>
+      </c>
+      <c r="AC22" s="137" t="s">
+        <v>295</v>
+      </c>
       <c r="AD22" s="24"/>
       <c r="AE22" s="27"/>
       <c r="AF22" s="43" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="AG22" s="5"/>
       <c r="AH22" s="5"/>
@@ -11274,7 +11459,7 @@
       <c r="E26" s="5"/>
       <c r="F26" s="5"/>
       <c r="G26" s="42" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="H26" s="23"/>
       <c r="I26" s="24"/>
@@ -11293,7 +11478,7 @@
       <c r="R26" s="24"/>
       <c r="S26" s="24"/>
       <c r="T26" s="107" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="U26" s="24"/>
       <c r="V26" s="24"/>
@@ -11311,7 +11496,7 @@
       <c r="AD26" s="24"/>
       <c r="AE26" s="27"/>
       <c r="AF26" s="43" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="AG26" s="5"/>
       <c r="AH26" s="5"/>
@@ -11436,7 +11621,7 @@
       <c r="E30" s="5"/>
       <c r="F30" s="5"/>
       <c r="G30" s="42" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="H30" s="92" t="s">
         <v>44</v>
@@ -11463,19 +11648,19 @@
       <c r="V30" s="19"/>
       <c r="W30" s="19"/>
       <c r="X30" s="90" t="s">
-        <v>282</v>
+        <v>275</v>
       </c>
       <c r="Y30" s="19"/>
       <c r="Z30" s="19"/>
       <c r="AA30" s="21"/>
       <c r="AB30" s="105" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="AC30" s="19"/>
       <c r="AD30" s="19"/>
       <c r="AE30" s="22"/>
       <c r="AF30" s="43" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="AG30" s="5"/>
       <c r="AH30" s="5"/>
@@ -11601,43 +11786,43 @@
       <c r="F34" s="5"/>
       <c r="G34" s="5"/>
       <c r="H34" s="40" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="I34" s="19"/>
       <c r="J34" s="19"/>
       <c r="K34" s="19"/>
       <c r="L34" s="40" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="M34" s="19"/>
       <c r="N34" s="19"/>
       <c r="O34" s="19"/>
       <c r="P34" s="43" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="Q34" s="19"/>
       <c r="R34" s="19"/>
       <c r="S34" s="19"/>
       <c r="T34" s="40" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="U34" s="19"/>
       <c r="V34" s="19"/>
       <c r="W34" s="19"/>
       <c r="X34" s="40" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="Y34" s="19"/>
       <c r="Z34" s="19"/>
       <c r="AA34" s="19"/>
       <c r="AB34" s="40" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="AC34" s="19"/>
       <c r="AD34" s="19"/>
       <c r="AE34" s="19"/>
       <c r="AF34" s="43" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="AG34" s="19"/>
       <c r="AH34" s="5"/>
@@ -11756,7 +11941,9 @@
     </row>
     <row r="38" spans="3:35" ht="36" customHeight="1" thickTop="1"/>
   </sheetData>
+  <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -11770,14 +11957,14 @@
   <dimension ref="A1:AI38"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="AB22" sqref="AB22"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="6" defaultRowHeight="36" customHeight="1" x14ac:dyDescent="0"/>
   <sheetData>
     <row r="1" spans="1:35" ht="36" customHeight="1">
       <c r="A1" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="B1">
         <v>12</v>
@@ -11785,15 +11972,15 @@
     </row>
     <row r="2" spans="1:35" ht="36" customHeight="1">
       <c r="A2" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="B2" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
     </row>
     <row r="3" spans="1:35" ht="36" customHeight="1">
       <c r="A3" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="B3">
         <v>13</v>
@@ -11801,7 +11988,7 @@
     </row>
     <row r="4" spans="1:35" ht="36" customHeight="1">
       <c r="D4" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
     </row>
     <row r="5" spans="1:35" ht="36" customHeight="1" thickBot="1">
@@ -11904,7 +12091,7 @@
     </row>
     <row r="6" spans="1:35" ht="36" customHeight="1" thickTop="1">
       <c r="B6" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="C6">
         <v>1</v>
@@ -12025,43 +12212,43 @@
       <c r="F9" s="5"/>
       <c r="G9" s="5"/>
       <c r="H9" s="39" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="I9" s="54"/>
       <c r="J9" s="54"/>
       <c r="K9" s="54"/>
       <c r="L9" s="39" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="M9" s="54"/>
       <c r="N9" s="54"/>
       <c r="O9" s="54"/>
       <c r="P9" s="39" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="Q9" s="54"/>
       <c r="R9" s="54"/>
       <c r="S9" s="54"/>
       <c r="T9" s="39" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="U9" s="54"/>
       <c r="V9" s="54"/>
       <c r="W9" s="54"/>
       <c r="X9" s="39" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="Y9" s="54"/>
       <c r="Z9" s="54"/>
       <c r="AA9" s="54"/>
       <c r="AB9" s="39" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="AC9" s="54"/>
       <c r="AD9" s="54"/>
       <c r="AE9" s="54"/>
       <c r="AF9" s="39" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="AG9" s="5"/>
       <c r="AH9" s="5"/>
@@ -12076,7 +12263,7 @@
       <c r="F10" s="5"/>
       <c r="G10" s="19"/>
       <c r="H10" s="59" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="I10" s="13"/>
       <c r="J10" s="13"/>
@@ -12089,9 +12276,11 @@
       <c r="Q10" s="13"/>
       <c r="R10" s="13"/>
       <c r="S10" s="79" t="s">
-        <v>193</v>
-      </c>
-      <c r="T10" s="15"/>
+        <v>187</v>
+      </c>
+      <c r="T10" s="138" t="s">
+        <v>295</v>
+      </c>
       <c r="U10" s="13"/>
       <c r="V10" s="13"/>
       <c r="W10" s="13"/>
@@ -12103,7 +12292,7 @@
       <c r="AC10" s="13"/>
       <c r="AD10" s="13"/>
       <c r="AE10" s="120" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="AF10" s="19"/>
       <c r="AG10" s="5"/>
@@ -12229,26 +12418,26 @@
       <c r="E14" s="5"/>
       <c r="F14" s="5"/>
       <c r="G14" s="42" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="H14" s="23"/>
       <c r="I14" s="24"/>
       <c r="J14" s="24"/>
       <c r="K14" s="24"/>
       <c r="L14" s="45" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="M14" s="24"/>
       <c r="N14" s="24"/>
       <c r="O14" s="26"/>
       <c r="P14" s="44" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="Q14" s="24"/>
       <c r="R14" s="24"/>
       <c r="S14" s="24"/>
       <c r="T14" s="45" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="U14" s="24"/>
       <c r="V14" s="24"/>
@@ -12258,13 +12447,13 @@
       <c r="Z14" s="24"/>
       <c r="AA14" s="26"/>
       <c r="AB14" s="44" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="AC14" s="24"/>
       <c r="AD14" s="24"/>
       <c r="AE14" s="27"/>
       <c r="AF14" s="43" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="AG14" s="5"/>
       <c r="AH14" s="5"/>
@@ -12320,7 +12509,7 @@
       <c r="J16" s="19"/>
       <c r="K16" s="19"/>
       <c r="L16" s="71" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="M16" s="19"/>
       <c r="N16" s="19"/>
@@ -12341,7 +12530,7 @@
       <c r="AC16" s="19"/>
       <c r="AD16" s="19"/>
       <c r="AE16" s="22" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="AF16" s="41"/>
       <c r="AG16" s="5"/>
@@ -12393,44 +12582,44 @@
       <c r="E18" s="5"/>
       <c r="F18" s="5"/>
       <c r="G18" s="42" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="H18" s="18"/>
       <c r="I18" s="19"/>
       <c r="J18" s="19"/>
       <c r="K18" s="19"/>
       <c r="L18" s="46" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="M18" s="19"/>
       <c r="N18" s="19"/>
       <c r="O18" s="21"/>
       <c r="P18" s="40" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="Q18" s="19"/>
       <c r="R18" s="19"/>
       <c r="S18" s="19"/>
       <c r="T18" s="46" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="U18" s="19"/>
       <c r="V18" s="19"/>
       <c r="W18" s="19"/>
       <c r="X18" s="46" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="Y18" s="19"/>
       <c r="Z18" s="19"/>
       <c r="AA18" s="21"/>
       <c r="AB18" s="40" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="AC18" s="19"/>
       <c r="AD18" s="19"/>
       <c r="AE18" s="22"/>
       <c r="AF18" s="43" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="AG18" s="5"/>
       <c r="AH18" s="5"/>
@@ -12491,7 +12680,7 @@
       <c r="O20" s="21"/>
       <c r="P20" s="19"/>
       <c r="Q20" s="80" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="R20" s="19"/>
       <c r="S20" s="19"/>
@@ -12557,46 +12746,46 @@
       <c r="E22" s="5"/>
       <c r="F22" s="5"/>
       <c r="G22" s="42" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="H22" s="23"/>
       <c r="I22" s="24"/>
       <c r="J22" s="24"/>
       <c r="K22" s="24"/>
       <c r="L22" s="45" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="M22" s="24"/>
       <c r="N22" s="24"/>
       <c r="O22" s="26"/>
       <c r="P22" s="44" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="Q22" s="24"/>
       <c r="R22" s="24"/>
       <c r="S22" s="24"/>
       <c r="T22" s="45" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="U22" s="24"/>
       <c r="V22" s="24"/>
       <c r="W22" s="24"/>
       <c r="X22" s="45" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="Y22" s="24"/>
       <c r="Z22" s="24"/>
       <c r="AA22" s="128" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="AB22" s="44" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="AC22" s="24"/>
       <c r="AD22" s="24"/>
       <c r="AE22" s="27"/>
       <c r="AF22" s="43" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="AG22" s="5"/>
       <c r="AH22" s="5"/>
@@ -12648,7 +12837,7 @@
       <c r="F24" s="5"/>
       <c r="G24" s="19"/>
       <c r="H24" s="18" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="I24" s="19"/>
       <c r="J24" s="19"/>
@@ -12723,44 +12912,44 @@
       <c r="E26" s="5"/>
       <c r="F26" s="5"/>
       <c r="G26" s="42" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="H26" s="23"/>
       <c r="I26" s="24"/>
       <c r="J26" s="24"/>
       <c r="K26" s="24"/>
       <c r="L26" s="45" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="M26" s="24"/>
       <c r="N26" s="24"/>
       <c r="O26" s="26"/>
       <c r="P26" s="44" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="Q26" s="24"/>
       <c r="R26" s="24"/>
       <c r="S26" s="24"/>
       <c r="T26" s="19" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="U26" s="24"/>
       <c r="V26" s="24"/>
       <c r="W26" s="24"/>
       <c r="X26" s="45" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="Y26" s="24"/>
       <c r="Z26" s="24"/>
       <c r="AA26" s="26"/>
       <c r="AB26" s="44" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="AC26" s="24"/>
       <c r="AD26" s="24"/>
       <c r="AE26" s="27"/>
       <c r="AF26" s="43" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="AG26" s="5"/>
       <c r="AH26" s="5"/>
@@ -12817,7 +13006,7 @@
       <c r="L28" s="20"/>
       <c r="M28" s="19"/>
       <c r="N28" s="19" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="O28" s="21"/>
       <c r="P28" s="19"/>
@@ -12836,7 +13025,7 @@
       <c r="AC28" s="19"/>
       <c r="AD28" s="19"/>
       <c r="AE28" s="22" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="AF28" s="41"/>
       <c r="AG28" s="5"/>
@@ -12887,44 +13076,44 @@
       <c r="E30" s="5"/>
       <c r="F30" s="5"/>
       <c r="G30" s="42" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="H30" s="18"/>
       <c r="I30" s="19"/>
       <c r="J30" s="19"/>
       <c r="K30" s="19"/>
       <c r="L30" s="46" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="M30" s="19"/>
       <c r="N30" s="19"/>
       <c r="O30" s="21"/>
       <c r="P30" s="40" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="Q30" s="19"/>
       <c r="R30" s="19"/>
       <c r="S30" s="19"/>
       <c r="T30" s="46" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="U30" s="19"/>
       <c r="V30" s="19"/>
       <c r="W30" s="19"/>
       <c r="X30" s="46" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="Y30" s="19"/>
       <c r="Z30" s="19"/>
       <c r="AA30" s="21"/>
       <c r="AB30" s="40" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="AC30" s="19"/>
       <c r="AD30" s="19"/>
       <c r="AE30" s="22"/>
       <c r="AF30" s="43" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="AG30" s="5"/>
       <c r="AH30" s="5"/>
@@ -12992,7 +13181,7 @@
       <c r="V32" s="19"/>
       <c r="W32" s="19"/>
       <c r="X32" s="20" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="Z32" s="19"/>
       <c r="AA32" s="21"/>
@@ -13014,7 +13203,7 @@
       <c r="F33" s="5"/>
       <c r="G33" s="19"/>
       <c r="H33" s="33" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="I33" s="34"/>
       <c r="J33" s="34"/>
@@ -13053,43 +13242,43 @@
       <c r="F34" s="5"/>
       <c r="G34" s="5"/>
       <c r="H34" s="40" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="I34" s="19"/>
       <c r="J34" s="19"/>
       <c r="K34" s="19"/>
       <c r="L34" s="40" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="M34" s="19"/>
       <c r="N34" s="19"/>
       <c r="O34" s="19"/>
       <c r="P34" s="43" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="Q34" s="19"/>
       <c r="R34" s="19"/>
       <c r="S34" s="19"/>
       <c r="T34" s="40" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="U34" s="19"/>
       <c r="V34" s="19"/>
       <c r="W34" s="19"/>
       <c r="X34" s="40" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="Y34" s="19"/>
       <c r="Z34" s="19"/>
       <c r="AA34" s="19"/>
       <c r="AB34" s="40" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="AC34" s="19"/>
       <c r="AD34" s="19"/>
       <c r="AE34" s="19"/>
       <c r="AF34" s="43" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="AG34" s="5"/>
       <c r="AH34" s="5"/>
@@ -13208,6 +13397,7 @@
     </row>
     <row r="38" spans="3:35" ht="36" customHeight="1" thickTop="1"/>
   </sheetData>
+  <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
@@ -13222,15 +13412,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AI38"/>
   <sheetViews>
-    <sheetView topLeftCell="A17" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView topLeftCell="A9" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
+      <selection activeCell="AL18" sqref="AL18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="6" defaultRowHeight="36" customHeight="1" x14ac:dyDescent="0"/>
   <sheetData>
     <row r="1" spans="1:35" ht="36" customHeight="1">
       <c r="A1" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="B1">
         <v>13</v>
@@ -13238,15 +13428,15 @@
     </row>
     <row r="2" spans="1:35" ht="36" customHeight="1">
       <c r="A2" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="B2" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
     </row>
     <row r="3" spans="1:35" ht="36" customHeight="1">
       <c r="A3" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="B3">
         <v>22</v>
@@ -13254,7 +13444,7 @@
     </row>
     <row r="4" spans="1:35" ht="36" customHeight="1">
       <c r="D4" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
     </row>
     <row r="5" spans="1:35" ht="36" customHeight="1" thickBot="1">
@@ -13357,7 +13547,7 @@
     </row>
     <row r="6" spans="1:35" ht="36" customHeight="1" thickTop="1">
       <c r="B6" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="C6">
         <v>1</v>
@@ -13478,43 +13668,43 @@
       <c r="F9" s="5"/>
       <c r="G9" s="5"/>
       <c r="H9" s="39" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="I9" s="54"/>
       <c r="J9" s="54"/>
       <c r="K9" s="54"/>
       <c r="L9" s="39" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="M9" s="54"/>
       <c r="N9" s="54"/>
       <c r="O9" s="54"/>
       <c r="P9" s="39" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="Q9" s="54"/>
       <c r="R9" s="54"/>
       <c r="S9" s="54"/>
       <c r="T9" s="39" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="U9" s="54"/>
       <c r="V9" s="54"/>
       <c r="W9" s="54"/>
       <c r="X9" s="39" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="Y9" s="54"/>
       <c r="Z9" s="54"/>
       <c r="AA9" s="54"/>
       <c r="AB9" s="39" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="AC9" s="54"/>
       <c r="AD9" s="54"/>
       <c r="AE9" s="54"/>
       <c r="AF9" s="39" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="AG9" s="5"/>
       <c r="AH9" s="5"/>
@@ -13529,9 +13719,11 @@
       <c r="F10" s="5"/>
       <c r="G10" s="19"/>
       <c r="H10" s="85" t="s">
+        <v>288</v>
+      </c>
+      <c r="I10" s="147" t="s">
         <v>295</v>
       </c>
-      <c r="I10" s="13"/>
       <c r="J10" s="13"/>
       <c r="K10" s="13"/>
       <c r="L10" s="15"/>
@@ -13539,7 +13731,7 @@
       <c r="N10" s="13"/>
       <c r="O10" s="16"/>
       <c r="P10" s="13" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="Q10" s="13"/>
       <c r="R10" s="13"/>
@@ -13549,7 +13741,7 @@
       <c r="V10" s="13"/>
       <c r="W10" s="13"/>
       <c r="X10" s="15" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="Y10" s="13"/>
       <c r="Z10" s="13"/>
@@ -13558,9 +13750,11 @@
       <c r="AC10" s="13"/>
       <c r="AD10" s="13"/>
       <c r="AE10" s="61" t="s">
+        <v>288</v>
+      </c>
+      <c r="AF10" s="139" t="s">
         <v>295</v>
       </c>
-      <c r="AF10" s="19"/>
       <c r="AG10" s="5"/>
       <c r="AH10" s="5"/>
       <c r="AI10" s="6"/>
@@ -13684,46 +13878,48 @@
       <c r="E14" s="5"/>
       <c r="F14" s="5"/>
       <c r="G14" s="42" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="H14" s="23"/>
       <c r="I14" s="24"/>
       <c r="J14" s="24"/>
       <c r="K14" s="24"/>
       <c r="L14" s="45" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="M14" s="24"/>
       <c r="N14" s="116" t="s">
-        <v>279</v>
+        <v>272</v>
       </c>
       <c r="O14" s="26"/>
       <c r="P14" s="44" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="Q14" s="24"/>
       <c r="R14" s="24"/>
       <c r="S14" s="24"/>
       <c r="T14" s="121" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="U14" s="24"/>
       <c r="V14" s="24"/>
       <c r="W14" s="24"/>
       <c r="X14" s="45" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="Y14" s="24"/>
       <c r="Z14" s="24"/>
       <c r="AA14" s="26"/>
       <c r="AB14" s="117" t="s">
-        <v>157</v>
-      </c>
-      <c r="AC14" s="24"/>
+        <v>152</v>
+      </c>
+      <c r="AC14" s="137" t="s">
+        <v>295</v>
+      </c>
       <c r="AD14" s="24"/>
       <c r="AE14" s="27"/>
       <c r="AF14" s="43" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="AG14" s="5"/>
       <c r="AH14" s="5"/>
@@ -13775,7 +13971,7 @@
       <c r="F16" s="5"/>
       <c r="G16" s="19"/>
       <c r="H16" s="18" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="I16" s="19"/>
       <c r="J16" s="19"/>
@@ -13835,7 +14031,7 @@
       <c r="AC17" s="29"/>
       <c r="AD17" s="29"/>
       <c r="AE17" s="32" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="AF17" s="41"/>
       <c r="AG17" s="5"/>
@@ -13850,44 +14046,44 @@
       <c r="E18" s="5"/>
       <c r="F18" s="5"/>
       <c r="G18" s="42" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="H18" s="18"/>
       <c r="I18" s="19"/>
       <c r="J18" s="19"/>
       <c r="K18" s="19"/>
       <c r="L18" s="46" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="M18" s="19"/>
       <c r="N18" s="19"/>
       <c r="O18" s="21"/>
       <c r="P18" s="40" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="Q18" s="19"/>
       <c r="R18" s="19"/>
       <c r="S18" s="19"/>
       <c r="T18" s="46" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="U18" s="19"/>
       <c r="V18" s="19"/>
       <c r="W18" s="19"/>
       <c r="X18" s="46" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="Y18" s="19"/>
       <c r="Z18" s="19"/>
       <c r="AA18" s="21"/>
       <c r="AB18" s="40" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="AC18" s="19"/>
       <c r="AD18" s="19"/>
       <c r="AE18" s="22"/>
       <c r="AF18" s="43" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="AG18" s="5"/>
       <c r="AH18" s="5"/>
@@ -13906,9 +14102,11 @@
       <c r="J19" s="19"/>
       <c r="K19" s="19"/>
       <c r="L19" s="71" t="s">
-        <v>154</v>
-      </c>
-      <c r="M19" s="19"/>
+        <v>149</v>
+      </c>
+      <c r="M19" s="139" t="s">
+        <v>295</v>
+      </c>
       <c r="N19" s="19"/>
       <c r="O19" s="21"/>
       <c r="P19" s="19"/>
@@ -13951,9 +14149,11 @@
       <c r="P20" s="19"/>
       <c r="Q20" s="19"/>
       <c r="R20" s="80" t="s">
-        <v>154</v>
-      </c>
-      <c r="S20" s="19"/>
+        <v>149</v>
+      </c>
+      <c r="S20" s="139" t="s">
+        <v>295</v>
+      </c>
       <c r="T20" s="20"/>
       <c r="U20" s="19"/>
       <c r="V20" s="19"/>
@@ -13999,7 +14199,7 @@
       <c r="Y21" s="19"/>
       <c r="Z21" s="19"/>
       <c r="AA21" s="19" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="AB21" s="19"/>
       <c r="AC21" s="19"/>
@@ -14018,44 +14218,44 @@
       <c r="E22" s="5"/>
       <c r="F22" s="5"/>
       <c r="G22" s="42" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="H22" s="23"/>
       <c r="I22" s="24"/>
       <c r="J22" s="24"/>
       <c r="K22" s="24"/>
       <c r="L22" s="45" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="M22" s="24"/>
       <c r="N22" s="24"/>
       <c r="O22" s="26"/>
       <c r="P22" s="44" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="Q22" s="24"/>
       <c r="R22" s="24"/>
       <c r="S22" s="24"/>
       <c r="T22" s="45" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="U22" s="24"/>
       <c r="V22" s="24"/>
       <c r="W22" s="24"/>
       <c r="X22" s="45" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="Y22" s="24"/>
       <c r="Z22" s="24"/>
       <c r="AA22" s="26"/>
       <c r="AB22" s="44" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="AC22" s="24"/>
       <c r="AD22" s="24"/>
       <c r="AE22" s="27"/>
       <c r="AF22" s="43" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="AG22" s="5"/>
       <c r="AH22" s="5"/>
@@ -14107,7 +14307,7 @@
       <c r="F24" s="5"/>
       <c r="G24" s="19"/>
       <c r="H24" s="18" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="I24" s="19"/>
       <c r="J24" s="19"/>
@@ -14131,7 +14331,7 @@
       <c r="AC24" s="19"/>
       <c r="AD24" s="19"/>
       <c r="AE24" s="22" t="s">
-        <v>297</v>
+        <v>290</v>
       </c>
       <c r="AF24" s="41"/>
       <c r="AG24" s="5"/>
@@ -14182,46 +14382,46 @@
       <c r="E26" s="5"/>
       <c r="F26" s="5"/>
       <c r="G26" s="42" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="H26" s="23"/>
       <c r="I26" s="24"/>
       <c r="J26" s="24"/>
       <c r="K26" s="24"/>
       <c r="L26" s="45" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="M26" s="24"/>
       <c r="N26" s="24"/>
       <c r="O26" s="62" t="s">
-        <v>289</v>
+        <v>282</v>
       </c>
       <c r="P26" s="44" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="Q26" s="24"/>
       <c r="R26" s="24"/>
       <c r="S26" s="24"/>
       <c r="T26" s="45" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="U26" s="24"/>
       <c r="V26" s="24"/>
       <c r="W26" s="24"/>
       <c r="X26" s="45" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="Y26" s="24"/>
       <c r="Z26" s="24"/>
       <c r="AA26" s="26"/>
       <c r="AB26" s="44" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="AC26" s="24"/>
       <c r="AD26" s="24"/>
       <c r="AE26" s="27"/>
       <c r="AF26" s="43" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="AG26" s="5"/>
       <c r="AH26" s="5"/>
@@ -14248,7 +14448,7 @@
       <c r="R27" s="19"/>
       <c r="S27" s="19"/>
       <c r="T27" s="30" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="U27" s="19"/>
       <c r="V27" s="19"/>
@@ -14256,7 +14456,7 @@
       <c r="X27" s="20"/>
       <c r="Y27" s="19"/>
       <c r="AA27" s="29" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="AB27" s="19"/>
       <c r="AC27" s="19"/>
@@ -14347,44 +14547,46 @@
       <c r="E30" s="5"/>
       <c r="F30" s="5"/>
       <c r="G30" s="42" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="H30" s="18"/>
       <c r="I30" s="19"/>
       <c r="J30" s="19"/>
       <c r="K30" s="19"/>
       <c r="L30" s="125" t="s">
+        <v>288</v>
+      </c>
+      <c r="M30" s="139" t="s">
         <v>295</v>
       </c>
-      <c r="M30" s="19"/>
       <c r="N30" s="19"/>
       <c r="O30" s="21"/>
       <c r="P30" s="40" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="Q30" s="19"/>
       <c r="R30" s="19"/>
       <c r="S30" s="19"/>
       <c r="T30" s="46" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="U30" s="19"/>
       <c r="V30" s="19"/>
       <c r="W30" s="19"/>
       <c r="X30" s="46" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="Y30" s="19"/>
       <c r="Z30" s="19"/>
       <c r="AA30" s="21"/>
       <c r="AB30" s="40" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="AC30" s="19"/>
       <c r="AD30" s="19"/>
       <c r="AE30" s="22"/>
       <c r="AF30" s="43" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="AG30" s="5"/>
       <c r="AH30" s="5"/>
@@ -14445,7 +14647,7 @@
       <c r="O32" s="21"/>
       <c r="P32" s="19"/>
       <c r="Q32" s="71" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="R32" s="19"/>
       <c r="S32" s="19"/>
@@ -14458,7 +14660,7 @@
       <c r="AB32" s="19"/>
       <c r="AC32" s="19"/>
       <c r="AD32" s="80" t="s">
-        <v>289</v>
+        <v>282</v>
       </c>
       <c r="AE32" s="22"/>
       <c r="AF32" s="41"/>
@@ -14475,7 +14677,7 @@
       <c r="F33" s="5"/>
       <c r="G33" s="19"/>
       <c r="H33" s="33" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="I33" s="34"/>
       <c r="J33" s="34"/>
@@ -14491,9 +14693,11 @@
       <c r="T33" s="35"/>
       <c r="U33" s="34"/>
       <c r="V33" s="76" t="s">
+        <v>288</v>
+      </c>
+      <c r="W33" s="154" t="s">
         <v>295</v>
       </c>
-      <c r="W33" s="34"/>
       <c r="X33" s="35"/>
       <c r="Y33" s="34"/>
       <c r="Z33" s="34"/>
@@ -14516,42 +14720,42 @@
       <c r="F34" s="5"/>
       <c r="G34" s="5"/>
       <c r="H34" s="40" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="I34" s="19"/>
       <c r="J34" s="19"/>
       <c r="L34" s="40" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="M34" s="19"/>
       <c r="N34" s="19"/>
       <c r="O34" s="19"/>
       <c r="P34" s="43" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="Q34" s="19"/>
       <c r="R34" s="19"/>
       <c r="S34" s="19"/>
       <c r="T34" s="40" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="U34" s="19"/>
       <c r="V34" s="19"/>
       <c r="W34" s="19"/>
       <c r="X34" s="40" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="Y34" s="19"/>
       <c r="Z34" s="19"/>
       <c r="AA34" s="19"/>
       <c r="AB34" s="40" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="AC34" s="19"/>
       <c r="AD34" s="19"/>
       <c r="AE34" s="19"/>
       <c r="AF34" s="43" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="AG34" s="5"/>
       <c r="AH34" s="5"/>
@@ -14670,6 +14874,7 @@
     </row>
     <row r="38" spans="3:35" ht="36" customHeight="1" thickTop="1"/>
   </sheetData>
+  <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
@@ -14684,15 +14889,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AI38"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="M20" sqref="M20"/>
+    <sheetView topLeftCell="A2" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
+      <selection activeCell="AE11" sqref="AE11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="6" defaultRowHeight="36" customHeight="1" x14ac:dyDescent="0"/>
   <sheetData>
     <row r="1" spans="1:35" ht="36" customHeight="1">
       <c r="A1" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="B1">
         <v>15</v>
@@ -14700,15 +14905,15 @@
     </row>
     <row r="2" spans="1:35" ht="36" customHeight="1">
       <c r="A2" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="B2" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
     </row>
     <row r="3" spans="1:35" ht="36" customHeight="1">
       <c r="A3" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="B3">
         <v>12</v>
@@ -14716,7 +14921,7 @@
     </row>
     <row r="4" spans="1:35" ht="36" customHeight="1">
       <c r="D4" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
     </row>
     <row r="5" spans="1:35" ht="36" customHeight="1" thickBot="1">
@@ -14819,7 +15024,7 @@
     </row>
     <row r="6" spans="1:35" ht="36" customHeight="1" thickTop="1">
       <c r="B6" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="C6">
         <v>1</v>
@@ -14940,43 +15145,43 @@
       <c r="F9" s="5"/>
       <c r="G9" s="5"/>
       <c r="H9" s="39" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="I9" s="54"/>
       <c r="J9" s="54"/>
       <c r="K9" s="54"/>
       <c r="L9" s="39" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="M9" s="54"/>
       <c r="N9" s="54"/>
       <c r="O9" s="54"/>
       <c r="P9" s="39" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="Q9" s="54"/>
       <c r="R9" s="54"/>
       <c r="S9" s="54"/>
       <c r="T9" s="39" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="U9" s="54"/>
       <c r="V9" s="54"/>
       <c r="W9" s="54"/>
       <c r="X9" s="39" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="Y9" s="54"/>
       <c r="Z9" s="54"/>
       <c r="AA9" s="54"/>
       <c r="AB9" s="39" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="AC9" s="54"/>
       <c r="AD9" s="54"/>
       <c r="AE9" s="54"/>
       <c r="AF9" s="39" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="AG9" s="5"/>
       <c r="AH9" s="5"/>
@@ -14995,7 +15200,7 @@
       <c r="J10" s="13"/>
       <c r="K10" s="13"/>
       <c r="L10" s="19" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="M10" s="13"/>
       <c r="N10" s="13"/>
@@ -15005,7 +15210,7 @@
       <c r="R10" s="13"/>
       <c r="S10" s="13"/>
       <c r="T10" s="15" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="U10" s="13"/>
       <c r="V10" s="13"/>
@@ -15055,7 +15260,7 @@
       <c r="AC11" s="19"/>
       <c r="AD11" s="19"/>
       <c r="AE11" s="123" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="AF11" s="19"/>
       <c r="AG11" s="5"/>
@@ -15144,44 +15349,44 @@
       <c r="E14" s="5"/>
       <c r="F14" s="5"/>
       <c r="G14" s="42" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="H14" s="23"/>
       <c r="I14" s="24"/>
       <c r="J14" s="24"/>
       <c r="K14" s="24"/>
       <c r="L14" s="45" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="M14" s="24"/>
       <c r="N14" s="24"/>
       <c r="O14" s="26"/>
       <c r="P14" s="44" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="Q14" s="24"/>
       <c r="R14" s="24"/>
       <c r="S14" s="24"/>
       <c r="T14" s="45" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="U14" s="24"/>
       <c r="V14" s="24"/>
       <c r="W14" s="24"/>
       <c r="X14" s="45" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="Y14" s="24"/>
       <c r="Z14" s="24"/>
       <c r="AA14" s="26"/>
       <c r="AB14" s="44" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="AC14" s="24"/>
       <c r="AD14" s="24"/>
       <c r="AE14" s="27"/>
       <c r="AF14" s="43" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="AG14" s="5"/>
       <c r="AH14" s="5"/>
@@ -15233,7 +15438,7 @@
       <c r="F16" s="5"/>
       <c r="G16" s="19"/>
       <c r="H16" s="18" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="I16" s="19"/>
       <c r="J16" s="19"/>
@@ -15246,7 +15451,7 @@
       <c r="R16" s="19"/>
       <c r="S16" s="19"/>
       <c r="T16" s="20" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="U16" s="19"/>
       <c r="V16" s="19"/>
@@ -15309,44 +15514,44 @@
       <c r="E18" s="5"/>
       <c r="F18" s="5"/>
       <c r="G18" s="42" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="H18" s="18"/>
       <c r="I18" s="19"/>
       <c r="J18" s="19"/>
       <c r="K18" s="19"/>
       <c r="L18" s="46" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="M18" s="19"/>
       <c r="N18" s="19"/>
       <c r="O18" s="21"/>
       <c r="P18" s="40" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="Q18" s="19"/>
       <c r="R18" s="19"/>
       <c r="S18" s="19"/>
       <c r="T18" s="46" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="U18" s="19"/>
       <c r="V18" s="19"/>
       <c r="W18" s="19"/>
       <c r="X18" s="46" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="Y18" s="19"/>
       <c r="Z18" s="19"/>
       <c r="AA18" s="21"/>
       <c r="AB18" s="40" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="AC18" s="19"/>
       <c r="AD18" s="19"/>
       <c r="AE18" s="22"/>
       <c r="AF18" s="43" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="AG18" s="5"/>
       <c r="AH18" s="5"/>
@@ -15380,7 +15585,7 @@
       <c r="Y19" s="19"/>
       <c r="Z19" s="19"/>
       <c r="AA19" s="21" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="AB19" s="19"/>
       <c r="AC19" s="19"/>
@@ -15404,7 +15609,7 @@
       <c r="K20" s="19"/>
       <c r="L20" s="20"/>
       <c r="M20" s="19" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="N20" s="19"/>
       <c r="O20" s="21"/>
@@ -15474,44 +15679,44 @@
       <c r="E22" s="5"/>
       <c r="F22" s="5"/>
       <c r="G22" s="42" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="H22" s="23"/>
       <c r="I22" s="24"/>
       <c r="J22" s="24"/>
       <c r="K22" s="24"/>
       <c r="L22" s="45" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="M22" s="24"/>
       <c r="N22" s="24"/>
       <c r="O22" s="26"/>
       <c r="P22" s="44" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="Q22" s="24"/>
       <c r="R22" s="24"/>
       <c r="S22" s="24"/>
       <c r="T22" s="45" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="U22" s="24"/>
       <c r="V22" s="24"/>
       <c r="W22" s="24"/>
       <c r="X22" s="45" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="Y22" s="24"/>
       <c r="Z22" s="24"/>
       <c r="AA22" s="26"/>
       <c r="AB22" s="44" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="AC22" s="24"/>
       <c r="AD22" s="24"/>
       <c r="AE22" s="27"/>
       <c r="AF22" s="43" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="AG22" s="5"/>
       <c r="AH22" s="5"/>
@@ -15537,7 +15742,7 @@
       <c r="Q23" s="19"/>
       <c r="R23" s="19"/>
       <c r="S23" s="19" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="T23" s="20"/>
       <c r="U23" s="19"/>
@@ -15638,46 +15843,46 @@
       <c r="E26" s="5"/>
       <c r="F26" s="5"/>
       <c r="G26" s="42" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="H26" s="23"/>
       <c r="I26" s="24"/>
       <c r="J26" s="24"/>
       <c r="K26" s="24"/>
       <c r="L26" s="45" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="M26" s="24"/>
       <c r="N26" s="24"/>
       <c r="O26" s="26"/>
       <c r="P26" s="44" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="Q26" s="24"/>
       <c r="R26" s="24"/>
       <c r="S26" s="24"/>
       <c r="T26" s="45" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="U26" s="24"/>
       <c r="V26" s="24"/>
       <c r="W26" s="24"/>
       <c r="X26" s="45" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="Y26" s="24"/>
       <c r="Z26" s="24"/>
       <c r="AA26" s="26"/>
       <c r="AB26" s="44" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="AC26" s="24"/>
       <c r="AD26" s="24"/>
       <c r="AE26" s="27" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="AF26" s="43" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="AG26" s="5"/>
       <c r="AH26" s="5"/>
@@ -15692,7 +15897,7 @@
       <c r="F27" s="5"/>
       <c r="G27" s="19"/>
       <c r="H27" s="122" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="I27" s="19"/>
       <c r="J27" s="19"/>
@@ -15804,46 +16009,46 @@
       <c r="E30" s="5"/>
       <c r="F30" s="5"/>
       <c r="G30" s="42" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="H30" s="18"/>
       <c r="I30" s="19"/>
       <c r="J30" s="19"/>
       <c r="K30" s="19"/>
       <c r="L30" s="46" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="M30" s="19"/>
       <c r="N30" s="19"/>
       <c r="O30" s="21"/>
       <c r="P30" s="40" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="Q30" s="19"/>
       <c r="R30" s="19"/>
       <c r="S30" s="19"/>
       <c r="T30" s="46" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="U30" s="19"/>
       <c r="V30" s="19"/>
       <c r="W30" s="19" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="X30" s="46" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="Y30" s="19"/>
       <c r="Z30" s="19"/>
       <c r="AA30" s="21"/>
       <c r="AB30" s="40" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="AC30" s="19"/>
       <c r="AD30" s="19"/>
       <c r="AE30" s="22"/>
       <c r="AF30" s="43" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="AG30" s="5"/>
       <c r="AH30" s="5"/>
@@ -15901,8 +16106,8 @@
       <c r="L32" s="20"/>
       <c r="M32" s="19"/>
       <c r="N32" s="19"/>
-      <c r="O32" s="111" t="s">
-        <v>175</v>
+      <c r="O32" s="145" t="s">
+        <v>297</v>
       </c>
       <c r="P32" s="19"/>
       <c r="Q32" s="19"/>
@@ -15971,43 +16176,43 @@
       <c r="F34" s="5"/>
       <c r="G34" s="5"/>
       <c r="H34" s="40" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="I34" s="19"/>
       <c r="J34" s="19"/>
       <c r="K34" s="19"/>
       <c r="L34" s="40" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="M34" s="19"/>
       <c r="N34" s="19"/>
       <c r="O34" s="19"/>
       <c r="P34" s="43" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="Q34" s="19"/>
       <c r="R34" s="19"/>
       <c r="S34" s="19"/>
       <c r="T34" s="40" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="U34" s="19"/>
       <c r="V34" s="19"/>
       <c r="W34" s="19"/>
       <c r="X34" s="40" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="Y34" s="19"/>
       <c r="Z34" s="19"/>
       <c r="AA34" s="19"/>
       <c r="AB34" s="40" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="AC34" s="19"/>
       <c r="AD34" s="19"/>
       <c r="AE34" s="19"/>
       <c r="AF34" s="43" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="AG34" s="5"/>
       <c r="AH34" s="5"/>
@@ -16126,6 +16331,7 @@
     </row>
     <row r="38" spans="3:35" ht="36" customHeight="1" thickTop="1"/>
   </sheetData>
+  <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
@@ -16148,7 +16354,7 @@
   <sheetData>
     <row r="1" spans="1:35" ht="36" customHeight="1">
       <c r="A1" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="B1">
         <v>1</v>
@@ -16156,15 +16362,15 @@
     </row>
     <row r="2" spans="1:35" ht="36" customHeight="1">
       <c r="A2" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="B2" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
     </row>
     <row r="3" spans="1:35" ht="36" customHeight="1">
       <c r="A3" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="B3">
         <v>19</v>
@@ -16172,7 +16378,7 @@
     </row>
     <row r="4" spans="1:35" ht="36" customHeight="1">
       <c r="D4" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
     </row>
     <row r="5" spans="1:35" ht="36" customHeight="1" thickBot="1">
@@ -16275,7 +16481,7 @@
     </row>
     <row r="6" spans="1:35" ht="36" customHeight="1" thickTop="1">
       <c r="B6" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="C6">
         <v>1</v>
@@ -17462,6 +17668,7 @@
     </row>
     <row r="38" spans="3:35" ht="36" customHeight="1" thickTop="1"/>
   </sheetData>
+  <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
@@ -17479,51 +17686,51 @@
   </sheetPr>
   <dimension ref="A1:AI38"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="T19" sqref="T19"/>
+    <sheetView topLeftCell="A18" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
+      <selection activeCell="U26" sqref="U26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="6" defaultRowHeight="36" customHeight="1" x14ac:dyDescent="0"/>
   <sheetData>
     <row r="1" spans="1:35" ht="36" customHeight="1">
       <c r="A1" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="B1">
         <v>1</v>
       </c>
       <c r="F1" s="66"/>
       <c r="G1" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
     </row>
     <row r="2" spans="1:35" ht="36" customHeight="1">
       <c r="A2" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="B2" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="F2" s="67"/>
       <c r="G2" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
     </row>
     <row r="3" spans="1:35" ht="36" customHeight="1">
       <c r="A3" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="B3">
         <v>18</v>
       </c>
       <c r="F3" s="68"/>
       <c r="G3" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
     </row>
     <row r="4" spans="1:35" ht="36" customHeight="1">
       <c r="D4" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
     </row>
     <row r="5" spans="1:35" ht="36" customHeight="1" thickBot="1">
@@ -17626,7 +17833,7 @@
     </row>
     <row r="6" spans="1:35" ht="36" customHeight="1" thickTop="1">
       <c r="B6" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="C6">
         <v>1</v>
@@ -17747,43 +17954,43 @@
       <c r="F9" s="5"/>
       <c r="G9" s="5"/>
       <c r="H9" s="39" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="I9" s="54"/>
       <c r="J9" s="54"/>
       <c r="K9" s="54"/>
       <c r="L9" s="39" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="M9" s="54"/>
       <c r="N9" s="54"/>
       <c r="O9" s="54"/>
       <c r="P9" s="39" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="Q9" s="54"/>
       <c r="R9" s="54"/>
       <c r="S9" s="54"/>
       <c r="T9" s="39" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="U9" s="54"/>
       <c r="V9" s="54"/>
       <c r="W9" s="54"/>
       <c r="X9" s="39" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="Y9" s="54"/>
       <c r="Z9" s="54"/>
       <c r="AA9" s="54"/>
       <c r="AB9" s="39" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="AC9" s="54"/>
       <c r="AD9" s="54"/>
       <c r="AE9" s="54"/>
       <c r="AF9" s="39" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="AG9" s="5"/>
       <c r="AH9" s="5"/>
@@ -17798,7 +18005,7 @@
       <c r="F10" s="5"/>
       <c r="G10" s="19"/>
       <c r="H10" s="78" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="I10" s="13"/>
       <c r="J10" s="13"/>
@@ -17811,7 +18018,7 @@
       <c r="Q10" s="13"/>
       <c r="R10" s="13"/>
       <c r="S10" s="13" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="T10" s="15"/>
       <c r="U10" s="13"/>
@@ -17823,7 +18030,7 @@
       <c r="AA10" s="16"/>
       <c r="AB10" s="13"/>
       <c r="AC10" s="79" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="AD10" s="13"/>
       <c r="AE10" s="17"/>
@@ -17951,44 +18158,44 @@
       <c r="E14" s="5"/>
       <c r="F14" s="5"/>
       <c r="G14" s="42" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="H14" s="23"/>
       <c r="I14" s="24"/>
       <c r="J14" s="24"/>
       <c r="K14" s="24"/>
       <c r="L14" s="45" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="M14" s="24"/>
       <c r="N14" s="24"/>
       <c r="O14" s="26"/>
       <c r="P14" s="44" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="Q14" s="24"/>
       <c r="R14" s="24"/>
       <c r="S14" s="24"/>
       <c r="T14" s="45" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="U14" s="24"/>
       <c r="V14" s="24"/>
       <c r="W14" s="24"/>
       <c r="X14" s="45" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="Y14" s="24"/>
       <c r="Z14" s="24"/>
       <c r="AA14" s="26"/>
       <c r="AB14" s="44" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="AC14" s="24"/>
       <c r="AD14" s="24"/>
       <c r="AE14" s="27"/>
       <c r="AF14" s="43" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="AG14" s="5"/>
       <c r="AH14" s="5"/>
@@ -18008,8 +18215,8 @@
       <c r="K15" s="19"/>
       <c r="L15" s="20"/>
       <c r="M15" s="19"/>
-      <c r="N15" s="80" t="s">
-        <v>79</v>
+      <c r="N15" s="129" t="s">
+        <v>294</v>
       </c>
       <c r="O15" s="21"/>
       <c r="P15" s="19"/>
@@ -18028,9 +18235,11 @@
       <c r="AC15" s="19"/>
       <c r="AD15" s="19"/>
       <c r="AE15" s="81" t="s">
-        <v>96</v>
-      </c>
-      <c r="AF15" s="41"/>
+        <v>91</v>
+      </c>
+      <c r="AF15" s="146" t="s">
+        <v>295</v>
+      </c>
       <c r="AG15" s="5"/>
       <c r="AH15" s="5"/>
       <c r="AI15" s="6"/>
@@ -18060,8 +18269,8 @@
       <c r="V16" s="19"/>
       <c r="W16" s="19"/>
       <c r="X16" s="20"/>
-      <c r="Y16" s="80" t="s">
-        <v>175</v>
+      <c r="Y16" s="129" t="s">
+        <v>297</v>
       </c>
       <c r="Z16" s="19"/>
       <c r="AA16" s="21"/>
@@ -18119,44 +18328,44 @@
       <c r="E18" s="5"/>
       <c r="F18" s="5"/>
       <c r="G18" s="42" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="H18" s="18"/>
       <c r="I18" s="19"/>
       <c r="J18" s="19"/>
       <c r="K18" s="19"/>
       <c r="L18" s="46" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="M18" s="19"/>
       <c r="N18" s="19"/>
       <c r="O18" s="21"/>
       <c r="P18" s="40" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="Q18" s="19"/>
       <c r="R18" s="19"/>
       <c r="S18" s="19"/>
       <c r="T18" s="46" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="U18" s="19"/>
       <c r="V18" s="19"/>
       <c r="W18" s="19"/>
       <c r="X18" s="46" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="Y18" s="19"/>
       <c r="Z18" s="19"/>
       <c r="AA18" s="21"/>
       <c r="AB18" s="40" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="AC18" s="19"/>
       <c r="AD18" s="19"/>
       <c r="AE18" s="22"/>
       <c r="AF18" s="43" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="AG18" s="5"/>
       <c r="AH18" s="5"/>
@@ -18183,7 +18392,7 @@
       <c r="R19" s="19"/>
       <c r="S19" s="19"/>
       <c r="T19" s="72" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="U19" s="19"/>
       <c r="V19" s="19"/>
@@ -18210,7 +18419,7 @@
       <c r="F20" s="5"/>
       <c r="G20" s="19"/>
       <c r="H20" s="82" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="I20" s="19"/>
       <c r="J20" s="19"/>
@@ -18235,7 +18444,7 @@
       <c r="AC20" s="19"/>
       <c r="AD20" s="19"/>
       <c r="AE20" s="81" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="AF20" s="41"/>
       <c r="AG20" s="5"/>
@@ -18287,44 +18496,44 @@
       <c r="E22" s="5"/>
       <c r="F22" s="5"/>
       <c r="G22" s="42" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="H22" s="23"/>
       <c r="I22" s="24"/>
       <c r="J22" s="24"/>
       <c r="K22" s="24"/>
       <c r="L22" s="45" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="M22" s="24"/>
       <c r="N22" s="24"/>
       <c r="O22" s="26"/>
       <c r="P22" s="44" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="Q22" s="24"/>
       <c r="R22" s="24"/>
       <c r="S22" s="24"/>
       <c r="T22" s="45" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="U22" s="24"/>
       <c r="V22" s="24"/>
       <c r="W22" s="24"/>
       <c r="X22" s="45" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="Y22" s="24"/>
       <c r="Z22" s="24"/>
       <c r="AA22" s="26"/>
       <c r="AB22" s="44" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="AC22" s="24"/>
       <c r="AD22" s="24"/>
       <c r="AE22" s="27"/>
       <c r="AF22" s="43" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="AG22" s="5"/>
       <c r="AH22" s="5"/>
@@ -18384,7 +18593,7 @@
       <c r="N24" s="19"/>
       <c r="O24" s="21"/>
       <c r="P24" s="19" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="Q24" s="19"/>
       <c r="R24" s="19"/>
@@ -18434,7 +18643,7 @@
       <c r="Y25" s="29"/>
       <c r="Z25" s="29"/>
       <c r="AA25" s="31" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="AB25" s="29"/>
       <c r="AC25" s="29"/>
@@ -18453,44 +18662,44 @@
       <c r="E26" s="5"/>
       <c r="F26" s="5"/>
       <c r="G26" s="42" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="H26" s="23"/>
       <c r="I26" s="24"/>
       <c r="J26" s="24"/>
       <c r="K26" s="24"/>
       <c r="L26" s="45" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="M26" s="24"/>
       <c r="N26" s="24"/>
       <c r="O26" s="26"/>
       <c r="P26" s="44" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="Q26" s="24"/>
       <c r="R26" s="24"/>
       <c r="S26" s="24"/>
       <c r="T26" s="45" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="U26" s="24"/>
       <c r="V26" s="24"/>
       <c r="W26" s="24"/>
       <c r="X26" s="45" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="Y26" s="24"/>
       <c r="Z26" s="24"/>
       <c r="AA26" s="26"/>
       <c r="AB26" s="44" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="AC26" s="24"/>
       <c r="AD26" s="24"/>
       <c r="AE26" s="27"/>
       <c r="AF26" s="43" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="AG26" s="5"/>
       <c r="AH26" s="5"/>
@@ -18507,9 +18716,11 @@
       <c r="H27" s="18"/>
       <c r="I27" s="19"/>
       <c r="J27" s="80" t="s">
-        <v>126</v>
-      </c>
-      <c r="K27" s="19"/>
+        <v>121</v>
+      </c>
+      <c r="K27" s="139" t="s">
+        <v>295</v>
+      </c>
       <c r="L27" s="20"/>
       <c r="M27" s="19"/>
       <c r="N27" s="19"/>
@@ -18594,7 +18805,7 @@
       <c r="S29" s="29"/>
       <c r="T29" s="30"/>
       <c r="U29" s="73" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="V29" s="29"/>
       <c r="W29" s="29"/>
@@ -18606,9 +18817,11 @@
       <c r="AC29" s="29"/>
       <c r="AD29" s="29"/>
       <c r="AE29" s="83" t="s">
-        <v>260</v>
-      </c>
-      <c r="AF29" s="41"/>
+        <v>254</v>
+      </c>
+      <c r="AF29" s="149" t="s">
+        <v>295</v>
+      </c>
       <c r="AG29" s="5"/>
       <c r="AH29" s="5"/>
       <c r="AI29" s="6"/>
@@ -18621,44 +18834,44 @@
       <c r="E30" s="5"/>
       <c r="F30" s="5"/>
       <c r="G30" s="42" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="H30" s="18"/>
       <c r="I30" s="19"/>
       <c r="J30" s="19"/>
       <c r="K30" s="19"/>
       <c r="L30" s="46" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="M30" s="19"/>
       <c r="N30" s="19"/>
       <c r="O30" s="21"/>
       <c r="P30" s="40" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="Q30" s="19"/>
       <c r="R30" s="19"/>
       <c r="S30" s="19"/>
       <c r="T30" s="46" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="U30" s="19"/>
       <c r="V30" s="19"/>
       <c r="W30" s="19"/>
       <c r="X30" s="46" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="Y30" s="19"/>
       <c r="Z30" s="19"/>
       <c r="AA30" s="21"/>
       <c r="AB30" s="40" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="AC30" s="19"/>
       <c r="AD30" s="19"/>
       <c r="AE30" s="22"/>
       <c r="AF30" s="43" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="AG30" s="5"/>
       <c r="AH30" s="5"/>
@@ -18747,14 +18960,14 @@
       <c r="F33" s="5"/>
       <c r="G33" s="19"/>
       <c r="H33" s="74" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="I33" s="34"/>
       <c r="J33" s="34"/>
       <c r="K33" s="34"/>
       <c r="L33" s="35"/>
       <c r="M33" s="34" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="N33" s="34"/>
       <c r="O33" s="36"/>
@@ -18762,7 +18975,7 @@
       <c r="Q33" s="34"/>
       <c r="R33" s="34"/>
       <c r="S33" s="76" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="T33" s="35"/>
       <c r="U33" s="34"/>
@@ -18772,7 +18985,7 @@
       <c r="Y33" s="34"/>
       <c r="Z33" s="34"/>
       <c r="AA33" s="84" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="AB33" s="34"/>
       <c r="AC33" s="34"/>
@@ -18792,43 +19005,43 @@
       <c r="F34" s="5"/>
       <c r="G34" s="5"/>
       <c r="H34" s="40" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="I34" s="19"/>
       <c r="J34" s="19"/>
       <c r="K34" s="19"/>
       <c r="L34" s="40" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="M34" s="19"/>
       <c r="N34" s="19"/>
       <c r="O34" s="19"/>
       <c r="P34" s="43" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="Q34" s="19"/>
       <c r="R34" s="19"/>
       <c r="S34" s="19"/>
       <c r="T34" s="40" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="U34" s="19"/>
       <c r="V34" s="19"/>
       <c r="W34" s="19"/>
       <c r="X34" s="40" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="Y34" s="19"/>
       <c r="Z34" s="19"/>
       <c r="AA34" s="19"/>
       <c r="AB34" s="40" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="AC34" s="19"/>
       <c r="AD34" s="19"/>
       <c r="AE34" s="19"/>
       <c r="AF34" s="43" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="AG34" s="5"/>
       <c r="AH34" s="5"/>
@@ -18962,15 +19175,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AI38"/>
   <sheetViews>
-    <sheetView zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="75" workbookViewId="0">
-      <selection activeCell="S29" sqref="S29"/>
+    <sheetView topLeftCell="A7" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="75" workbookViewId="0">
+      <selection activeCell="AH9" sqref="AH9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="6" defaultRowHeight="36" customHeight="1" x14ac:dyDescent="0"/>
   <sheetData>
     <row r="1" spans="1:35" ht="36" customHeight="1">
       <c r="A1" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="B1">
         <v>2</v>
@@ -18978,35 +19191,35 @@
     </row>
     <row r="2" spans="1:35" ht="36" customHeight="1">
       <c r="A2" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="B2" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="M2" s="66"/>
       <c r="N2" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
     </row>
     <row r="3" spans="1:35" ht="36" customHeight="1">
       <c r="A3" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="B3">
         <v>21</v>
       </c>
       <c r="M3" s="67"/>
       <c r="N3" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
     </row>
     <row r="4" spans="1:35" ht="36" customHeight="1">
       <c r="D4" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="M4" s="68"/>
       <c r="N4" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
     </row>
     <row r="5" spans="1:35" ht="36" customHeight="1" thickBot="1">
@@ -19109,7 +19322,7 @@
     </row>
     <row r="6" spans="1:35" ht="36" customHeight="1" thickTop="1">
       <c r="B6" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="C6">
         <v>1</v>
@@ -19230,43 +19443,43 @@
       <c r="F9" s="5"/>
       <c r="G9" s="5"/>
       <c r="H9" s="39" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="I9" s="54"/>
       <c r="J9" s="54"/>
       <c r="K9" s="54"/>
       <c r="L9" s="39" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="M9" s="54"/>
       <c r="N9" s="54"/>
       <c r="O9" s="54"/>
       <c r="P9" s="39" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="Q9" s="54"/>
       <c r="R9" s="54"/>
       <c r="S9" s="54"/>
       <c r="T9" s="39" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="U9" s="54"/>
       <c r="V9" s="54"/>
       <c r="W9" s="54"/>
       <c r="X9" s="39" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="Y9" s="54"/>
       <c r="Z9" s="54"/>
       <c r="AA9" s="54"/>
       <c r="AB9" s="39" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="AC9" s="54"/>
       <c r="AD9" s="54"/>
       <c r="AE9" s="54"/>
       <c r="AF9" s="39" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="AG9" s="5"/>
       <c r="AH9" s="5"/>
@@ -19281,7 +19494,7 @@
       <c r="F10" s="5"/>
       <c r="G10" s="19"/>
       <c r="H10" s="59" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="I10" s="13"/>
       <c r="J10" s="13"/>
@@ -19297,7 +19510,7 @@
       <c r="T10" s="15"/>
       <c r="U10" s="13"/>
       <c r="V10" s="60" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="W10" s="13"/>
       <c r="X10" s="15"/>
@@ -19308,9 +19521,11 @@
       <c r="AC10" s="13"/>
       <c r="AD10" s="13"/>
       <c r="AE10" s="61" t="s">
-        <v>88</v>
-      </c>
-      <c r="AF10" s="19"/>
+        <v>83</v>
+      </c>
+      <c r="AF10" s="139" t="s">
+        <v>295</v>
+      </c>
       <c r="AG10" s="5"/>
       <c r="AH10" s="5"/>
       <c r="AI10" s="6"/>
@@ -19434,46 +19649,48 @@
       <c r="E14" s="5"/>
       <c r="F14" s="5"/>
       <c r="G14" s="42" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="H14" s="23"/>
       <c r="I14" s="24"/>
       <c r="J14" s="24"/>
       <c r="K14" s="24"/>
       <c r="L14" s="45" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="M14" s="24"/>
       <c r="N14" s="24"/>
       <c r="O14" s="62" t="s">
-        <v>261</v>
-      </c>
-      <c r="P14" s="44"/>
+        <v>255</v>
+      </c>
+      <c r="P14" s="141" t="s">
+        <v>295</v>
+      </c>
       <c r="Q14" s="24"/>
       <c r="R14" s="24"/>
       <c r="S14" s="24"/>
       <c r="T14" s="45" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="U14" s="24"/>
       <c r="V14" s="24"/>
       <c r="W14" s="24"/>
       <c r="X14" s="45" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="Y14" s="24"/>
       <c r="Z14" s="24"/>
       <c r="AA14" s="62" t="s">
-        <v>126</v>
-      </c>
-      <c r="AB14" s="44" t="s">
-        <v>250</v>
+        <v>121</v>
+      </c>
+      <c r="AB14" s="140" t="s">
+        <v>295</v>
       </c>
       <c r="AC14" s="24"/>
       <c r="AD14" s="24"/>
       <c r="AE14" s="27"/>
       <c r="AF14" s="43" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="AG14" s="5"/>
       <c r="AH14" s="5"/>
@@ -19489,7 +19706,7 @@
       <c r="G15" s="19"/>
       <c r="H15" s="18"/>
       <c r="I15" s="64" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="J15" s="19"/>
       <c r="K15" s="19"/>
@@ -19502,7 +19719,7 @@
       <c r="R15" s="19"/>
       <c r="S15" s="19"/>
       <c r="T15" s="20" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="U15" s="19"/>
       <c r="V15" s="19"/>
@@ -19602,44 +19819,44 @@
       <c r="E18" s="5"/>
       <c r="F18" s="5"/>
       <c r="G18" s="42" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="H18" s="18"/>
       <c r="I18" s="19"/>
       <c r="J18" s="19"/>
       <c r="K18" s="19"/>
       <c r="L18" s="46" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="M18" s="19"/>
       <c r="N18" s="19"/>
       <c r="O18" s="21"/>
       <c r="P18" s="40" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="Q18" s="19"/>
       <c r="R18" s="19"/>
       <c r="S18" s="19"/>
       <c r="T18" s="46" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="U18" s="19"/>
       <c r="V18" s="19"/>
       <c r="W18" s="19"/>
       <c r="X18" s="46" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="Y18" s="19"/>
       <c r="Z18" s="19"/>
       <c r="AA18" s="21"/>
       <c r="AB18" s="40" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="AC18" s="19"/>
       <c r="AD18" s="19"/>
       <c r="AE18" s="22"/>
       <c r="AF18" s="43" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="AG18" s="5"/>
       <c r="AH18" s="5"/>
@@ -19659,8 +19876,8 @@
       <c r="K19" s="19"/>
       <c r="L19" s="20"/>
       <c r="M19" s="19"/>
-      <c r="N19" s="63" t="s">
-        <v>190</v>
+      <c r="N19" s="129" t="s">
+        <v>178</v>
       </c>
       <c r="O19" s="21"/>
       <c r="P19" s="19"/>
@@ -19693,7 +19910,7 @@
       <c r="F20" s="5"/>
       <c r="G20" s="19"/>
       <c r="H20" s="18" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="I20" s="19"/>
       <c r="J20" s="19"/>
@@ -19706,7 +19923,7 @@
       <c r="Q20" s="19"/>
       <c r="R20" s="19"/>
       <c r="S20" s="19" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="T20" s="20"/>
       <c r="U20" s="19"/>
@@ -19718,7 +19935,7 @@
       <c r="AA20" s="21"/>
       <c r="AB20" s="19"/>
       <c r="AC20" s="63" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="AD20" s="19"/>
       <c r="AE20" s="22"/>
@@ -19772,44 +19989,44 @@
       <c r="E22" s="5"/>
       <c r="F22" s="5"/>
       <c r="G22" s="42" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="H22" s="23"/>
       <c r="I22" s="24"/>
       <c r="J22" s="24"/>
       <c r="K22" s="24"/>
       <c r="L22" s="45" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="M22" s="24"/>
       <c r="N22" s="24"/>
       <c r="O22" s="26"/>
       <c r="P22" s="44" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="Q22" s="24"/>
       <c r="R22" s="24"/>
       <c r="S22" s="24"/>
       <c r="T22" s="45" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="U22" s="24"/>
       <c r="V22" s="24"/>
       <c r="W22" s="24"/>
       <c r="X22" s="45" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="Y22" s="24"/>
       <c r="Z22" s="24"/>
       <c r="AA22" s="26"/>
       <c r="AB22" s="44" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="AC22" s="24"/>
       <c r="AD22" s="24"/>
       <c r="AE22" s="27"/>
       <c r="AF22" s="43" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="AG22" s="5"/>
       <c r="AH22" s="5"/>
@@ -19884,7 +20101,7 @@
       <c r="AC24" s="19"/>
       <c r="AD24" s="19"/>
       <c r="AE24" s="70" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="AF24" s="41"/>
       <c r="AG24" s="5"/>
@@ -19899,8 +20116,8 @@
       <c r="E25" s="5"/>
       <c r="F25" s="5"/>
       <c r="G25" s="19"/>
-      <c r="H25" s="65" t="s">
-        <v>175</v>
+      <c r="H25" s="142" t="s">
+        <v>297</v>
       </c>
       <c r="I25" s="29"/>
       <c r="J25" s="29"/>
@@ -19914,9 +20131,11 @@
       <c r="R25" s="29"/>
       <c r="S25" s="29"/>
       <c r="T25" s="69" t="s">
-        <v>193</v>
-      </c>
-      <c r="U25" s="29"/>
+        <v>187</v>
+      </c>
+      <c r="U25" s="150" t="s">
+        <v>295</v>
+      </c>
       <c r="V25" s="29"/>
       <c r="W25" s="29"/>
       <c r="X25" s="30"/>
@@ -19940,44 +20159,44 @@
       <c r="E26" s="5"/>
       <c r="F26" s="5"/>
       <c r="G26" s="42" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="H26" s="23"/>
       <c r="I26" s="24"/>
       <c r="J26" s="24"/>
       <c r="K26" s="24"/>
       <c r="L26" s="45" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="M26" s="24"/>
       <c r="N26" s="24"/>
       <c r="O26" s="26"/>
       <c r="P26" s="44" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="Q26" s="24"/>
       <c r="R26" s="24"/>
       <c r="S26" s="24"/>
       <c r="T26" s="45" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="U26" s="24"/>
       <c r="V26" s="24"/>
       <c r="W26" s="24"/>
       <c r="X26" s="45" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="Y26" s="24"/>
       <c r="Z26" s="24"/>
       <c r="AA26" s="26"/>
       <c r="AB26" s="44" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="AC26" s="24"/>
       <c r="AD26" s="24"/>
       <c r="AE26" s="27"/>
       <c r="AF26" s="43" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="AG26" s="5"/>
       <c r="AH26" s="5"/>
@@ -20033,7 +20252,7 @@
       <c r="J28" s="19"/>
       <c r="K28" s="19"/>
       <c r="L28" s="72" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="M28" s="19"/>
       <c r="N28" s="19"/>
@@ -20048,14 +20267,14 @@
       <c r="W28" s="19"/>
       <c r="X28" s="20"/>
       <c r="Y28" s="19" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="Z28" s="19"/>
       <c r="AA28" s="21"/>
       <c r="AB28" s="19"/>
       <c r="AC28" s="19"/>
       <c r="AD28" s="19" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="AE28" s="22"/>
       <c r="AF28" s="41"/>
@@ -20083,7 +20302,7 @@
       <c r="Q29" s="29"/>
       <c r="R29" s="29"/>
       <c r="S29" s="73" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="T29" s="30"/>
       <c r="U29" s="29"/>
@@ -20110,44 +20329,44 @@
       <c r="E30" s="5"/>
       <c r="F30" s="5"/>
       <c r="G30" s="42" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="H30" s="18"/>
       <c r="I30" s="19"/>
       <c r="J30" s="19"/>
       <c r="K30" s="19"/>
       <c r="L30" s="46" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="M30" s="19"/>
       <c r="N30" s="19"/>
       <c r="O30" s="21"/>
       <c r="P30" s="40" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="Q30" s="19"/>
       <c r="R30" s="19"/>
       <c r="S30" s="19"/>
       <c r="T30" s="46" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="U30" s="19"/>
       <c r="V30" s="19"/>
       <c r="W30" s="19"/>
       <c r="X30" s="46" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="Y30" s="19"/>
       <c r="Z30" s="19"/>
       <c r="AA30" s="21"/>
       <c r="AB30" s="40" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="AC30" s="19"/>
       <c r="AD30" s="19"/>
       <c r="AE30" s="22"/>
       <c r="AF30" s="43" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="AG30" s="5"/>
       <c r="AH30" s="5"/>
@@ -20236,9 +20455,11 @@
       <c r="F33" s="5"/>
       <c r="G33" s="19"/>
       <c r="H33" s="75" t="s">
-        <v>258</v>
-      </c>
-      <c r="I33" s="34"/>
+        <v>252</v>
+      </c>
+      <c r="I33" s="154" t="s">
+        <v>295</v>
+      </c>
       <c r="J33" s="34"/>
       <c r="K33" s="34"/>
       <c r="L33" s="35"/>
@@ -20247,9 +20468,11 @@
       <c r="O33" s="36"/>
       <c r="P33" s="34"/>
       <c r="Q33" s="76" t="s">
-        <v>126</v>
-      </c>
-      <c r="R33" s="34"/>
+        <v>121</v>
+      </c>
+      <c r="R33" s="154" t="s">
+        <v>295</v>
+      </c>
       <c r="S33" s="34"/>
       <c r="T33" s="35"/>
       <c r="U33" s="34"/>
@@ -20258,7 +20481,7 @@
       <c r="X33" s="35"/>
       <c r="Y33" s="34"/>
       <c r="Z33" s="77" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="AA33" s="36"/>
       <c r="AB33" s="34"/>
@@ -20279,43 +20502,43 @@
       <c r="F34" s="5"/>
       <c r="G34" s="5"/>
       <c r="H34" s="40" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="I34" s="19"/>
       <c r="J34" s="19"/>
       <c r="K34" s="19"/>
       <c r="L34" s="40" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="M34" s="19"/>
       <c r="N34" s="19"/>
       <c r="O34" s="19"/>
       <c r="P34" s="43" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="Q34" s="19"/>
       <c r="R34" s="19"/>
       <c r="S34" s="19"/>
       <c r="T34" s="40" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="U34" s="19"/>
       <c r="V34" s="19"/>
       <c r="W34" s="19"/>
       <c r="X34" s="40" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="Y34" s="19"/>
       <c r="Z34" s="19"/>
       <c r="AA34" s="19"/>
       <c r="AB34" s="40" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="AC34" s="19"/>
       <c r="AD34" s="19"/>
       <c r="AE34" s="19"/>
       <c r="AF34" s="43" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="AG34" s="5"/>
       <c r="AH34" s="5"/>
@@ -20434,6 +20657,7 @@
     </row>
     <row r="38" spans="3:35" ht="36" customHeight="1" thickTop="1"/>
   </sheetData>
+  <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
@@ -20448,15 +20672,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AI38"/>
   <sheetViews>
-    <sheetView zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="75" workbookViewId="0">
-      <selection activeCell="N15" sqref="N15"/>
+    <sheetView tabSelected="1" topLeftCell="A24" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="75" workbookViewId="0">
+      <selection activeCell="V30" sqref="V30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="6" defaultRowHeight="36" customHeight="1" x14ac:dyDescent="0"/>
   <sheetData>
     <row r="1" spans="1:35" ht="36" customHeight="1">
       <c r="A1" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="B1">
         <v>3</v>
@@ -20464,15 +20688,15 @@
     </row>
     <row r="2" spans="1:35" ht="36" customHeight="1">
       <c r="A2" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="B2" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
     </row>
     <row r="3" spans="1:35" ht="36" customHeight="1">
       <c r="A3" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="B3">
         <v>22</v>
@@ -20480,7 +20704,7 @@
     </row>
     <row r="4" spans="1:35" ht="36" customHeight="1">
       <c r="D4" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
     </row>
     <row r="5" spans="1:35" ht="36" customHeight="1" thickBot="1">
@@ -20583,7 +20807,7 @@
     </row>
     <row r="6" spans="1:35" ht="36" customHeight="1" thickTop="1">
       <c r="B6" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="C6">
         <v>1</v>
@@ -20704,43 +20928,43 @@
       <c r="F9" s="5"/>
       <c r="G9" s="5"/>
       <c r="H9" s="39" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="I9" s="54"/>
       <c r="J9" s="54"/>
       <c r="K9" s="54"/>
       <c r="L9" s="39" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="M9" s="54"/>
       <c r="N9" s="54"/>
       <c r="O9" s="54"/>
       <c r="P9" s="39" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="Q9" s="54"/>
       <c r="R9" s="54"/>
       <c r="S9" s="54"/>
       <c r="T9" s="39" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="U9" s="54"/>
       <c r="V9" s="54"/>
       <c r="W9" s="54"/>
       <c r="X9" s="39" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="Y9" s="54"/>
       <c r="Z9" s="54"/>
       <c r="AA9" s="54"/>
       <c r="AB9" s="39" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="AC9" s="54"/>
       <c r="AD9" s="54"/>
       <c r="AE9" s="54"/>
       <c r="AF9" s="39" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="AG9" s="5"/>
       <c r="AH9" s="5"/>
@@ -20755,15 +20979,17 @@
       <c r="F10" s="5"/>
       <c r="G10" s="5"/>
       <c r="H10" s="85" t="s">
-        <v>261</v>
-      </c>
-      <c r="I10" s="13"/>
+        <v>255</v>
+      </c>
+      <c r="I10" s="147" t="s">
+        <v>295</v>
+      </c>
       <c r="J10" s="13"/>
       <c r="K10" s="13"/>
       <c r="L10" s="15"/>
       <c r="M10" s="13"/>
       <c r="N10" s="13" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="O10" s="16"/>
       <c r="P10" s="13"/>
@@ -20771,22 +20997,24 @@
       <c r="R10" s="13"/>
       <c r="S10" s="13"/>
       <c r="T10" s="86" t="s">
-        <v>258</v>
-      </c>
-      <c r="U10" s="13"/>
+        <v>252</v>
+      </c>
+      <c r="U10" s="147" t="s">
+        <v>295</v>
+      </c>
       <c r="V10" s="13"/>
       <c r="W10" s="13"/>
       <c r="X10" s="15"/>
       <c r="Y10" s="13"/>
       <c r="Z10" s="13" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="AA10" s="16"/>
       <c r="AB10" s="13"/>
       <c r="AC10" s="13"/>
       <c r="AD10" s="13"/>
       <c r="AE10" s="17" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="AF10" s="5"/>
       <c r="AG10" s="5"/>
@@ -20912,44 +21140,44 @@
       <c r="E14" s="5"/>
       <c r="F14" s="5"/>
       <c r="G14" s="42" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="H14" s="23"/>
       <c r="I14" s="24"/>
       <c r="J14" s="24"/>
       <c r="K14" s="24"/>
       <c r="L14" s="45" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="M14" s="24"/>
       <c r="N14" s="24"/>
       <c r="O14" s="26"/>
       <c r="P14" s="44" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="Q14" s="24"/>
       <c r="R14" s="24"/>
       <c r="S14" s="24"/>
       <c r="T14" s="45" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="U14" s="24"/>
       <c r="V14" s="24"/>
       <c r="W14" s="24"/>
       <c r="X14" s="45" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="Y14" s="24"/>
       <c r="Z14" s="24"/>
       <c r="AA14" s="26"/>
       <c r="AB14" s="44" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="AC14" s="24"/>
       <c r="AD14" s="24"/>
       <c r="AE14" s="27"/>
       <c r="AF14" s="43" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="AG14" s="5"/>
       <c r="AH14" s="5"/>
@@ -20964,7 +21192,7 @@
       <c r="F15" s="5"/>
       <c r="G15" s="5"/>
       <c r="H15" s="18" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="I15" s="19"/>
       <c r="J15" s="19"/>
@@ -20972,15 +21200,17 @@
       <c r="L15" s="20"/>
       <c r="M15" s="19"/>
       <c r="N15" s="80" t="s">
-        <v>86</v>
-      </c>
-      <c r="O15" s="21"/>
+        <v>81</v>
+      </c>
+      <c r="O15" s="156" t="s">
+        <v>295</v>
+      </c>
       <c r="P15" s="19"/>
       <c r="Q15" s="19"/>
       <c r="R15" s="19"/>
       <c r="S15" s="19"/>
       <c r="T15" s="71" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="U15" s="19"/>
       <c r="V15" s="19"/>
@@ -20988,9 +21218,11 @@
       <c r="X15" s="20"/>
       <c r="Y15" s="19"/>
       <c r="Z15" s="80" t="s">
-        <v>260</v>
-      </c>
-      <c r="AA15" s="21"/>
+        <v>254</v>
+      </c>
+      <c r="AA15" s="156" t="s">
+        <v>295</v>
+      </c>
       <c r="AB15" s="19"/>
       <c r="AC15" s="19"/>
       <c r="AD15" s="19"/>
@@ -21082,46 +21314,46 @@
       <c r="E18" s="5"/>
       <c r="F18" s="5"/>
       <c r="G18" s="42" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="H18" s="18"/>
       <c r="I18" s="19"/>
       <c r="J18" s="19"/>
       <c r="K18" s="19"/>
       <c r="L18" s="46" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="M18" s="19"/>
       <c r="N18" s="19"/>
       <c r="O18" s="21"/>
       <c r="P18" s="40" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="Q18" s="19"/>
       <c r="R18" s="19"/>
       <c r="S18" s="19"/>
       <c r="T18" s="46" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="U18" s="19"/>
       <c r="V18" s="19"/>
       <c r="W18" s="19"/>
       <c r="X18" s="46" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="Y18" s="19"/>
       <c r="Z18" s="19"/>
       <c r="AA18" s="21"/>
       <c r="AB18" s="40" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="AC18" s="19"/>
       <c r="AD18" s="19"/>
       <c r="AE18" s="81" t="s">
-        <v>299</v>
+        <v>292</v>
       </c>
       <c r="AF18" s="43" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="AG18" s="5"/>
       <c r="AH18" s="5"/>
@@ -21149,7 +21381,7 @@
       <c r="S19" s="19"/>
       <c r="T19" s="20"/>
       <c r="U19" s="19" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="V19" s="19"/>
       <c r="W19" s="19"/>
@@ -21178,7 +21410,7 @@
       <c r="I20" s="19"/>
       <c r="J20" s="19"/>
       <c r="K20" s="19" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="L20" s="20"/>
       <c r="M20" s="19"/>
@@ -21195,9 +21427,11 @@
       <c r="X20" s="20"/>
       <c r="Y20" s="5"/>
       <c r="Z20" s="80" t="s">
-        <v>258</v>
-      </c>
-      <c r="AA20" s="21"/>
+        <v>252</v>
+      </c>
+      <c r="AA20" s="156" t="s">
+        <v>295</v>
+      </c>
       <c r="AB20" s="19"/>
       <c r="AC20" s="19"/>
       <c r="AD20" s="19"/>
@@ -21252,44 +21486,44 @@
       <c r="E22" s="5"/>
       <c r="F22" s="5"/>
       <c r="G22" s="42" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="H22" s="23"/>
       <c r="I22" s="24"/>
       <c r="J22" s="24"/>
       <c r="K22" s="24"/>
       <c r="L22" s="45" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="M22" s="24"/>
       <c r="N22" s="24"/>
       <c r="O22" s="26"/>
       <c r="P22" s="44" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="Q22" s="24"/>
       <c r="R22" s="24"/>
       <c r="S22" s="24"/>
       <c r="T22" s="45" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="U22" s="24"/>
       <c r="V22" s="24"/>
       <c r="W22" s="24"/>
       <c r="X22" s="45" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="Y22" s="24"/>
       <c r="Z22" s="24"/>
       <c r="AA22" s="26"/>
       <c r="AB22" s="44" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="AC22" s="24"/>
       <c r="AD22" s="24"/>
       <c r="AE22" s="27"/>
       <c r="AF22" s="43" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="AG22" s="5"/>
       <c r="AH22" s="5"/>
@@ -21319,7 +21553,7 @@
       <c r="U23" s="19"/>
       <c r="V23" s="5"/>
       <c r="W23" s="80" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="X23" s="20"/>
       <c r="Y23" s="19"/>
@@ -21329,7 +21563,7 @@
       <c r="AC23" s="19"/>
       <c r="AD23" s="5"/>
       <c r="AE23" s="22" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="AF23" s="5"/>
       <c r="AG23" s="5"/>
@@ -21345,7 +21579,7 @@
       <c r="F24" s="5"/>
       <c r="G24" s="5"/>
       <c r="H24" s="18" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="I24" s="19"/>
       <c r="J24" s="19"/>
@@ -21391,8 +21625,8 @@
       <c r="M25" s="29"/>
       <c r="N25" s="29"/>
       <c r="O25" s="31"/>
-      <c r="P25" s="87" t="s">
-        <v>79</v>
+      <c r="P25" s="136" t="s">
+        <v>301</v>
       </c>
       <c r="Q25" s="29"/>
       <c r="R25" s="29"/>
@@ -21422,44 +21656,44 @@
       <c r="E26" s="5"/>
       <c r="F26" s="5"/>
       <c r="G26" s="42" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="H26" s="23"/>
       <c r="I26" s="24"/>
       <c r="J26" s="24"/>
       <c r="K26" s="24"/>
       <c r="L26" s="45" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="M26" s="24"/>
       <c r="N26" s="24"/>
       <c r="O26" s="26"/>
       <c r="P26" s="44" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="Q26" s="24"/>
       <c r="R26" s="24"/>
       <c r="S26" s="24"/>
       <c r="T26" s="45" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="U26" s="24"/>
       <c r="V26" s="24"/>
       <c r="W26" s="24"/>
       <c r="X26" s="45" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="Y26" s="24"/>
       <c r="Z26" s="24"/>
       <c r="AA26" s="26"/>
       <c r="AB26" s="44" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="AC26" s="24"/>
       <c r="AD26" s="24"/>
       <c r="AE26" s="27"/>
       <c r="AF26" s="43" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="AG26" s="5"/>
       <c r="AH26" s="5"/>
@@ -21533,8 +21767,8 @@
       <c r="AB28" s="19"/>
       <c r="AC28" s="19"/>
       <c r="AD28" s="19"/>
-      <c r="AE28" s="81" t="s">
-        <v>175</v>
+      <c r="AE28" s="143" t="s">
+        <v>297</v>
       </c>
       <c r="AF28" s="5"/>
       <c r="AG28" s="5"/>
@@ -21562,10 +21796,12 @@
       <c r="R29" s="29"/>
       <c r="S29" s="29"/>
       <c r="T29" s="30"/>
-      <c r="U29" s="87" t="s">
-        <v>79</v>
-      </c>
-      <c r="V29" s="29"/>
+      <c r="U29" s="136" t="s">
+        <v>294</v>
+      </c>
+      <c r="V29" s="29" t="s">
+        <v>302</v>
+      </c>
       <c r="W29" s="29"/>
       <c r="X29" s="30"/>
       <c r="Y29" s="29"/>
@@ -21588,46 +21824,48 @@
       <c r="E30" s="5"/>
       <c r="F30" s="5"/>
       <c r="G30" s="42" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="H30" s="65" t="s">
-        <v>92</v>
-      </c>
-      <c r="I30" s="19"/>
+        <v>87</v>
+      </c>
+      <c r="I30" s="139" t="s">
+        <v>295</v>
+      </c>
       <c r="J30" s="19"/>
       <c r="K30" s="19"/>
       <c r="L30" s="46" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="M30" s="19"/>
       <c r="N30" s="19"/>
       <c r="O30" s="21"/>
       <c r="P30" s="40" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="Q30" s="19"/>
       <c r="R30" s="19"/>
       <c r="S30" s="19"/>
       <c r="T30" s="46" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="U30" s="19"/>
       <c r="V30" s="19"/>
       <c r="W30" s="19"/>
       <c r="X30" s="46" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="Y30" s="19"/>
       <c r="Z30" s="19"/>
       <c r="AA30" s="21"/>
       <c r="AB30" s="40" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="AC30" s="19"/>
       <c r="AD30" s="19"/>
       <c r="AE30" s="22"/>
       <c r="AF30" s="43" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="AG30" s="5"/>
       <c r="AH30" s="5"/>
@@ -21724,7 +21962,7 @@
       <c r="N33" s="34"/>
       <c r="O33" s="36"/>
       <c r="P33" s="77" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="Q33" s="34"/>
       <c r="R33" s="34"/>
@@ -21740,7 +21978,7 @@
       <c r="AB33" s="34"/>
       <c r="AC33" s="34"/>
       <c r="AD33" s="76" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="AE33" s="11"/>
       <c r="AF33" s="5"/>
@@ -21757,43 +21995,43 @@
       <c r="F34" s="5"/>
       <c r="G34" s="5"/>
       <c r="H34" s="40" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="I34" s="19"/>
       <c r="J34" s="19"/>
       <c r="K34" s="19"/>
       <c r="L34" s="40" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="M34" s="19"/>
       <c r="N34" s="19"/>
       <c r="O34" s="19"/>
       <c r="P34" s="43" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="Q34" s="19"/>
       <c r="R34" s="19"/>
       <c r="S34" s="19"/>
       <c r="T34" s="40" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="U34" s="19"/>
       <c r="V34" s="19"/>
       <c r="W34" s="19"/>
       <c r="X34" s="40" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="Y34" s="19"/>
       <c r="Z34" s="19"/>
       <c r="AA34" s="19"/>
       <c r="AB34" s="40" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="AC34" s="19"/>
       <c r="AD34" s="19"/>
       <c r="AE34" s="19"/>
       <c r="AF34" s="43" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="AG34" s="5"/>
       <c r="AH34" s="5"/>
@@ -21912,6 +22150,7 @@
     </row>
     <row r="38" spans="3:35" ht="36" customHeight="1" thickTop="1"/>
   </sheetData>
+  <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
@@ -21926,15 +22165,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AI38"/>
   <sheetViews>
-    <sheetView zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="75" workbookViewId="0">
-      <selection activeCell="AJ24" sqref="AJ24"/>
+    <sheetView topLeftCell="A2" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="75" workbookViewId="0">
+      <selection activeCell="X10" sqref="X10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="6" defaultRowHeight="36" customHeight="1" x14ac:dyDescent="0"/>
   <sheetData>
     <row r="1" spans="1:35" ht="36" customHeight="1">
       <c r="A1" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="B1">
         <v>4</v>
@@ -21942,7 +22181,7 @@
     </row>
     <row r="2" spans="1:35" ht="36" customHeight="1">
       <c r="A2" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="B2" t="s">
         <v>0</v>
@@ -21950,7 +22189,7 @@
     </row>
     <row r="3" spans="1:35" ht="36" customHeight="1">
       <c r="A3" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="B3">
         <v>48</v>
@@ -21958,7 +22197,7 @@
     </row>
     <row r="4" spans="1:35" ht="36" customHeight="1">
       <c r="D4" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
     </row>
     <row r="5" spans="1:35" ht="36" customHeight="1" thickBot="1">
@@ -22061,7 +22300,7 @@
     </row>
     <row r="6" spans="1:35" ht="36" customHeight="1" thickTop="1">
       <c r="B6" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="C6">
         <v>1</v>
@@ -22182,43 +22421,43 @@
       <c r="F9" s="5"/>
       <c r="G9" s="5"/>
       <c r="H9" s="39" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="I9" s="54"/>
       <c r="J9" s="54"/>
       <c r="K9" s="54"/>
       <c r="L9" s="39" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="M9" s="54"/>
       <c r="N9" s="54"/>
       <c r="O9" s="54"/>
       <c r="P9" s="39" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="Q9" s="54"/>
       <c r="R9" s="54"/>
       <c r="S9" s="54"/>
       <c r="T9" s="39" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="U9" s="54"/>
       <c r="V9" s="54"/>
       <c r="W9" s="54"/>
       <c r="X9" s="39" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="Y9" s="54"/>
       <c r="Z9" s="54"/>
       <c r="AA9" s="54"/>
       <c r="AB9" s="39" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="AC9" s="54"/>
       <c r="AD9" s="54"/>
       <c r="AE9" s="54"/>
       <c r="AF9" s="39" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="AG9" s="5"/>
       <c r="AH9" s="5"/>
@@ -22239,13 +22478,13 @@
       <c r="J10" s="13"/>
       <c r="K10" s="13"/>
       <c r="L10" s="86" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="M10" s="13"/>
       <c r="N10" s="13"/>
       <c r="O10" s="16"/>
       <c r="P10" s="79" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="Q10" s="13"/>
       <c r="R10" s="13"/>
@@ -22253,10 +22492,12 @@
       <c r="T10" s="86" t="s">
         <v>32</v>
       </c>
-      <c r="U10" s="13"/>
+      <c r="U10" s="147" t="s">
+        <v>295</v>
+      </c>
       <c r="V10" s="13"/>
       <c r="W10" s="13"/>
-      <c r="X10" s="15" t="s">
+      <c r="X10" s="161" t="s">
         <v>35</v>
       </c>
       <c r="Y10" s="13"/>
@@ -22394,10 +22635,10 @@
       <c r="E14" s="5"/>
       <c r="F14" s="5"/>
       <c r="G14" s="42" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="H14" s="88" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="I14" s="24"/>
       <c r="J14" s="24"/>
@@ -22405,11 +22646,13 @@
       <c r="L14" s="89" t="s">
         <v>1</v>
       </c>
-      <c r="M14" s="24"/>
+      <c r="M14" s="137" t="s">
+        <v>295</v>
+      </c>
       <c r="N14" s="24"/>
       <c r="O14" s="26"/>
-      <c r="P14" s="24" t="s">
-        <v>57</v>
+      <c r="P14" s="135" t="s">
+        <v>299</v>
       </c>
       <c r="Q14" s="24"/>
       <c r="R14" s="24"/>
@@ -22417,11 +22660,13 @@
       <c r="T14" s="89" t="s">
         <v>32</v>
       </c>
-      <c r="U14" s="24"/>
+      <c r="U14" s="137" t="s">
+        <v>295</v>
+      </c>
       <c r="V14" s="24"/>
       <c r="W14" s="24"/>
       <c r="X14" s="90" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="Y14" s="24"/>
       <c r="Z14" s="24"/>
@@ -22433,7 +22678,7 @@
       <c r="AD14" s="24"/>
       <c r="AE14" s="27"/>
       <c r="AF14" s="91" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="AG14" s="5"/>
       <c r="AH14" s="5"/>
@@ -22558,7 +22803,7 @@
       <c r="E18" s="5"/>
       <c r="F18" s="5"/>
       <c r="G18" s="42" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="H18" s="18" t="s">
         <v>10</v>
@@ -22573,13 +22818,13 @@
       <c r="N18" s="19"/>
       <c r="O18" s="21"/>
       <c r="P18" s="19" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="Q18" s="19"/>
       <c r="R18" s="19"/>
       <c r="S18" s="19"/>
       <c r="T18" s="72" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="U18" s="19"/>
       <c r="V18" s="19"/>
@@ -22593,7 +22838,9 @@
       <c r="AB18" s="80" t="s">
         <v>32</v>
       </c>
-      <c r="AC18" s="19"/>
+      <c r="AC18" s="139" t="s">
+        <v>295</v>
+      </c>
       <c r="AD18" s="19"/>
       <c r="AE18" s="22"/>
       <c r="AF18" s="12" t="s">
@@ -22722,7 +22969,7 @@
       <c r="E22" s="5"/>
       <c r="F22" s="5"/>
       <c r="G22" s="42" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="H22" s="92" t="s">
         <v>38</v>
@@ -22733,17 +22980,21 @@
       <c r="L22" s="89" t="s">
         <v>24</v>
       </c>
-      <c r="M22" s="24"/>
+      <c r="M22" s="137" t="s">
+        <v>295</v>
+      </c>
       <c r="N22" s="24"/>
       <c r="O22" s="26"/>
       <c r="P22" s="93" t="s">
-        <v>74</v>
-      </c>
-      <c r="Q22" s="24"/>
+        <v>70</v>
+      </c>
+      <c r="Q22" s="137" t="s">
+        <v>295</v>
+      </c>
       <c r="R22" s="24"/>
       <c r="S22" s="24"/>
       <c r="T22" s="89" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="U22" s="24"/>
       <c r="V22" s="24"/>
@@ -22755,13 +23006,13 @@
       <c r="Z22" s="24"/>
       <c r="AA22" s="26"/>
       <c r="AB22" s="93" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="AC22" s="24"/>
       <c r="AD22" s="24"/>
       <c r="AE22" s="27"/>
-      <c r="AF22" s="12" t="s">
-        <v>48</v>
+      <c r="AF22" s="158" t="s">
+        <v>299</v>
       </c>
       <c r="AG22" s="5"/>
       <c r="AH22" s="5"/>
@@ -22886,10 +23137,10 @@
       <c r="E26" s="5"/>
       <c r="F26" s="5"/>
       <c r="G26" s="42" t="s">
-        <v>229</v>
-      </c>
-      <c r="H26" s="23" t="s">
-        <v>47</v>
+        <v>223</v>
+      </c>
+      <c r="H26" s="134" t="s">
+        <v>299</v>
       </c>
       <c r="I26" s="24"/>
       <c r="J26" s="24"/>
@@ -22907,7 +23158,7 @@
       <c r="R26" s="24"/>
       <c r="S26" s="24"/>
       <c r="T26" s="25" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="U26" s="24"/>
       <c r="V26" s="24"/>
@@ -22919,15 +23170,17 @@
       <c r="Z26" s="24"/>
       <c r="AA26" s="26"/>
       <c r="AB26" s="24" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="AC26" s="24"/>
       <c r="AD26" s="24"/>
       <c r="AE26" s="27"/>
       <c r="AF26" s="94" t="s">
-        <v>264</v>
-      </c>
-      <c r="AG26" s="5"/>
+        <v>258</v>
+      </c>
+      <c r="AG26" s="148" t="s">
+        <v>295</v>
+      </c>
       <c r="AH26" s="5"/>
       <c r="AI26" s="6"/>
     </row>
@@ -23050,7 +23303,7 @@
       <c r="E30" s="5"/>
       <c r="F30" s="5"/>
       <c r="G30" s="42" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="H30" s="18" t="s">
         <v>4</v>
@@ -23059,7 +23312,7 @@
       <c r="J30" s="19"/>
       <c r="K30" s="19"/>
       <c r="L30" s="72" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="M30" s="19"/>
       <c r="N30" s="19"/>
@@ -23067,17 +23320,19 @@
       <c r="P30" s="80" t="s">
         <v>32</v>
       </c>
-      <c r="Q30" s="19"/>
+      <c r="Q30" s="139" t="s">
+        <v>295</v>
+      </c>
       <c r="R30" s="19"/>
       <c r="S30" s="19"/>
       <c r="T30" s="20" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="U30" s="19"/>
       <c r="V30" s="19"/>
       <c r="W30" s="19"/>
       <c r="X30" s="72" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="Y30" s="19"/>
       <c r="Z30" s="19"/>
@@ -23214,8 +23469,8 @@
       <c r="E34" s="5"/>
       <c r="F34" s="5"/>
       <c r="G34" s="5"/>
-      <c r="H34" s="12" t="s">
-        <v>73</v>
+      <c r="H34" s="94" t="s">
+        <v>69</v>
       </c>
       <c r="I34" s="12"/>
       <c r="J34" s="12"/>
@@ -23223,35 +23478,39 @@
       <c r="L34" s="94" t="s">
         <v>32</v>
       </c>
-      <c r="M34" s="12"/>
+      <c r="M34" s="157" t="s">
+        <v>295</v>
+      </c>
       <c r="N34" s="12"/>
       <c r="O34" s="12"/>
       <c r="P34" s="91" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="Q34" s="12"/>
       <c r="R34" s="12"/>
       <c r="S34" s="12"/>
       <c r="T34" s="94" t="s">
-        <v>56</v>
-      </c>
-      <c r="U34" s="12"/>
+        <v>53</v>
+      </c>
+      <c r="U34" s="157" t="s">
+        <v>295</v>
+      </c>
       <c r="V34" s="12"/>
       <c r="W34" s="12"/>
-      <c r="X34" s="12" t="s">
-        <v>53</v>
+      <c r="X34" s="158" t="s">
+        <v>299</v>
       </c>
       <c r="Y34" s="12"/>
       <c r="Z34" s="12"/>
       <c r="AA34" s="12"/>
       <c r="AB34" s="94" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="AC34" s="12"/>
       <c r="AD34" s="12"/>
       <c r="AE34" s="12"/>
       <c r="AF34" s="40" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="AG34" s="5"/>
       <c r="AH34" s="5"/>
@@ -23370,6 +23629,7 @@
     </row>
     <row r="38" spans="3:35" ht="36" customHeight="1" thickTop="1"/>
   </sheetData>
+  <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
@@ -23384,15 +23644,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AI38"/>
   <sheetViews>
-    <sheetView zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="75" workbookViewId="0">
-      <selection activeCell="H28" sqref="H28"/>
+    <sheetView topLeftCell="A15" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="75" workbookViewId="0">
+      <selection activeCell="Q23" sqref="Q23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="6" defaultRowHeight="36" customHeight="1" x14ac:dyDescent="0"/>
   <sheetData>
     <row r="1" spans="1:35" ht="36" customHeight="1">
       <c r="A1" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="B1">
         <v>5</v>
@@ -23400,15 +23660,15 @@
     </row>
     <row r="2" spans="1:35" ht="36" customHeight="1">
       <c r="A2" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="B2" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
     </row>
     <row r="3" spans="1:35" ht="36" customHeight="1">
       <c r="A3" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="B3">
         <v>21</v>
@@ -23416,7 +23676,7 @@
     </row>
     <row r="4" spans="1:35" ht="36" customHeight="1">
       <c r="D4" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
     </row>
     <row r="5" spans="1:35" ht="36" customHeight="1" thickBot="1">
@@ -23519,7 +23779,7 @@
     </row>
     <row r="6" spans="1:35" ht="36" customHeight="1" thickTop="1">
       <c r="B6" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="C6">
         <v>1</v>
@@ -23640,43 +23900,43 @@
       <c r="F9" s="5"/>
       <c r="G9" s="5"/>
       <c r="H9" s="39" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="I9" s="54"/>
       <c r="J9" s="54"/>
       <c r="K9" s="54"/>
       <c r="L9" s="39" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="M9" s="54"/>
       <c r="N9" s="54"/>
       <c r="O9" s="54"/>
       <c r="P9" s="39" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="Q9" s="54"/>
       <c r="R9" s="54"/>
       <c r="S9" s="54"/>
       <c r="T9" s="39" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="U9" s="54"/>
       <c r="V9" s="54"/>
       <c r="W9" s="54"/>
       <c r="X9" s="39" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="Y9" s="54"/>
       <c r="Z9" s="54"/>
       <c r="AA9" s="54"/>
       <c r="AB9" s="39" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="AC9" s="54"/>
       <c r="AD9" s="54"/>
       <c r="AE9" s="54"/>
       <c r="AF9" s="39" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="AG9" s="5"/>
       <c r="AH9" s="5"/>
@@ -23691,24 +23951,28 @@
       <c r="F10" s="5"/>
       <c r="G10" s="19"/>
       <c r="H10" s="14" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="I10" s="13"/>
       <c r="J10" s="13"/>
       <c r="K10" s="13"/>
       <c r="L10" s="15"/>
       <c r="M10" s="79" t="s">
-        <v>96</v>
-      </c>
-      <c r="N10" s="13"/>
+        <v>91</v>
+      </c>
+      <c r="N10" s="147" t="s">
+        <v>295</v>
+      </c>
       <c r="O10" s="16"/>
       <c r="P10" s="13"/>
       <c r="Q10" s="13"/>
       <c r="R10" s="13"/>
       <c r="S10" s="79" t="s">
-        <v>121</v>
-      </c>
-      <c r="T10" s="15"/>
+        <v>116</v>
+      </c>
+      <c r="T10" s="138" t="s">
+        <v>295</v>
+      </c>
       <c r="U10" s="13"/>
       <c r="V10" s="13"/>
       <c r="W10" s="13"/>
@@ -23717,7 +23981,7 @@
       <c r="Z10" s="13"/>
       <c r="AA10" s="16"/>
       <c r="AB10" s="60" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="AC10" s="13"/>
       <c r="AD10" s="13"/>
@@ -23846,44 +24110,44 @@
       <c r="E14" s="5"/>
       <c r="F14" s="5"/>
       <c r="G14" s="42" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="H14" s="23"/>
       <c r="I14" s="24"/>
       <c r="J14" s="24"/>
       <c r="K14" s="24"/>
       <c r="L14" s="45" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="M14" s="24"/>
       <c r="N14" s="24"/>
       <c r="O14" s="26"/>
       <c r="P14" s="44" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="Q14" s="24"/>
       <c r="R14" s="24"/>
       <c r="S14" s="24"/>
       <c r="T14" s="45" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="U14" s="24"/>
       <c r="V14" s="24"/>
       <c r="W14" s="24"/>
       <c r="X14" s="45" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="Y14" s="24"/>
       <c r="Z14" s="24"/>
       <c r="AA14" s="26"/>
       <c r="AB14" s="44" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="AC14" s="24"/>
       <c r="AD14" s="24"/>
       <c r="AE14" s="27"/>
       <c r="AF14" s="43" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="AG14" s="5"/>
       <c r="AH14" s="5"/>
@@ -23899,16 +24163,18 @@
       <c r="G15" s="19"/>
       <c r="H15" s="18"/>
       <c r="I15" s="19" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="J15" s="19"/>
       <c r="K15" s="19"/>
       <c r="L15" s="20"/>
       <c r="M15" s="19"/>
       <c r="N15" s="80" t="s">
-        <v>258</v>
-      </c>
-      <c r="O15" s="21"/>
+        <v>252</v>
+      </c>
+      <c r="O15" s="156" t="s">
+        <v>295</v>
+      </c>
       <c r="P15" s="19"/>
       <c r="Q15" s="19"/>
       <c r="R15" s="19"/>
@@ -23955,9 +24221,11 @@
       <c r="V16" s="19"/>
       <c r="W16" s="19"/>
       <c r="X16" s="71" t="s">
-        <v>92</v>
-      </c>
-      <c r="Y16" s="19"/>
+        <v>87</v>
+      </c>
+      <c r="Y16" s="139" t="s">
+        <v>295</v>
+      </c>
       <c r="Z16" s="19"/>
       <c r="AA16" s="21"/>
       <c r="AB16" s="19"/>
@@ -24014,44 +24282,44 @@
       <c r="E18" s="5"/>
       <c r="F18" s="5"/>
       <c r="G18" s="42" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="H18" s="18"/>
       <c r="I18" s="19"/>
       <c r="J18" s="19"/>
       <c r="K18" s="19"/>
       <c r="L18" s="46" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="M18" s="19"/>
       <c r="N18" s="19"/>
       <c r="O18" s="21"/>
       <c r="P18" s="40" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="Q18" s="19"/>
       <c r="R18" s="19"/>
       <c r="S18" s="19"/>
       <c r="T18" s="46" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="U18" s="19"/>
       <c r="V18" s="19"/>
       <c r="W18" s="19"/>
       <c r="X18" s="46" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="Y18" s="19"/>
       <c r="Z18" s="19"/>
       <c r="AA18" s="21"/>
       <c r="AB18" s="40" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="AC18" s="19"/>
       <c r="AD18" s="19"/>
       <c r="AE18" s="22"/>
       <c r="AF18" s="43" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="AG18" s="5"/>
       <c r="AH18" s="5"/>
@@ -24103,7 +24371,7 @@
       <c r="F20" s="5"/>
       <c r="G20" s="19"/>
       <c r="H20" s="18" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="I20" s="19"/>
       <c r="J20" s="19"/>
@@ -24111,7 +24379,7 @@
       <c r="L20" s="20"/>
       <c r="M20" s="19"/>
       <c r="N20" s="19" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="O20" s="21"/>
       <c r="P20" s="19"/>
@@ -24119,7 +24387,7 @@
       <c r="R20" s="19"/>
       <c r="S20" s="19"/>
       <c r="T20" s="109" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="U20" s="19"/>
       <c r="V20" s="19"/>
@@ -24132,9 +24400,11 @@
       <c r="AC20" s="19"/>
       <c r="AD20" s="19"/>
       <c r="AE20" s="81" t="s">
-        <v>92</v>
-      </c>
-      <c r="AF20" s="41"/>
+        <v>87</v>
+      </c>
+      <c r="AF20" s="149" t="s">
+        <v>295</v>
+      </c>
       <c r="AG20" s="5"/>
       <c r="AH20" s="5"/>
       <c r="AI20" s="6"/>
@@ -24184,46 +24454,48 @@
       <c r="E22" s="5"/>
       <c r="F22" s="5"/>
       <c r="G22" s="42" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="H22" s="23"/>
       <c r="I22" s="24"/>
       <c r="J22" s="24"/>
       <c r="K22" s="24"/>
       <c r="L22" s="45" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="M22" s="24"/>
       <c r="N22" s="24"/>
       <c r="O22" s="26"/>
       <c r="P22" s="44" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="Q22" s="24"/>
       <c r="R22" s="24"/>
       <c r="S22" s="24"/>
       <c r="T22" s="45" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="U22" s="24"/>
       <c r="V22" s="24"/>
       <c r="W22" s="24"/>
       <c r="X22" s="45" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="Y22" s="93" t="s">
-        <v>96</v>
-      </c>
-      <c r="Z22" s="24"/>
+        <v>91</v>
+      </c>
+      <c r="Z22" s="137" t="s">
+        <v>295</v>
+      </c>
       <c r="AA22" s="26"/>
       <c r="AB22" s="44" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="AC22" s="24"/>
       <c r="AD22" s="24"/>
       <c r="AE22" s="27"/>
       <c r="AF22" s="43" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="AG22" s="5"/>
       <c r="AH22" s="5"/>
@@ -24247,9 +24519,11 @@
       <c r="O23" s="21"/>
       <c r="P23" s="19"/>
       <c r="Q23" s="80" t="s">
-        <v>258</v>
-      </c>
-      <c r="R23" s="19"/>
+        <v>252</v>
+      </c>
+      <c r="R23" s="139" t="s">
+        <v>295</v>
+      </c>
       <c r="S23" s="19"/>
       <c r="T23" s="20"/>
       <c r="U23" s="19"/>
@@ -24317,7 +24591,7 @@
       <c r="I25" s="29"/>
       <c r="J25" s="29"/>
       <c r="K25" s="29" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="L25" s="30"/>
       <c r="M25" s="29"/>
@@ -24352,44 +24626,44 @@
       <c r="E26" s="5"/>
       <c r="F26" s="5"/>
       <c r="G26" s="42" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="H26" s="23"/>
       <c r="I26" s="24"/>
       <c r="J26" s="24"/>
       <c r="K26" s="24"/>
       <c r="L26" s="45" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="M26" s="24"/>
       <c r="N26" s="24"/>
       <c r="O26" s="26"/>
       <c r="P26" s="44" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="Q26" s="24"/>
       <c r="R26" s="24"/>
       <c r="S26" s="24"/>
       <c r="T26" s="45" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="U26" s="24"/>
       <c r="V26" s="24"/>
       <c r="W26" s="24"/>
       <c r="X26" s="45" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="Y26" s="24"/>
       <c r="Z26" s="24"/>
       <c r="AA26" s="26"/>
       <c r="AB26" s="44" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="AC26" s="24"/>
       <c r="AD26" s="24"/>
       <c r="AE26" s="27"/>
       <c r="AF26" s="43" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="AG26" s="5"/>
       <c r="AH26" s="5"/>
@@ -24421,7 +24695,7 @@
       <c r="W27" s="19"/>
       <c r="X27" s="20"/>
       <c r="Y27" s="19" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="Z27" s="19"/>
       <c r="AA27" s="21"/>
@@ -24429,7 +24703,7 @@
       <c r="AC27" s="19"/>
       <c r="AD27" s="19"/>
       <c r="AE27" s="22" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="AF27" s="41"/>
       <c r="AG27" s="5"/>
@@ -24445,7 +24719,7 @@
       <c r="F28" s="5"/>
       <c r="G28" s="19"/>
       <c r="H28" s="101" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="I28" s="19"/>
       <c r="J28" s="19"/>
@@ -24459,7 +24733,7 @@
       <c r="R28" s="19"/>
       <c r="S28" s="19"/>
       <c r="T28" s="20" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="U28" s="19"/>
       <c r="V28" s="19"/>
@@ -24522,44 +24796,44 @@
       <c r="E30" s="5"/>
       <c r="F30" s="5"/>
       <c r="G30" s="42" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="H30" s="18"/>
       <c r="I30" s="19"/>
       <c r="J30" s="19"/>
       <c r="K30" s="19"/>
       <c r="L30" s="46" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="M30" s="19"/>
       <c r="N30" s="19"/>
       <c r="O30" s="21"/>
       <c r="P30" s="40" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="Q30" s="19"/>
       <c r="R30" s="19"/>
       <c r="S30" s="19"/>
       <c r="T30" s="46" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="U30" s="19"/>
       <c r="V30" s="19"/>
       <c r="W30" s="19"/>
       <c r="X30" s="46" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="Y30" s="19"/>
       <c r="Z30" s="19"/>
       <c r="AA30" s="21"/>
       <c r="AB30" s="40" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="AC30" s="19"/>
       <c r="AD30" s="19"/>
       <c r="AE30" s="22"/>
       <c r="AF30" s="43" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="AG30" s="5"/>
       <c r="AH30" s="5"/>
@@ -24648,7 +24922,7 @@
       <c r="F33" s="5"/>
       <c r="G33" s="19"/>
       <c r="H33" s="33" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="I33" s="34"/>
       <c r="J33" s="34"/>
@@ -24661,9 +24935,11 @@
       <c r="Q33" s="34"/>
       <c r="R33" s="34"/>
       <c r="S33" s="76" t="s">
-        <v>193</v>
-      </c>
-      <c r="T33" s="35"/>
+        <v>187</v>
+      </c>
+      <c r="T33" s="151" t="s">
+        <v>295</v>
+      </c>
       <c r="U33" s="34"/>
       <c r="V33" s="34"/>
       <c r="W33" s="34"/>
@@ -24674,7 +24950,7 @@
       <c r="AB33" s="34"/>
       <c r="AC33" s="34"/>
       <c r="AD33" s="76" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="AE33" s="37"/>
       <c r="AF33" s="41"/>
@@ -24691,43 +24967,43 @@
       <c r="F34" s="5"/>
       <c r="G34" s="5"/>
       <c r="H34" s="40" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="I34" s="19"/>
       <c r="J34" s="19"/>
       <c r="K34" s="19"/>
       <c r="L34" s="40" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="M34" s="19"/>
       <c r="N34" s="19"/>
       <c r="O34" s="19"/>
       <c r="P34" s="43" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="Q34" s="19"/>
       <c r="R34" s="19"/>
       <c r="S34" s="19"/>
       <c r="T34" s="40" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="U34" s="19"/>
       <c r="V34" s="19"/>
       <c r="W34" s="19"/>
       <c r="X34" s="40" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="Y34" s="19"/>
       <c r="Z34" s="19"/>
       <c r="AA34" s="19"/>
       <c r="AB34" s="40" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="AC34" s="19"/>
       <c r="AD34" s="19"/>
       <c r="AE34" s="19"/>
       <c r="AF34" s="43" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="AG34" s="5"/>
       <c r="AH34" s="5"/>
@@ -24846,6 +25122,7 @@
     </row>
     <row r="38" spans="3:35" ht="36" customHeight="1" thickTop="1"/>
   </sheetData>
+  <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
@@ -24860,8 +25137,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AI38"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="AJ16" sqref="AJ16"/>
+    <sheetView topLeftCell="C19" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="75" workbookViewId="0">
+      <selection activeCell="AA20" sqref="AA20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -24871,7 +25148,7 @@
   <sheetData>
     <row r="1" spans="1:35" ht="36" customHeight="1">
       <c r="A1" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="B1">
         <v>6</v>
@@ -24879,15 +25156,15 @@
     </row>
     <row r="2" spans="1:35" ht="36" customHeight="1">
       <c r="A2" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="B2" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
     </row>
     <row r="3" spans="1:35" ht="36" customHeight="1">
       <c r="A3" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="B3">
         <v>23</v>
@@ -24895,7 +25172,7 @@
     </row>
     <row r="4" spans="1:35" ht="36" customHeight="1">
       <c r="D4" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
     </row>
     <row r="5" spans="1:35" ht="36" customHeight="1" thickBot="1">
@@ -24998,7 +25275,7 @@
     </row>
     <row r="6" spans="1:35" ht="36" customHeight="1" thickTop="1">
       <c r="B6" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="C6">
         <v>1</v>
@@ -25119,43 +25396,43 @@
       <c r="F9" s="5"/>
       <c r="G9" s="5"/>
       <c r="H9" s="39" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="I9" s="54"/>
       <c r="J9" s="54"/>
       <c r="K9" s="54"/>
       <c r="L9" s="39" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="M9" s="54"/>
       <c r="N9" s="54"/>
       <c r="O9" s="54"/>
       <c r="P9" s="39" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="Q9" s="54"/>
       <c r="R9" s="54"/>
       <c r="S9" s="54"/>
       <c r="T9" s="39" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="U9" s="54"/>
       <c r="V9" s="54"/>
       <c r="W9" s="54"/>
       <c r="X9" s="39" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="Y9" s="54"/>
       <c r="Z9" s="54"/>
       <c r="AA9" s="54"/>
       <c r="AB9" s="39" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="AC9" s="54"/>
       <c r="AD9" s="54"/>
       <c r="AE9" s="54"/>
       <c r="AF9" s="39" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="AG9" s="5"/>
       <c r="AH9" s="5"/>
@@ -25170,15 +25447,17 @@
       <c r="F10" s="5"/>
       <c r="G10" s="19"/>
       <c r="H10" s="85" t="s">
-        <v>275</v>
-      </c>
-      <c r="I10" s="13"/>
+        <v>269</v>
+      </c>
+      <c r="I10" s="147" t="s">
+        <v>295</v>
+      </c>
       <c r="J10" s="13"/>
       <c r="K10" s="13"/>
       <c r="L10" s="15"/>
       <c r="M10" s="13"/>
       <c r="N10" s="79" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="O10" s="16"/>
       <c r="P10" s="13"/>
@@ -25186,7 +25465,7 @@
       <c r="R10" s="13"/>
       <c r="S10" s="13"/>
       <c r="T10" s="15" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="U10" s="13"/>
       <c r="V10" s="13"/>
@@ -25194,14 +25473,14 @@
       <c r="X10" s="15"/>
       <c r="Y10" s="13"/>
       <c r="Z10" s="110" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="AA10" s="16"/>
       <c r="AB10" s="13"/>
       <c r="AC10" s="13"/>
       <c r="AD10" s="13"/>
       <c r="AE10" s="17" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="AF10" s="19"/>
       <c r="AG10" s="5"/>
@@ -25327,44 +25606,44 @@
       <c r="E14" s="5"/>
       <c r="F14" s="5"/>
       <c r="G14" s="42" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="H14" s="23"/>
       <c r="I14" s="24"/>
       <c r="J14" s="24"/>
       <c r="K14" s="24"/>
       <c r="L14" s="45" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="M14" s="24"/>
       <c r="N14" s="24"/>
       <c r="O14" s="26"/>
       <c r="P14" s="44" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="Q14" s="24"/>
       <c r="R14" s="24"/>
       <c r="S14" s="24"/>
       <c r="T14" s="45" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="U14" s="24"/>
       <c r="V14" s="24"/>
       <c r="W14" s="24"/>
       <c r="X14" s="45" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="Y14" s="24"/>
       <c r="Z14" s="24"/>
       <c r="AA14" s="26"/>
       <c r="AB14" s="95" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="AC14" s="24"/>
       <c r="AD14" s="24"/>
       <c r="AE14" s="27"/>
       <c r="AF14" s="43" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="AG14" s="5"/>
       <c r="AH14" s="5"/>
@@ -25416,7 +25695,7 @@
       <c r="F16" s="5"/>
       <c r="G16" s="19"/>
       <c r="H16" s="18" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="I16" s="19"/>
       <c r="J16" s="19"/>
@@ -25424,7 +25703,7 @@
       <c r="L16" s="20"/>
       <c r="M16" s="19"/>
       <c r="N16" s="63" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="O16" s="21"/>
       <c r="P16" s="19"/>
@@ -25493,44 +25772,44 @@
       <c r="E18" s="5"/>
       <c r="F18" s="5"/>
       <c r="G18" s="42" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="H18" s="18"/>
       <c r="I18" s="19"/>
       <c r="J18" s="19"/>
       <c r="K18" s="19"/>
       <c r="L18" s="46" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="M18" s="19"/>
       <c r="N18" s="19"/>
       <c r="O18" s="21"/>
       <c r="P18" s="40" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="Q18" s="19"/>
       <c r="R18" s="19"/>
       <c r="S18" s="19"/>
       <c r="T18" s="46" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="U18" s="19"/>
       <c r="V18" s="19"/>
       <c r="W18" s="19"/>
       <c r="X18" s="46" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="Y18" s="19"/>
       <c r="Z18" s="19"/>
       <c r="AA18" s="21"/>
       <c r="AB18" s="40" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="AC18" s="19"/>
       <c r="AD18" s="19"/>
       <c r="AE18" s="22"/>
       <c r="AF18" s="43" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="AG18" s="5"/>
       <c r="AH18" s="5"/>
@@ -25562,10 +25841,12 @@
       <c r="W19" s="19"/>
       <c r="X19" s="20"/>
       <c r="Y19" s="19"/>
-      <c r="Z19" s="80" t="s">
-        <v>276</v>
-      </c>
-      <c r="AA19" s="21"/>
+      <c r="Z19" s="129" t="s">
+        <v>296</v>
+      </c>
+      <c r="AA19" s="21" t="s">
+        <v>300</v>
+      </c>
       <c r="AB19" s="19"/>
       <c r="AC19" s="19"/>
       <c r="AD19" s="19"/>
@@ -25621,23 +25902,25 @@
       <c r="F21" s="5"/>
       <c r="G21" s="19"/>
       <c r="H21" s="82" t="s">
-        <v>102</v>
-      </c>
-      <c r="I21" s="19"/>
+        <v>97</v>
+      </c>
+      <c r="I21" s="139" t="s">
+        <v>295</v>
+      </c>
       <c r="J21" s="19"/>
       <c r="K21" s="19"/>
       <c r="L21" s="20"/>
       <c r="M21" s="19"/>
       <c r="N21" s="19" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="O21" s="21"/>
       <c r="P21" s="19"/>
       <c r="Q21" s="19"/>
       <c r="R21" s="19"/>
       <c r="S21" s="19"/>
-      <c r="T21" s="72" t="s">
-        <v>190</v>
+      <c r="T21" s="71" t="s">
+        <v>184</v>
       </c>
       <c r="U21" s="19"/>
       <c r="V21" s="19"/>
@@ -25663,44 +25946,44 @@
       <c r="E22" s="5"/>
       <c r="F22" s="5"/>
       <c r="G22" s="42" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="H22" s="23"/>
       <c r="I22" s="24"/>
       <c r="J22" s="24"/>
       <c r="K22" s="24"/>
       <c r="L22" s="45" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="M22" s="24"/>
       <c r="N22" s="24"/>
       <c r="O22" s="26"/>
       <c r="P22" s="44" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="Q22" s="24"/>
       <c r="R22" s="24"/>
       <c r="S22" s="24"/>
       <c r="T22" s="45" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="U22" s="24"/>
       <c r="V22" s="24"/>
       <c r="W22" s="24"/>
       <c r="X22" s="45" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="Y22" s="24"/>
       <c r="Z22" s="24"/>
       <c r="AA22" s="26"/>
       <c r="AB22" s="44" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="AC22" s="24"/>
       <c r="AD22" s="24"/>
       <c r="AE22" s="27"/>
       <c r="AF22" s="43" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="AG22" s="5"/>
       <c r="AH22" s="5"/>
@@ -25738,7 +26021,7 @@
       <c r="AC23" s="19"/>
       <c r="AD23" s="19"/>
       <c r="AE23" s="124" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="AF23" s="41"/>
       <c r="AG23" s="5"/>
@@ -25758,7 +26041,7 @@
       <c r="J24" s="19"/>
       <c r="K24" s="19"/>
       <c r="L24" s="20" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="M24" s="19"/>
       <c r="N24" s="19"/>
@@ -25766,7 +26049,7 @@
       <c r="P24" s="19"/>
       <c r="Q24" s="19"/>
       <c r="R24" s="19" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="S24" s="19"/>
       <c r="T24" s="20"/>
@@ -25809,7 +26092,7 @@
       <c r="T25" s="30"/>
       <c r="U25" s="29"/>
       <c r="V25" s="29" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="W25" s="29"/>
       <c r="X25" s="30"/>
@@ -25833,44 +26116,44 @@
       <c r="E26" s="5"/>
       <c r="F26" s="5"/>
       <c r="G26" s="42" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="H26" s="23"/>
       <c r="I26" s="24"/>
       <c r="J26" s="24"/>
       <c r="K26" s="24"/>
       <c r="L26" s="45" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="M26" s="24"/>
       <c r="N26" s="24"/>
       <c r="O26" s="26"/>
       <c r="P26" s="44" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="Q26" s="24"/>
       <c r="R26" s="24"/>
       <c r="S26" s="24"/>
       <c r="T26" s="45" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="U26" s="24"/>
       <c r="V26" s="24"/>
       <c r="W26" s="24"/>
       <c r="X26" s="45" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="Y26" s="24"/>
       <c r="Z26" s="24"/>
       <c r="AA26" s="26"/>
       <c r="AB26" s="44" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="AC26" s="24"/>
       <c r="AD26" s="24"/>
       <c r="AE26" s="27"/>
       <c r="AF26" s="43" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="AG26" s="5"/>
       <c r="AH26" s="5"/>
@@ -25899,8 +26182,8 @@
       <c r="T27" s="20"/>
       <c r="U27" s="19"/>
       <c r="V27" s="19"/>
-      <c r="W27" s="19" t="s">
-        <v>75</v>
+      <c r="W27" s="103" t="s">
+        <v>71</v>
       </c>
       <c r="X27" s="20"/>
       <c r="Y27" s="19"/>
@@ -25934,9 +26217,9 @@
       <c r="P28" s="19"/>
       <c r="Q28" s="19"/>
       <c r="R28" s="80" t="s">
-        <v>91</v>
-      </c>
-      <c r="S28" s="19"/>
+        <v>86</v>
+      </c>
+      <c r="S28" s="159"/>
       <c r="T28" s="20"/>
       <c r="U28" s="19"/>
       <c r="V28" s="19"/>
@@ -25945,9 +26228,11 @@
       <c r="Y28" s="19"/>
       <c r="Z28" s="19"/>
       <c r="AA28" s="111" t="s">
-        <v>258</v>
-      </c>
-      <c r="AB28" s="19"/>
+        <v>252</v>
+      </c>
+      <c r="AB28" s="139" t="s">
+        <v>295</v>
+      </c>
       <c r="AC28" s="19"/>
       <c r="AD28" s="19"/>
       <c r="AE28" s="22"/>
@@ -25965,7 +26250,7 @@
       <c r="F29" s="5"/>
       <c r="G29" s="19"/>
       <c r="H29" s="28" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="I29" s="29"/>
       <c r="J29" s="29"/>
@@ -26003,44 +26288,44 @@
       <c r="E30" s="5"/>
       <c r="F30" s="5"/>
       <c r="G30" s="42" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="H30" s="18"/>
       <c r="I30" s="19"/>
       <c r="J30" s="19"/>
       <c r="K30" s="19"/>
       <c r="L30" s="46" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="M30" s="19"/>
       <c r="N30" s="19"/>
       <c r="O30" s="21"/>
       <c r="P30" s="40" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="Q30" s="19"/>
       <c r="R30" s="19"/>
       <c r="S30" s="19"/>
       <c r="T30" s="46" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="U30" s="19"/>
       <c r="V30" s="19"/>
       <c r="W30" s="19"/>
       <c r="X30" s="46" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="Y30" s="19"/>
       <c r="Z30" s="19"/>
       <c r="AA30" s="21"/>
       <c r="AB30" s="40" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="AC30" s="19"/>
       <c r="AD30" s="19"/>
       <c r="AE30" s="22"/>
       <c r="AF30" s="43" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="AG30" s="5"/>
       <c r="AH30" s="5"/>
@@ -26068,8 +26353,8 @@
       <c r="S31" s="19"/>
       <c r="T31" s="20"/>
       <c r="U31" s="19"/>
-      <c r="V31" s="80" t="s">
-        <v>175</v>
+      <c r="V31" s="129" t="s">
+        <v>297</v>
       </c>
       <c r="W31" s="19"/>
       <c r="X31" s="20"/>
@@ -26103,7 +26388,7 @@
       <c r="O32" s="21"/>
       <c r="P32" s="19"/>
       <c r="Q32" s="19" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="R32" s="19"/>
       <c r="S32" s="19"/>
@@ -26137,7 +26422,7 @@
       <c r="J33" s="34"/>
       <c r="K33" s="34"/>
       <c r="L33" s="35" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="M33" s="34"/>
       <c r="N33" s="34"/>
@@ -26158,9 +26443,11 @@
       <c r="AC33" s="34"/>
       <c r="AD33" s="34"/>
       <c r="AE33" s="112" t="s">
-        <v>194</v>
-      </c>
-      <c r="AF33" s="41"/>
+        <v>188</v>
+      </c>
+      <c r="AF33" s="149" t="s">
+        <v>295</v>
+      </c>
       <c r="AG33" s="5"/>
       <c r="AH33" s="5"/>
       <c r="AI33" s="6"/>
@@ -26174,43 +26461,43 @@
       <c r="F34" s="5"/>
       <c r="G34" s="5"/>
       <c r="H34" s="40" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="I34" s="19"/>
       <c r="J34" s="19"/>
       <c r="K34" s="19"/>
       <c r="L34" s="40" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="M34" s="19"/>
       <c r="N34" s="19"/>
       <c r="O34" s="19"/>
       <c r="P34" s="43" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="Q34" s="19"/>
       <c r="R34" s="19"/>
       <c r="S34" s="19"/>
       <c r="T34" s="40" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="U34" s="19"/>
       <c r="V34" s="19"/>
       <c r="W34" s="19"/>
       <c r="X34" s="40" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="Y34" s="19"/>
       <c r="Z34" s="19"/>
       <c r="AA34" s="19"/>
       <c r="AB34" s="40" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="AC34" s="19"/>
       <c r="AD34" s="19"/>
       <c r="AE34" s="19"/>
       <c r="AF34" s="43" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="AG34" s="5"/>
       <c r="AH34" s="5"/>
@@ -26329,6 +26616,7 @@
     </row>
     <row r="38" spans="3:35" ht="16" thickTop="1"/>
   </sheetData>
+  <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
@@ -26343,15 +26631,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AI38"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="V33" sqref="V33"/>
+    <sheetView topLeftCell="O9" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="AI13" sqref="AI13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="6" defaultRowHeight="36" customHeight="1" x14ac:dyDescent="0"/>
   <sheetData>
     <row r="1" spans="1:35" ht="36" customHeight="1">
       <c r="A1" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="B1">
         <v>7</v>
@@ -26359,15 +26647,15 @@
     </row>
     <row r="2" spans="1:35" ht="36" customHeight="1">
       <c r="A2" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="B2" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
     </row>
     <row r="3" spans="1:35" ht="36" customHeight="1">
       <c r="A3" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="B3">
         <v>37</v>
@@ -26375,7 +26663,7 @@
     </row>
     <row r="4" spans="1:35" ht="36" customHeight="1">
       <c r="D4" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
     </row>
     <row r="5" spans="1:35" ht="36" customHeight="1" thickBot="1">
@@ -26478,7 +26766,7 @@
     </row>
     <row r="6" spans="1:35" ht="36" customHeight="1" thickTop="1">
       <c r="B6" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="C6">
         <v>1</v>
@@ -26599,43 +26887,43 @@
       <c r="F9" s="5"/>
       <c r="G9" s="5"/>
       <c r="H9" s="39" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="I9" s="54"/>
       <c r="J9" s="54"/>
       <c r="K9" s="54"/>
       <c r="L9" s="39" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="M9" s="54"/>
       <c r="N9" s="54"/>
       <c r="O9" s="54"/>
       <c r="P9" s="39" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="Q9" s="54"/>
       <c r="R9" s="54"/>
       <c r="S9" s="54"/>
       <c r="T9" s="39" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="U9" s="54"/>
       <c r="V9" s="54"/>
       <c r="W9" s="54"/>
       <c r="X9" s="39" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="Y9" s="54"/>
       <c r="Z9" s="54"/>
       <c r="AA9" s="54"/>
       <c r="AB9" s="39" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="AC9" s="54"/>
       <c r="AD9" s="54"/>
       <c r="AE9" s="54"/>
       <c r="AF9" s="39" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="AG9" s="5"/>
       <c r="AH9" s="5"/>
@@ -26650,7 +26938,7 @@
       <c r="F10" s="5"/>
       <c r="G10" s="19"/>
       <c r="H10" s="14" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="I10" s="13"/>
       <c r="J10" s="13"/>
@@ -26661,7 +26949,7 @@
       <c r="O10" s="16"/>
       <c r="P10" s="13"/>
       <c r="Q10" s="13" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="R10" s="13"/>
       <c r="S10" s="13"/>
@@ -26672,14 +26960,16 @@
       <c r="X10" s="15"/>
       <c r="Y10" s="13"/>
       <c r="Z10" s="79" t="s">
-        <v>140</v>
-      </c>
-      <c r="AA10" s="16"/>
+        <v>135</v>
+      </c>
+      <c r="AA10" s="152" t="s">
+        <v>295</v>
+      </c>
       <c r="AB10" s="13"/>
       <c r="AC10" s="13"/>
       <c r="AD10" s="13"/>
       <c r="AE10" s="17" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="AF10" s="19"/>
       <c r="AG10" s="5"/>
@@ -26699,9 +26989,11 @@
       <c r="J11" s="19"/>
       <c r="K11" s="19"/>
       <c r="L11" s="71" t="s">
-        <v>164</v>
-      </c>
-      <c r="M11" s="19"/>
+        <v>159</v>
+      </c>
+      <c r="M11" s="139" t="s">
+        <v>295</v>
+      </c>
       <c r="N11" s="19"/>
       <c r="O11" s="21"/>
       <c r="P11" s="19"/>
@@ -26711,7 +27003,7 @@
       <c r="T11" s="20"/>
       <c r="U11" s="19"/>
       <c r="V11" s="19" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="W11" s="19"/>
       <c r="X11" s="20"/>
@@ -26792,7 +27084,7 @@
       <c r="Z13" s="19"/>
       <c r="AA13" s="21"/>
       <c r="AB13" s="19" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="AC13" s="19"/>
       <c r="AD13" s="19"/>
@@ -26809,46 +27101,48 @@
       <c r="E14" s="5"/>
       <c r="F14" s="5"/>
       <c r="G14" s="42" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="H14" s="23" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="I14" s="24"/>
       <c r="J14" s="24"/>
       <c r="K14" s="24"/>
       <c r="L14" s="45" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="M14" s="24"/>
       <c r="N14" s="24"/>
       <c r="O14" s="26"/>
       <c r="P14" s="113" t="s">
-        <v>149</v>
-      </c>
-      <c r="Q14" s="24"/>
+        <v>144</v>
+      </c>
+      <c r="Q14" s="137" t="s">
+        <v>295</v>
+      </c>
       <c r="R14" s="24"/>
       <c r="S14" s="24"/>
       <c r="T14" s="45" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="U14" s="24"/>
       <c r="V14" s="24"/>
       <c r="W14" s="24"/>
       <c r="X14" s="58" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="Y14" s="24"/>
       <c r="Z14" s="24"/>
       <c r="AA14" s="26"/>
       <c r="AB14" s="44" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="AC14" s="24"/>
       <c r="AD14" s="24"/>
       <c r="AE14" s="27"/>
       <c r="AF14" s="43" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="AG14" s="5"/>
       <c r="AH14" s="5"/>
@@ -26867,7 +27161,7 @@
       <c r="J15" s="19"/>
       <c r="K15" s="19"/>
       <c r="L15" s="20" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="M15" s="19"/>
       <c r="N15" s="19"/>
@@ -26877,7 +27171,7 @@
       <c r="R15" s="19"/>
       <c r="S15" s="19"/>
       <c r="T15" s="102" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="U15" s="19"/>
       <c r="V15" s="19"/>
@@ -26926,9 +27220,11 @@
       <c r="AC16" s="19"/>
       <c r="AD16" s="19"/>
       <c r="AE16" s="81" t="s">
-        <v>277</v>
-      </c>
-      <c r="AF16" s="41"/>
+        <v>270</v>
+      </c>
+      <c r="AF16" s="149" t="s">
+        <v>295</v>
+      </c>
       <c r="AG16" s="5"/>
       <c r="AH16" s="5"/>
       <c r="AI16" s="6"/>
@@ -26978,50 +27274,50 @@
       <c r="E18" s="5"/>
       <c r="F18" s="5"/>
       <c r="G18" s="42" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="H18" s="18" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="I18" s="19"/>
       <c r="J18" s="19"/>
       <c r="K18" s="19"/>
       <c r="L18" s="46" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="M18" s="19"/>
       <c r="N18" s="19"/>
       <c r="O18" s="21"/>
       <c r="P18" s="40" t="s">
-        <v>235</v>
-      </c>
-      <c r="Q18" s="80" t="s">
-        <v>142</v>
+        <v>229</v>
+      </c>
+      <c r="Q18" s="129" t="s">
+        <v>298</v>
       </c>
       <c r="R18" s="19"/>
       <c r="S18" s="19"/>
       <c r="T18" s="46" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="U18" s="19"/>
       <c r="V18" s="19"/>
       <c r="W18" s="19"/>
       <c r="X18" s="46" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="Y18" s="19"/>
       <c r="Z18" s="19"/>
       <c r="AA18" s="80" t="s">
-        <v>140</v>
-      </c>
-      <c r="AB18" s="40" t="s">
-        <v>238</v>
+        <v>135</v>
+      </c>
+      <c r="AB18" s="155" t="s">
+        <v>295</v>
       </c>
       <c r="AC18" s="19"/>
       <c r="AD18" s="19"/>
       <c r="AE18" s="22"/>
       <c r="AF18" s="43" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="AG18" s="5"/>
       <c r="AH18" s="5"/>
@@ -27041,7 +27337,7 @@
       <c r="K19" s="19"/>
       <c r="L19" s="20"/>
       <c r="M19" s="19" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="N19" s="19"/>
       <c r="O19" s="21"/>
@@ -27052,7 +27348,7 @@
       <c r="T19" s="20"/>
       <c r="U19" s="19"/>
       <c r="V19" s="19" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="W19" s="19"/>
       <c r="X19" s="20"/>
@@ -27136,7 +27432,7 @@
       <c r="AC21" s="19"/>
       <c r="AD21" s="19"/>
       <c r="AE21" s="81" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="AF21" s="41"/>
       <c r="AG21" s="5"/>
@@ -27151,46 +27447,46 @@
       <c r="E22" s="5"/>
       <c r="F22" s="5"/>
       <c r="G22" s="42" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="H22" s="23"/>
       <c r="I22" s="24"/>
       <c r="J22" s="24"/>
       <c r="K22" s="24"/>
       <c r="L22" s="45" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="M22" s="24"/>
       <c r="N22" s="24"/>
       <c r="O22" s="26"/>
       <c r="P22" s="44" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="Q22" s="24"/>
       <c r="R22" s="24"/>
       <c r="S22" s="24"/>
       <c r="T22" s="45" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="U22" s="24"/>
       <c r="V22" s="24"/>
       <c r="W22" s="24"/>
       <c r="X22" s="45" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="Y22" s="24"/>
       <c r="Z22" s="24" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="AA22" s="26"/>
       <c r="AB22" s="44" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="AC22" s="24"/>
       <c r="AD22" s="24"/>
       <c r="AE22" s="27"/>
       <c r="AF22" s="43" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="AG22" s="5"/>
       <c r="AH22" s="5"/>
@@ -27205,7 +27501,7 @@
       <c r="F23" s="5"/>
       <c r="G23" s="19"/>
       <c r="H23" s="118" t="s">
-        <v>278</v>
+        <v>271</v>
       </c>
       <c r="I23" s="19"/>
       <c r="J23" s="19"/>
@@ -27216,9 +27512,11 @@
       <c r="O23" s="21"/>
       <c r="P23" s="19"/>
       <c r="Q23" s="80" t="s">
-        <v>277</v>
-      </c>
-      <c r="R23" s="19"/>
+        <v>270</v>
+      </c>
+      <c r="R23" s="139" t="s">
+        <v>295</v>
+      </c>
       <c r="S23" s="19"/>
       <c r="T23" s="20"/>
       <c r="U23" s="19"/>
@@ -27251,7 +27549,7 @@
       <c r="K24" s="19"/>
       <c r="L24" s="20"/>
       <c r="M24" s="19" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="N24" s="19"/>
       <c r="O24" s="21"/>
@@ -27262,9 +27560,11 @@
       <c r="T24" s="20"/>
       <c r="U24" s="19"/>
       <c r="V24" s="80" t="s">
-        <v>140</v>
-      </c>
-      <c r="W24" s="19"/>
+        <v>135</v>
+      </c>
+      <c r="W24" s="139" t="s">
+        <v>295</v>
+      </c>
       <c r="X24" s="20"/>
       <c r="Y24" s="19"/>
       <c r="AA24" s="21"/>
@@ -27307,9 +27607,11 @@
       <c r="AA25" s="31"/>
       <c r="AB25" s="29"/>
       <c r="AC25" s="87" t="s">
-        <v>277</v>
-      </c>
-      <c r="AD25" s="29"/>
+        <v>270</v>
+      </c>
+      <c r="AD25" s="150" t="s">
+        <v>295</v>
+      </c>
       <c r="AE25" s="32"/>
       <c r="AF25" s="41"/>
       <c r="AG25" s="5"/>
@@ -27324,44 +27626,44 @@
       <c r="E26" s="5"/>
       <c r="F26" s="5"/>
       <c r="G26" s="42" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="H26" s="23"/>
       <c r="I26" s="24"/>
       <c r="J26" s="24"/>
       <c r="K26" s="24"/>
       <c r="L26" s="45" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="M26" s="24"/>
       <c r="N26" s="24"/>
       <c r="O26" s="26"/>
       <c r="P26" s="44" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="Q26" s="24"/>
       <c r="R26" s="24"/>
       <c r="S26" s="24"/>
       <c r="T26" s="45" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="U26" s="24"/>
       <c r="V26" s="24"/>
       <c r="W26" s="24"/>
       <c r="X26" s="45" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="Y26" s="24"/>
       <c r="Z26" s="24"/>
       <c r="AA26" s="26"/>
       <c r="AB26" s="44" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="AC26" s="24"/>
       <c r="AD26" s="24"/>
       <c r="AE26" s="27"/>
       <c r="AF26" s="43" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="AG26" s="5"/>
       <c r="AH26" s="5"/>
@@ -27386,13 +27688,13 @@
       <c r="P27" s="19"/>
       <c r="Q27" s="19"/>
       <c r="R27" s="80" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="S27" s="19"/>
       <c r="T27" s="20"/>
       <c r="U27" s="19"/>
       <c r="W27" s="80" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="X27" s="20"/>
       <c r="Y27" s="19"/>
@@ -27416,7 +27718,7 @@
       <c r="F28" s="5"/>
       <c r="G28" s="19"/>
       <c r="H28" s="18" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="J28" s="19"/>
       <c r="K28" s="19"/>
@@ -27437,7 +27739,7 @@
       <c r="AB28" s="19"/>
       <c r="AC28" s="19"/>
       <c r="AE28" s="22" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="AF28" s="41"/>
       <c r="AG28" s="5"/>
@@ -27459,7 +27761,7 @@
       <c r="L29" s="30"/>
       <c r="M29" s="29"/>
       <c r="N29" s="73" t="s">
-        <v>279</v>
+        <v>272</v>
       </c>
       <c r="O29" s="31"/>
       <c r="P29" s="29"/>
@@ -27474,7 +27776,7 @@
       <c r="Y29" s="29"/>
       <c r="Z29" s="29"/>
       <c r="AA29" s="64" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="AB29" s="29"/>
       <c r="AC29" s="29"/>
@@ -27493,44 +27795,44 @@
       <c r="E30" s="5"/>
       <c r="F30" s="5"/>
       <c r="G30" s="42" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="H30" s="18"/>
       <c r="I30" s="19"/>
       <c r="J30" s="19"/>
       <c r="K30" s="19"/>
       <c r="L30" s="46" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="M30" s="19"/>
       <c r="N30" s="19"/>
       <c r="O30" s="21"/>
       <c r="P30" s="40" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="Q30" s="19"/>
       <c r="R30" s="19"/>
       <c r="S30" s="19"/>
       <c r="T30" s="46" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="U30" s="19"/>
       <c r="V30" s="19"/>
       <c r="W30" s="19"/>
       <c r="X30" s="46" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="Y30" s="19"/>
       <c r="Z30" s="19"/>
       <c r="AA30" s="21"/>
       <c r="AB30" s="40" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="AC30" s="19"/>
       <c r="AD30" s="19"/>
       <c r="AE30" s="22"/>
       <c r="AF30" s="43" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="AG30" s="5"/>
       <c r="AH30" s="5"/>
@@ -27554,7 +27856,7 @@
       <c r="O31" s="21"/>
       <c r="P31" s="19"/>
       <c r="Q31" s="19" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="R31" s="19"/>
       <c r="S31" s="19"/>
@@ -27604,9 +27906,11 @@
       <c r="AC32" s="19"/>
       <c r="AD32" s="19"/>
       <c r="AE32" s="81" t="s">
-        <v>140</v>
-      </c>
-      <c r="AF32" s="41"/>
+        <v>135</v>
+      </c>
+      <c r="AF32" s="149" t="s">
+        <v>295</v>
+      </c>
       <c r="AG32" s="5"/>
       <c r="AH32" s="5"/>
       <c r="AI32" s="6"/>
@@ -27620,14 +27924,14 @@
       <c r="F33" s="5"/>
       <c r="G33" s="19"/>
       <c r="H33" s="74" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="I33" s="34"/>
       <c r="J33" s="34"/>
       <c r="K33" s="34"/>
       <c r="L33" s="35"/>
       <c r="M33" s="114" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="N33" s="34"/>
       <c r="O33" s="36"/>
@@ -27638,14 +27942,14 @@
       <c r="T33" s="35"/>
       <c r="U33" s="34"/>
       <c r="V33" s="34" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="W33" s="34"/>
       <c r="X33" s="35"/>
       <c r="Y33" s="34"/>
       <c r="Z33" s="34"/>
       <c r="AA33" s="76" t="s">
-        <v>280</v>
+        <v>273</v>
       </c>
       <c r="AB33" s="35"/>
       <c r="AC33" s="34"/>
@@ -27665,43 +27969,43 @@
       <c r="F34" s="5"/>
       <c r="G34" s="5"/>
       <c r="H34" s="40" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="I34" s="19"/>
       <c r="J34" s="19"/>
       <c r="K34" s="19"/>
       <c r="L34" s="40" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="M34" s="19"/>
       <c r="N34" s="19"/>
       <c r="O34" s="19"/>
       <c r="P34" s="43" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="Q34" s="19"/>
       <c r="R34" s="19"/>
       <c r="S34" s="19"/>
       <c r="T34" s="40" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="U34" s="19"/>
       <c r="V34" s="19"/>
       <c r="W34" s="19"/>
       <c r="X34" s="40" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="Y34" s="19"/>
       <c r="Z34" s="19"/>
       <c r="AA34" s="19"/>
       <c r="AB34" s="40" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="AC34" s="19"/>
       <c r="AD34" s="19"/>
       <c r="AE34" s="19"/>
       <c r="AF34" s="43" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="AG34" s="5"/>
       <c r="AH34" s="5"/>
@@ -27820,6 +28124,7 @@
     </row>
     <row r="38" spans="3:35" ht="36" customHeight="1" thickTop="1"/>
   </sheetData>
+  <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>

--- a/Planning/Inds for Planting Final.six.xlsx
+++ b/Planning/Inds for Planting Final.six.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27430"/>
   <workbookPr showInkAnnotation="0" checkCompatibility="1" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="0" windowWidth="25360" windowHeight="13580" tabRatio="500" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18460" windowHeight="14360" tabRatio="500" firstSheet="6" activeTab="11"/>
   </bookViews>
   <sheets>
     <sheet name="2 (2)" sheetId="6" r:id="rId1"/>
@@ -873,9 +873,6 @@
     <t>SPITOM_HF_9</t>
   </si>
   <si>
-    <t>SPIALB_GR_4</t>
-  </si>
-  <si>
     <t>SPITOM_HF_13</t>
   </si>
   <si>
@@ -946,6 +943,9 @@
   </si>
   <si>
     <t>(was ALNINC_GR_1)</t>
+  </si>
+  <si>
+    <t>ACESPI_SH_9</t>
   </si>
 </sst>
 </file>
@@ -1058,7 +1058,7 @@
       <name val="Zapf Dingbats"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1092,6 +1092,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF6600"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1433,7 +1445,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1203">
+  <cellStyleXfs count="1209">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -2637,8 +2649,14 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="162">
+  <cellXfs count="168">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -2988,9 +3006,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -3080,17 +3095,38 @@
     <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1203">
+  <cellStyles count="1209">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -3692,6 +3728,9 @@
     <cellStyle name="Followed Hyperlink" xfId="1198" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="1200" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="1202" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1204" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1206" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1208" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -4293,6 +4332,9 @@
     <cellStyle name="Hyperlink" xfId="1197" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1199" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1201" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1203" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1205" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1207" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -6064,8 +6106,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AI38"/>
   <sheetViews>
-    <sheetView topLeftCell="G7" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="75" workbookViewId="0">
-      <selection activeCell="Z15" sqref="Z15"/>
+    <sheetView topLeftCell="C20" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="75" workbookViewId="0">
+      <selection activeCell="P22" sqref="P22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="6" defaultRowHeight="36" customHeight="1" x14ac:dyDescent="0"/>
@@ -6537,8 +6579,8 @@
       <c r="H14" s="88" t="s">
         <v>70</v>
       </c>
-      <c r="I14" s="137" t="s">
-        <v>295</v>
+      <c r="I14" s="136" t="s">
+        <v>294</v>
       </c>
       <c r="J14" s="24"/>
       <c r="K14" s="24"/>
@@ -6563,12 +6605,12 @@
       <c r="X14" s="89" t="s">
         <v>1</v>
       </c>
-      <c r="Y14" s="137" t="s">
-        <v>295</v>
+      <c r="Y14" s="136" t="s">
+        <v>294</v>
       </c>
       <c r="Z14" s="24"/>
       <c r="AA14" s="26"/>
-      <c r="AB14" s="24" t="s">
+      <c r="AB14" s="164" t="s">
         <v>41</v>
       </c>
       <c r="AC14" s="24"/>
@@ -6577,8 +6619,8 @@
       <c r="AF14" s="80" t="s">
         <v>258</v>
       </c>
-      <c r="AG14" s="148" t="s">
-        <v>295</v>
+      <c r="AG14" s="147" t="s">
+        <v>294</v>
       </c>
       <c r="AH14" s="5"/>
       <c r="AI14" s="6"/>
@@ -6880,7 +6922,7 @@
       <c r="M22" s="24"/>
       <c r="N22" s="24"/>
       <c r="O22" s="26"/>
-      <c r="P22" s="24" t="s">
+      <c r="P22" s="164" t="s">
         <v>63</v>
       </c>
       <c r="Q22" s="24"/>
@@ -6904,8 +6946,8 @@
       <c r="AC22" s="24"/>
       <c r="AD22" s="24"/>
       <c r="AE22" s="27"/>
-      <c r="AF22" s="80" t="s">
-        <v>31</v>
+      <c r="AF22" s="128" t="s">
+        <v>257</v>
       </c>
       <c r="AG22" s="5"/>
       <c r="AH22" s="5"/>
@@ -7016,9 +7058,9 @@
       <c r="AB25" s="29"/>
       <c r="AC25" s="29"/>
       <c r="AD25" s="29"/>
-      <c r="AE25" s="130"/>
+      <c r="AE25" s="129"/>
       <c r="AF25" s="103"/>
-      <c r="AG25" s="133"/>
+      <c r="AG25" s="132"/>
       <c r="AH25" s="5"/>
       <c r="AI25" s="6"/>
     </row>
@@ -7032,8 +7074,8 @@
       <c r="G26" s="42" t="s">
         <v>223</v>
       </c>
-      <c r="H26" s="88" t="s">
-        <v>278</v>
+      <c r="H26" s="133" t="s">
+        <v>24</v>
       </c>
       <c r="I26" s="24"/>
       <c r="J26" s="24"/>
@@ -7047,8 +7089,8 @@
       <c r="P26" s="93" t="s">
         <v>258</v>
       </c>
-      <c r="Q26" s="137" t="s">
-        <v>295</v>
+      <c r="Q26" s="136" t="s">
+        <v>294</v>
       </c>
       <c r="R26" s="24"/>
       <c r="S26" s="24"/>
@@ -7059,7 +7101,7 @@
       <c r="V26" s="24"/>
       <c r="W26" s="24"/>
       <c r="X26" s="90" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="Y26" s="24"/>
       <c r="Z26" s="24"/>
@@ -7067,11 +7109,11 @@
       <c r="AB26" s="24"/>
       <c r="AC26" s="24"/>
       <c r="AD26" s="24"/>
-      <c r="AE26" s="131"/>
+      <c r="AE26" s="130"/>
       <c r="AF26" s="63" t="s">
-        <v>280</v>
-      </c>
-      <c r="AG26" s="133"/>
+        <v>279</v>
+      </c>
+      <c r="AG26" s="132"/>
       <c r="AH26" s="5"/>
       <c r="AI26" s="6"/>
     </row>
@@ -7106,9 +7148,9 @@
       <c r="AB27" s="19"/>
       <c r="AC27" s="19"/>
       <c r="AD27" s="19"/>
-      <c r="AE27" s="132"/>
+      <c r="AE27" s="131"/>
       <c r="AF27" s="103"/>
-      <c r="AG27" s="133"/>
+      <c r="AG27" s="132"/>
       <c r="AH27" s="5"/>
       <c r="AI27" s="6"/>
     </row>
@@ -7196,7 +7238,7 @@
       <c r="G30" s="42" t="s">
         <v>224</v>
       </c>
-      <c r="H30" s="18" t="s">
+      <c r="H30" s="162" t="s">
         <v>25</v>
       </c>
       <c r="I30" s="19"/>
@@ -7205,8 +7247,8 @@
       <c r="L30" s="71" t="s">
         <v>37</v>
       </c>
-      <c r="M30" s="139" t="s">
-        <v>295</v>
+      <c r="M30" s="138" t="s">
+        <v>294</v>
       </c>
       <c r="N30" s="19"/>
       <c r="O30" s="21"/>
@@ -7237,8 +7279,8 @@
       <c r="AF30" s="80" t="s">
         <v>37</v>
       </c>
-      <c r="AG30" s="148" t="s">
-        <v>295</v>
+      <c r="AG30" s="147" t="s">
+        <v>294</v>
       </c>
       <c r="AH30" s="5"/>
       <c r="AI30" s="6"/>
@@ -7363,7 +7405,7 @@
       <c r="F34" s="5"/>
       <c r="G34" s="5"/>
       <c r="H34" s="63" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="I34" s="19"/>
       <c r="J34" s="19"/>
@@ -7372,7 +7414,7 @@
       <c r="M34" s="19"/>
       <c r="N34" s="19"/>
       <c r="O34" s="19"/>
-      <c r="P34" s="19" t="s">
+      <c r="P34" s="64" t="s">
         <v>16</v>
       </c>
       <c r="Q34" s="19"/>
@@ -7528,8 +7570,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AI38"/>
   <sheetViews>
-    <sheetView topLeftCell="H12" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="U17" sqref="U17"/>
+    <sheetView topLeftCell="D22" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="75" workbookViewId="0">
+      <selection activeCell="AE28" sqref="AE28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -7840,8 +7882,8 @@
       <c r="H10" s="85" t="s">
         <v>187</v>
       </c>
-      <c r="I10" s="147" t="s">
-        <v>295</v>
+      <c r="I10" s="146" t="s">
+        <v>294</v>
       </c>
       <c r="J10" s="13"/>
       <c r="K10" s="13"/>
@@ -7892,7 +7934,7 @@
       <c r="S11" s="19"/>
       <c r="T11" s="20"/>
       <c r="U11" s="63" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="V11" s="19"/>
       <c r="W11" s="19"/>
@@ -7937,8 +7979,8 @@
       <c r="AA12" s="21"/>
       <c r="AB12" s="19"/>
       <c r="AC12" s="19"/>
-      <c r="AD12" s="129" t="s">
-        <v>297</v>
+      <c r="AD12" s="128" t="s">
+        <v>296</v>
       </c>
       <c r="AE12" s="22"/>
       <c r="AF12" s="19"/>
@@ -8087,8 +8129,8 @@
       <c r="M16" s="80" t="s">
         <v>91</v>
       </c>
-      <c r="N16" s="139" t="s">
-        <v>295</v>
+      <c r="N16" s="138" t="s">
+        <v>294</v>
       </c>
       <c r="O16" s="21"/>
       <c r="P16" s="19"/>
@@ -8136,8 +8178,8 @@
       <c r="U17" s="87" t="s">
         <v>81</v>
       </c>
-      <c r="V17" s="150" t="s">
-        <v>295</v>
+      <c r="V17" s="149" t="s">
+        <v>294</v>
       </c>
       <c r="W17" s="29"/>
       <c r="X17" s="30"/>
@@ -8260,8 +8302,8 @@
       <c r="N20" s="80" t="s">
         <v>116</v>
       </c>
-      <c r="O20" s="156" t="s">
-        <v>295</v>
+      <c r="O20" s="155" t="s">
+        <v>294</v>
       </c>
       <c r="P20" s="19"/>
       <c r="Q20" s="19"/>
@@ -8312,8 +8354,8 @@
       <c r="Y21" s="80" t="s">
         <v>188</v>
       </c>
-      <c r="Z21" s="139" t="s">
-        <v>295</v>
+      <c r="Z21" s="138" t="s">
+        <v>294</v>
       </c>
       <c r="AA21" s="21"/>
       <c r="AB21" s="19"/>
@@ -8421,7 +8463,7 @@
       <c r="E24" s="5"/>
       <c r="F24" s="5"/>
       <c r="G24" s="19"/>
-      <c r="H24" s="82" t="s">
+      <c r="H24" s="101" t="s">
         <v>122</v>
       </c>
       <c r="I24" s="19"/>
@@ -8433,7 +8475,7 @@
       <c r="O24" s="21"/>
       <c r="P24" s="19"/>
       <c r="Q24" s="19"/>
-      <c r="R24" s="129" t="s">
+      <c r="R24" s="128" t="s">
         <v>95</v>
       </c>
       <c r="S24" s="19"/>
@@ -8594,8 +8636,8 @@
       <c r="M28" s="80" t="s">
         <v>81</v>
       </c>
-      <c r="N28" s="139" t="s">
-        <v>295</v>
+      <c r="N28" s="138" t="s">
+        <v>294</v>
       </c>
       <c r="O28" s="21"/>
       <c r="P28" s="19"/>
@@ -8616,8 +8658,8 @@
       <c r="AE28" s="81" t="s">
         <v>81</v>
       </c>
-      <c r="AF28" s="149" t="s">
-        <v>295</v>
+      <c r="AF28" s="148" t="s">
+        <v>294</v>
       </c>
       <c r="AG28" s="5"/>
       <c r="AH28" s="5"/>
@@ -8813,7 +8855,7 @@
       <c r="W33" s="34"/>
       <c r="X33" s="35"/>
       <c r="Y33" s="77" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="Z33" s="34"/>
       <c r="AA33" s="36"/>
@@ -9005,8 +9047,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AI38"/>
   <sheetViews>
-    <sheetView topLeftCell="D11" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="75" workbookViewId="0">
-      <selection activeCell="N27" sqref="N27"/>
+    <sheetView tabSelected="1" topLeftCell="D16" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="75" workbookViewId="0">
+      <selection activeCell="AA16" sqref="AA16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="6" defaultRowHeight="36" customHeight="1" x14ac:dyDescent="0"/>
@@ -9328,7 +9370,7 @@
       <c r="R10" s="13"/>
       <c r="S10" s="13"/>
       <c r="T10" s="15" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="U10" s="13"/>
       <c r="V10" s="13"/>
@@ -9337,7 +9379,7 @@
       <c r="Y10" s="13"/>
       <c r="Z10" s="13"/>
       <c r="AA10" s="16"/>
-      <c r="AB10" s="79" t="s">
+      <c r="AB10" s="97" t="s">
         <v>136</v>
       </c>
       <c r="AC10" s="13"/>
@@ -9373,7 +9415,7 @@
       <c r="V11" s="19"/>
       <c r="W11" s="19"/>
       <c r="X11" s="71" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="Y11" s="19"/>
       <c r="Z11" s="19"/>
@@ -9477,7 +9519,7 @@
         <v>202</v>
       </c>
       <c r="M14" s="24" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="N14" s="24"/>
       <c r="O14" s="26"/>
@@ -9578,7 +9620,7 @@
       <c r="Y16" s="19"/>
       <c r="Z16" s="19"/>
       <c r="AA16" s="21" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="AB16" s="19"/>
       <c r="AC16" s="19"/>
@@ -9710,15 +9752,15 @@
       <c r="W19" s="19"/>
       <c r="X19" s="20"/>
       <c r="Y19" s="19"/>
-      <c r="Z19" s="80" t="s">
-        <v>136</v>
+      <c r="Z19" s="128" t="s">
+        <v>302</v>
       </c>
       <c r="AA19" s="21"/>
       <c r="AB19" s="19"/>
       <c r="AC19" s="19"/>
       <c r="AD19" s="19"/>
-      <c r="AE19" s="143" t="s">
-        <v>298</v>
+      <c r="AE19" s="142" t="s">
+        <v>297</v>
       </c>
       <c r="AF19" s="41"/>
       <c r="AG19" s="5"/>
@@ -9836,7 +9878,7 @@
       </c>
       <c r="Y22" s="24"/>
       <c r="Z22" s="24"/>
-      <c r="AA22" s="62" t="s">
+      <c r="AA22" s="160" t="s">
         <v>264</v>
       </c>
       <c r="AB22" s="44" t="s">
@@ -9871,8 +9913,8 @@
       <c r="N23" s="19"/>
       <c r="O23" s="21"/>
       <c r="P23" s="19"/>
-      <c r="Q23" s="129" t="s">
-        <v>298</v>
+      <c r="Q23" s="128" t="s">
+        <v>297</v>
       </c>
       <c r="R23" s="19"/>
       <c r="S23" s="19"/>
@@ -9943,10 +9985,10 @@
       <c r="F25" s="5"/>
       <c r="G25" s="103"/>
       <c r="H25" s="65" t="s">
-        <v>288</v>
-      </c>
-      <c r="I25" s="153" t="s">
-        <v>295</v>
+        <v>287</v>
+      </c>
+      <c r="I25" s="152" t="s">
+        <v>294</v>
       </c>
       <c r="J25" s="29"/>
       <c r="K25" s="29"/>
@@ -9982,7 +10024,7 @@
       <c r="D26" s="4"/>
       <c r="E26" s="5"/>
       <c r="F26" s="5"/>
-      <c r="G26" s="144" t="s">
+      <c r="G26" s="143" t="s">
         <v>223</v>
       </c>
       <c r="H26" s="98"/>
@@ -10007,7 +10049,7 @@
       <c r="U26" s="24"/>
       <c r="V26" s="24"/>
       <c r="W26" s="24"/>
-      <c r="X26" s="127" t="s">
+      <c r="X26" s="166" t="s">
         <v>273</v>
       </c>
       <c r="Y26" s="24"/>
@@ -10040,8 +10082,8 @@
       <c r="K27" s="19"/>
       <c r="L27" s="20"/>
       <c r="M27" s="19"/>
-      <c r="N27" s="129" t="s">
-        <v>298</v>
+      <c r="N27" s="128" t="s">
+        <v>297</v>
       </c>
       <c r="O27" s="21"/>
       <c r="P27" s="19"/>
@@ -10126,7 +10168,7 @@
       <c r="O29" s="31"/>
       <c r="P29" s="29"/>
       <c r="Q29" s="29" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="S29" s="29"/>
       <c r="T29" s="30"/>
@@ -10177,8 +10219,8 @@
       <c r="W30" s="80" t="s">
         <v>152</v>
       </c>
-      <c r="X30" s="160" t="s">
-        <v>295</v>
+      <c r="X30" s="158" t="s">
+        <v>294</v>
       </c>
       <c r="Y30" s="19"/>
       <c r="Z30" s="19"/>
@@ -10206,7 +10248,7 @@
       <c r="E31" s="5"/>
       <c r="F31" s="5"/>
       <c r="G31" s="19"/>
-      <c r="H31" s="118" t="s">
+      <c r="H31" s="161" t="s">
         <v>161</v>
       </c>
       <c r="I31" s="19"/>
@@ -10267,8 +10309,8 @@
       <c r="AA32" s="111" t="s">
         <v>152</v>
       </c>
-      <c r="AB32" s="139" t="s">
-        <v>295</v>
+      <c r="AB32" s="138" t="s">
+        <v>294</v>
       </c>
       <c r="AC32" s="19"/>
       <c r="AD32" s="19"/>
@@ -10342,7 +10384,7 @@
       <c r="Q34" s="19"/>
       <c r="R34" s="19"/>
       <c r="S34" s="80" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="T34" s="55"/>
       <c r="U34" s="19"/>
@@ -10360,7 +10402,7 @@
       <c r="AC34" s="19"/>
       <c r="AD34" s="19"/>
       <c r="AE34" s="126" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="AF34" s="43" t="s">
         <v>204</v>
@@ -10497,8 +10539,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AI38"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="AB22" sqref="AB22"/>
+    <sheetView topLeftCell="G17" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
+      <selection activeCell="T18" sqref="T18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="6" defaultRowHeight="36" customHeight="1" x14ac:dyDescent="0"/>
@@ -10822,7 +10864,7 @@
       <c r="R10" s="13"/>
       <c r="S10" s="13"/>
       <c r="T10" s="119" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="U10" s="13"/>
       <c r="V10" s="13"/>
@@ -10830,8 +10872,8 @@
       <c r="X10" s="86" t="s">
         <v>70</v>
       </c>
-      <c r="Y10" s="147" t="s">
-        <v>295</v>
+      <c r="Y10" s="146" t="s">
+        <v>294</v>
       </c>
       <c r="Z10" s="13"/>
       <c r="AA10" s="16"/>
@@ -11147,19 +11189,19 @@
       <c r="Q18" s="19"/>
       <c r="R18" s="19"/>
       <c r="S18" s="19"/>
-      <c r="T18" s="71" t="s">
+      <c r="T18" s="109" t="s">
         <v>7</v>
       </c>
-      <c r="U18" s="139" t="s">
-        <v>295</v>
+      <c r="U18" s="138" t="s">
+        <v>294</v>
       </c>
       <c r="V18" s="19"/>
       <c r="W18" s="19"/>
       <c r="X18" s="71" t="s">
         <v>37</v>
       </c>
-      <c r="Y18" s="139" t="s">
-        <v>295</v>
+      <c r="Y18" s="138" t="s">
+        <v>294</v>
       </c>
       <c r="Z18" s="19"/>
       <c r="AA18" s="21"/>
@@ -11328,8 +11370,8 @@
       <c r="AB22" s="93" t="s">
         <v>53</v>
       </c>
-      <c r="AC22" s="137" t="s">
-        <v>295</v>
+      <c r="AC22" s="136" t="s">
+        <v>294</v>
       </c>
       <c r="AD22" s="24"/>
       <c r="AE22" s="27"/>
@@ -11956,8 +11998,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AI38"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+    <sheetView topLeftCell="G18" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
+      <selection activeCell="S10" sqref="S10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="6" defaultRowHeight="36" customHeight="1" x14ac:dyDescent="0"/>
@@ -12278,8 +12320,8 @@
       <c r="S10" s="79" t="s">
         <v>187</v>
       </c>
-      <c r="T10" s="138" t="s">
-        <v>295</v>
+      <c r="T10" s="137" t="s">
+        <v>294</v>
       </c>
       <c r="U10" s="13"/>
       <c r="V10" s="13"/>
@@ -12775,7 +12817,7 @@
       </c>
       <c r="Y22" s="24"/>
       <c r="Z22" s="24"/>
-      <c r="AA22" s="128" t="s">
+      <c r="AA22" s="127" t="s">
         <v>73</v>
       </c>
       <c r="AB22" s="44" t="s">
@@ -13412,8 +13454,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AI38"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="AL18" sqref="AL18"/>
+    <sheetView topLeftCell="G19" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
+      <selection activeCell="AE24" sqref="AE24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="6" defaultRowHeight="36" customHeight="1" x14ac:dyDescent="0"/>
@@ -13719,10 +13761,10 @@
       <c r="F10" s="5"/>
       <c r="G10" s="19"/>
       <c r="H10" s="85" t="s">
-        <v>288</v>
-      </c>
-      <c r="I10" s="147" t="s">
-        <v>295</v>
+        <v>287</v>
+      </c>
+      <c r="I10" s="146" t="s">
+        <v>294</v>
       </c>
       <c r="J10" s="13"/>
       <c r="K10" s="13"/>
@@ -13750,10 +13792,10 @@
       <c r="AC10" s="13"/>
       <c r="AD10" s="13"/>
       <c r="AE10" s="61" t="s">
-        <v>288</v>
-      </c>
-      <c r="AF10" s="139" t="s">
-        <v>295</v>
+        <v>287</v>
+      </c>
+      <c r="AF10" s="138" t="s">
+        <v>294</v>
       </c>
       <c r="AG10" s="5"/>
       <c r="AH10" s="5"/>
@@ -13913,8 +13955,8 @@
       <c r="AB14" s="117" t="s">
         <v>152</v>
       </c>
-      <c r="AC14" s="137" t="s">
-        <v>295</v>
+      <c r="AC14" s="136" t="s">
+        <v>294</v>
       </c>
       <c r="AD14" s="24"/>
       <c r="AE14" s="27"/>
@@ -14104,8 +14146,8 @@
       <c r="L19" s="71" t="s">
         <v>149</v>
       </c>
-      <c r="M19" s="139" t="s">
-        <v>295</v>
+      <c r="M19" s="138" t="s">
+        <v>294</v>
       </c>
       <c r="N19" s="19"/>
       <c r="O19" s="21"/>
@@ -14151,8 +14193,8 @@
       <c r="R20" s="80" t="s">
         <v>149</v>
       </c>
-      <c r="S20" s="139" t="s">
-        <v>295</v>
+      <c r="S20" s="138" t="s">
+        <v>294</v>
       </c>
       <c r="T20" s="20"/>
       <c r="U20" s="19"/>
@@ -14331,7 +14373,7 @@
       <c r="AC24" s="19"/>
       <c r="AD24" s="19"/>
       <c r="AE24" s="22" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="AF24" s="41"/>
       <c r="AG24" s="5"/>
@@ -14394,7 +14436,7 @@
       <c r="M26" s="24"/>
       <c r="N26" s="24"/>
       <c r="O26" s="62" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="P26" s="44" t="s">
         <v>241</v>
@@ -14554,10 +14596,10 @@
       <c r="J30" s="19"/>
       <c r="K30" s="19"/>
       <c r="L30" s="125" t="s">
-        <v>288</v>
-      </c>
-      <c r="M30" s="139" t="s">
-        <v>295</v>
+        <v>287</v>
+      </c>
+      <c r="M30" s="138" t="s">
+        <v>294</v>
       </c>
       <c r="N30" s="19"/>
       <c r="O30" s="21"/>
@@ -14646,7 +14688,7 @@
       <c r="N32" s="19"/>
       <c r="O32" s="21"/>
       <c r="P32" s="19"/>
-      <c r="Q32" s="71" t="s">
+      <c r="Q32" s="102" t="s">
         <v>137</v>
       </c>
       <c r="R32" s="19"/>
@@ -14660,7 +14702,7 @@
       <c r="AB32" s="19"/>
       <c r="AC32" s="19"/>
       <c r="AD32" s="80" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="AE32" s="22"/>
       <c r="AF32" s="41"/>
@@ -14693,10 +14735,10 @@
       <c r="T33" s="35"/>
       <c r="U33" s="34"/>
       <c r="V33" s="76" t="s">
-        <v>288</v>
-      </c>
-      <c r="W33" s="154" t="s">
-        <v>295</v>
+        <v>287</v>
+      </c>
+      <c r="W33" s="153" t="s">
+        <v>294</v>
       </c>
       <c r="X33" s="35"/>
       <c r="Y33" s="34"/>
@@ -14889,8 +14931,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AI38"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="AE11" sqref="AE11"/>
+    <sheetView topLeftCell="G1" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
+      <selection activeCell="O32" sqref="O32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="6" defaultRowHeight="36" customHeight="1" x14ac:dyDescent="0"/>
@@ -16106,8 +16148,8 @@
       <c r="L32" s="20"/>
       <c r="M32" s="19"/>
       <c r="N32" s="19"/>
-      <c r="O32" s="145" t="s">
-        <v>297</v>
+      <c r="O32" s="144" t="s">
+        <v>296</v>
       </c>
       <c r="P32" s="19"/>
       <c r="Q32" s="19"/>
@@ -17686,8 +17728,8 @@
   </sheetPr>
   <dimension ref="A1:AI38"/>
   <sheetViews>
-    <sheetView topLeftCell="A18" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="U26" sqref="U26"/>
+    <sheetView topLeftCell="A19" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
+      <selection activeCell="N15" sqref="N15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="6" defaultRowHeight="36" customHeight="1" x14ac:dyDescent="0"/>
@@ -18215,8 +18257,8 @@
       <c r="K15" s="19"/>
       <c r="L15" s="20"/>
       <c r="M15" s="19"/>
-      <c r="N15" s="129" t="s">
-        <v>294</v>
+      <c r="N15" s="128" t="s">
+        <v>293</v>
       </c>
       <c r="O15" s="21"/>
       <c r="P15" s="19"/>
@@ -18237,8 +18279,8 @@
       <c r="AE15" s="81" t="s">
         <v>91</v>
       </c>
-      <c r="AF15" s="146" t="s">
-        <v>295</v>
+      <c r="AF15" s="145" t="s">
+        <v>294</v>
       </c>
       <c r="AG15" s="5"/>
       <c r="AH15" s="5"/>
@@ -18269,8 +18311,8 @@
       <c r="V16" s="19"/>
       <c r="W16" s="19"/>
       <c r="X16" s="20"/>
-      <c r="Y16" s="129" t="s">
-        <v>297</v>
+      <c r="Y16" s="128" t="s">
+        <v>296</v>
       </c>
       <c r="Z16" s="19"/>
       <c r="AA16" s="21"/>
@@ -18718,8 +18760,8 @@
       <c r="J27" s="80" t="s">
         <v>121</v>
       </c>
-      <c r="K27" s="139" t="s">
-        <v>295</v>
+      <c r="K27" s="138" t="s">
+        <v>294</v>
       </c>
       <c r="L27" s="20"/>
       <c r="M27" s="19"/>
@@ -18819,8 +18861,8 @@
       <c r="AE29" s="83" t="s">
         <v>254</v>
       </c>
-      <c r="AF29" s="149" t="s">
-        <v>295</v>
+      <c r="AF29" s="148" t="s">
+        <v>294</v>
       </c>
       <c r="AG29" s="5"/>
       <c r="AH29" s="5"/>
@@ -19175,8 +19217,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AI38"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="75" workbookViewId="0">
-      <selection activeCell="AH9" sqref="AH9"/>
+    <sheetView topLeftCell="F18" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="75" workbookViewId="0">
+      <selection activeCell="H33" sqref="H33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="6" defaultRowHeight="36" customHeight="1" x14ac:dyDescent="0"/>
@@ -19523,8 +19565,8 @@
       <c r="AE10" s="61" t="s">
         <v>83</v>
       </c>
-      <c r="AF10" s="139" t="s">
-        <v>295</v>
+      <c r="AF10" s="138" t="s">
+        <v>294</v>
       </c>
       <c r="AG10" s="5"/>
       <c r="AH10" s="5"/>
@@ -19663,8 +19705,8 @@
       <c r="O14" s="62" t="s">
         <v>255</v>
       </c>
-      <c r="P14" s="141" t="s">
-        <v>295</v>
+      <c r="P14" s="140" t="s">
+        <v>294</v>
       </c>
       <c r="Q14" s="24"/>
       <c r="R14" s="24"/>
@@ -19683,8 +19725,8 @@
       <c r="AA14" s="62" t="s">
         <v>121</v>
       </c>
-      <c r="AB14" s="140" t="s">
-        <v>295</v>
+      <c r="AB14" s="139" t="s">
+        <v>294</v>
       </c>
       <c r="AC14" s="24"/>
       <c r="AD14" s="24"/>
@@ -19876,8 +19918,8 @@
       <c r="K19" s="19"/>
       <c r="L19" s="20"/>
       <c r="M19" s="19"/>
-      <c r="N19" s="129" t="s">
-        <v>178</v>
+      <c r="N19" s="80" t="s">
+        <v>184</v>
       </c>
       <c r="O19" s="21"/>
       <c r="P19" s="19"/>
@@ -20116,8 +20158,8 @@
       <c r="E25" s="5"/>
       <c r="F25" s="5"/>
       <c r="G25" s="19"/>
-      <c r="H25" s="142" t="s">
-        <v>297</v>
+      <c r="H25" s="141" t="s">
+        <v>296</v>
       </c>
       <c r="I25" s="29"/>
       <c r="J25" s="29"/>
@@ -20133,8 +20175,8 @@
       <c r="T25" s="69" t="s">
         <v>187</v>
       </c>
-      <c r="U25" s="150" t="s">
-        <v>295</v>
+      <c r="U25" s="149" t="s">
+        <v>294</v>
       </c>
       <c r="V25" s="29"/>
       <c r="W25" s="29"/>
@@ -20457,8 +20499,8 @@
       <c r="H33" s="75" t="s">
         <v>252</v>
       </c>
-      <c r="I33" s="154" t="s">
-        <v>295</v>
+      <c r="I33" s="153" t="s">
+        <v>294</v>
       </c>
       <c r="J33" s="34"/>
       <c r="K33" s="34"/>
@@ -20470,8 +20512,8 @@
       <c r="Q33" s="76" t="s">
         <v>121</v>
       </c>
-      <c r="R33" s="154" t="s">
-        <v>295</v>
+      <c r="R33" s="153" t="s">
+        <v>294</v>
       </c>
       <c r="S33" s="34"/>
       <c r="T33" s="35"/>
@@ -20672,8 +20714,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AI38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="75" workbookViewId="0">
-      <selection activeCell="V30" sqref="V30"/>
+    <sheetView topLeftCell="F21" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="75" workbookViewId="0">
+      <selection activeCell="T10" sqref="T10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="6" defaultRowHeight="36" customHeight="1" x14ac:dyDescent="0"/>
@@ -20981,8 +21023,8 @@
       <c r="H10" s="85" t="s">
         <v>255</v>
       </c>
-      <c r="I10" s="147" t="s">
-        <v>295</v>
+      <c r="I10" s="146" t="s">
+        <v>294</v>
       </c>
       <c r="J10" s="13"/>
       <c r="K10" s="13"/>
@@ -20999,8 +21041,8 @@
       <c r="T10" s="86" t="s">
         <v>252</v>
       </c>
-      <c r="U10" s="147" t="s">
-        <v>295</v>
+      <c r="U10" s="146" t="s">
+        <v>294</v>
       </c>
       <c r="V10" s="13"/>
       <c r="W10" s="13"/>
@@ -21202,8 +21244,8 @@
       <c r="N15" s="80" t="s">
         <v>81</v>
       </c>
-      <c r="O15" s="156" t="s">
-        <v>295</v>
+      <c r="O15" s="155" t="s">
+        <v>294</v>
       </c>
       <c r="P15" s="19"/>
       <c r="Q15" s="19"/>
@@ -21220,8 +21262,8 @@
       <c r="Z15" s="80" t="s">
         <v>254</v>
       </c>
-      <c r="AA15" s="156" t="s">
-        <v>295</v>
+      <c r="AA15" s="155" t="s">
+        <v>294</v>
       </c>
       <c r="AB15" s="19"/>
       <c r="AC15" s="19"/>
@@ -21350,7 +21392,7 @@
       <c r="AC18" s="19"/>
       <c r="AD18" s="19"/>
       <c r="AE18" s="81" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="AF18" s="43" t="s">
         <v>217</v>
@@ -21429,8 +21471,8 @@
       <c r="Z20" s="80" t="s">
         <v>252</v>
       </c>
-      <c r="AA20" s="156" t="s">
-        <v>295</v>
+      <c r="AA20" s="155" t="s">
+        <v>294</v>
       </c>
       <c r="AB20" s="19"/>
       <c r="AC20" s="19"/>
@@ -21625,8 +21667,8 @@
       <c r="M25" s="29"/>
       <c r="N25" s="29"/>
       <c r="O25" s="31"/>
-      <c r="P25" s="136" t="s">
-        <v>301</v>
+      <c r="P25" s="135" t="s">
+        <v>300</v>
       </c>
       <c r="Q25" s="29"/>
       <c r="R25" s="29"/>
@@ -21767,8 +21809,8 @@
       <c r="AB28" s="19"/>
       <c r="AC28" s="19"/>
       <c r="AD28" s="19"/>
-      <c r="AE28" s="143" t="s">
-        <v>297</v>
+      <c r="AE28" s="142" t="s">
+        <v>296</v>
       </c>
       <c r="AF28" s="5"/>
       <c r="AG28" s="5"/>
@@ -21796,11 +21838,11 @@
       <c r="R29" s="29"/>
       <c r="S29" s="29"/>
       <c r="T29" s="30"/>
-      <c r="U29" s="136" t="s">
-        <v>294</v>
+      <c r="U29" s="135" t="s">
+        <v>293</v>
       </c>
       <c r="V29" s="29" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="W29" s="29"/>
       <c r="X29" s="30"/>
@@ -21829,8 +21871,8 @@
       <c r="H30" s="65" t="s">
         <v>87</v>
       </c>
-      <c r="I30" s="139" t="s">
-        <v>295</v>
+      <c r="I30" s="138" t="s">
+        <v>294</v>
       </c>
       <c r="J30" s="19"/>
       <c r="K30" s="19"/>
@@ -22165,8 +22207,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AI38"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="75" workbookViewId="0">
-      <selection activeCell="X10" sqref="X10"/>
+    <sheetView topLeftCell="G21" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="75" workbookViewId="0">
+      <selection activeCell="X26" sqref="X26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="6" defaultRowHeight="36" customHeight="1" x14ac:dyDescent="0"/>
@@ -22492,12 +22534,12 @@
       <c r="T10" s="86" t="s">
         <v>32</v>
       </c>
-      <c r="U10" s="147" t="s">
-        <v>295</v>
+      <c r="U10" s="146" t="s">
+        <v>294</v>
       </c>
       <c r="V10" s="13"/>
       <c r="W10" s="13"/>
-      <c r="X10" s="161" t="s">
+      <c r="X10" s="159" t="s">
         <v>35</v>
       </c>
       <c r="Y10" s="13"/>
@@ -22646,13 +22688,13 @@
       <c r="L14" s="89" t="s">
         <v>1</v>
       </c>
-      <c r="M14" s="137" t="s">
-        <v>295</v>
+      <c r="M14" s="136" t="s">
+        <v>294</v>
       </c>
       <c r="N14" s="24"/>
       <c r="O14" s="26"/>
-      <c r="P14" s="135" t="s">
-        <v>299</v>
+      <c r="P14" s="134" t="s">
+        <v>298</v>
       </c>
       <c r="Q14" s="24"/>
       <c r="R14" s="24"/>
@@ -22660,8 +22702,8 @@
       <c r="T14" s="89" t="s">
         <v>32</v>
       </c>
-      <c r="U14" s="137" t="s">
-        <v>295</v>
+      <c r="U14" s="136" t="s">
+        <v>294</v>
       </c>
       <c r="V14" s="24"/>
       <c r="W14" s="24"/>
@@ -22838,8 +22880,8 @@
       <c r="AB18" s="80" t="s">
         <v>32</v>
       </c>
-      <c r="AC18" s="139" t="s">
-        <v>295</v>
+      <c r="AC18" s="138" t="s">
+        <v>294</v>
       </c>
       <c r="AD18" s="19"/>
       <c r="AE18" s="22"/>
@@ -22980,16 +23022,16 @@
       <c r="L22" s="89" t="s">
         <v>24</v>
       </c>
-      <c r="M22" s="137" t="s">
-        <v>295</v>
+      <c r="M22" s="136" t="s">
+        <v>294</v>
       </c>
       <c r="N22" s="24"/>
       <c r="O22" s="26"/>
       <c r="P22" s="93" t="s">
         <v>70</v>
       </c>
-      <c r="Q22" s="137" t="s">
-        <v>295</v>
+      <c r="Q22" s="136" t="s">
+        <v>294</v>
       </c>
       <c r="R22" s="24"/>
       <c r="S22" s="24"/>
@@ -23011,8 +23053,8 @@
       <c r="AC22" s="24"/>
       <c r="AD22" s="24"/>
       <c r="AE22" s="27"/>
-      <c r="AF22" s="158" t="s">
-        <v>299</v>
+      <c r="AF22" s="157" t="s">
+        <v>298</v>
       </c>
       <c r="AG22" s="5"/>
       <c r="AH22" s="5"/>
@@ -23139,8 +23181,8 @@
       <c r="G26" s="42" t="s">
         <v>223</v>
       </c>
-      <c r="H26" s="134" t="s">
-        <v>299</v>
+      <c r="H26" s="133" t="s">
+        <v>298</v>
       </c>
       <c r="I26" s="24"/>
       <c r="J26" s="24"/>
@@ -23163,7 +23205,7 @@
       <c r="U26" s="24"/>
       <c r="V26" s="24"/>
       <c r="W26" s="24"/>
-      <c r="X26" s="25" t="s">
+      <c r="X26" s="163" t="s">
         <v>46</v>
       </c>
       <c r="Y26" s="24"/>
@@ -23178,8 +23220,8 @@
       <c r="AF26" s="94" t="s">
         <v>258</v>
       </c>
-      <c r="AG26" s="148" t="s">
-        <v>295</v>
+      <c r="AG26" s="147" t="s">
+        <v>294</v>
       </c>
       <c r="AH26" s="5"/>
       <c r="AI26" s="6"/>
@@ -23320,8 +23362,8 @@
       <c r="P30" s="80" t="s">
         <v>32</v>
       </c>
-      <c r="Q30" s="139" t="s">
-        <v>295</v>
+      <c r="Q30" s="138" t="s">
+        <v>294</v>
       </c>
       <c r="R30" s="19"/>
       <c r="S30" s="19"/>
@@ -23478,8 +23520,8 @@
       <c r="L34" s="94" t="s">
         <v>32</v>
       </c>
-      <c r="M34" s="157" t="s">
-        <v>295</v>
+      <c r="M34" s="156" t="s">
+        <v>294</v>
       </c>
       <c r="N34" s="12"/>
       <c r="O34" s="12"/>
@@ -23492,13 +23534,13 @@
       <c r="T34" s="94" t="s">
         <v>53</v>
       </c>
-      <c r="U34" s="157" t="s">
-        <v>295</v>
+      <c r="U34" s="156" t="s">
+        <v>294</v>
       </c>
       <c r="V34" s="12"/>
       <c r="W34" s="12"/>
-      <c r="X34" s="158" t="s">
-        <v>299</v>
+      <c r="X34" s="157" t="s">
+        <v>298</v>
       </c>
       <c r="Y34" s="12"/>
       <c r="Z34" s="12"/>
@@ -23644,7 +23686,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AI38"/>
   <sheetViews>
-    <sheetView topLeftCell="A15" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="75" workbookViewId="0">
+    <sheetView topLeftCell="D18" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="75" workbookViewId="0">
       <selection activeCell="Q23" sqref="Q23"/>
     </sheetView>
   </sheetViews>
@@ -23960,8 +24002,8 @@
       <c r="M10" s="79" t="s">
         <v>91</v>
       </c>
-      <c r="N10" s="147" t="s">
-        <v>295</v>
+      <c r="N10" s="146" t="s">
+        <v>294</v>
       </c>
       <c r="O10" s="16"/>
       <c r="P10" s="13"/>
@@ -23970,8 +24012,8 @@
       <c r="S10" s="79" t="s">
         <v>116</v>
       </c>
-      <c r="T10" s="138" t="s">
-        <v>295</v>
+      <c r="T10" s="137" t="s">
+        <v>294</v>
       </c>
       <c r="U10" s="13"/>
       <c r="V10" s="13"/>
@@ -24172,8 +24214,8 @@
       <c r="N15" s="80" t="s">
         <v>252</v>
       </c>
-      <c r="O15" s="156" t="s">
-        <v>295</v>
+      <c r="O15" s="155" t="s">
+        <v>294</v>
       </c>
       <c r="P15" s="19"/>
       <c r="Q15" s="19"/>
@@ -24223,8 +24265,8 @@
       <c r="X16" s="71" t="s">
         <v>87</v>
       </c>
-      <c r="Y16" s="139" t="s">
-        <v>295</v>
+      <c r="Y16" s="138" t="s">
+        <v>294</v>
       </c>
       <c r="Z16" s="19"/>
       <c r="AA16" s="21"/>
@@ -24402,8 +24444,8 @@
       <c r="AE20" s="81" t="s">
         <v>87</v>
       </c>
-      <c r="AF20" s="149" t="s">
-        <v>295</v>
+      <c r="AF20" s="148" t="s">
+        <v>294</v>
       </c>
       <c r="AG20" s="5"/>
       <c r="AH20" s="5"/>
@@ -24484,8 +24526,8 @@
       <c r="Y22" s="93" t="s">
         <v>91</v>
       </c>
-      <c r="Z22" s="137" t="s">
-        <v>295</v>
+      <c r="Z22" s="136" t="s">
+        <v>294</v>
       </c>
       <c r="AA22" s="26"/>
       <c r="AB22" s="44" t="s">
@@ -24521,8 +24563,8 @@
       <c r="Q23" s="80" t="s">
         <v>252</v>
       </c>
-      <c r="R23" s="139" t="s">
-        <v>295</v>
+      <c r="R23" s="138" t="s">
+        <v>294</v>
       </c>
       <c r="S23" s="19"/>
       <c r="T23" s="20"/>
@@ -24937,8 +24979,8 @@
       <c r="S33" s="76" t="s">
         <v>187</v>
       </c>
-      <c r="T33" s="151" t="s">
-        <v>295</v>
+      <c r="T33" s="150" t="s">
+        <v>294</v>
       </c>
       <c r="U33" s="34"/>
       <c r="V33" s="34"/>
@@ -25137,8 +25179,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AI38"/>
   <sheetViews>
-    <sheetView topLeftCell="C19" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="75" workbookViewId="0">
-      <selection activeCell="AA20" sqref="AA20"/>
+    <sheetView topLeftCell="D19" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="75" workbookViewId="0">
+      <selection activeCell="S28" sqref="S28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -25449,8 +25491,8 @@
       <c r="H10" s="85" t="s">
         <v>269</v>
       </c>
-      <c r="I10" s="147" t="s">
-        <v>295</v>
+      <c r="I10" s="146" t="s">
+        <v>294</v>
       </c>
       <c r="J10" s="13"/>
       <c r="K10" s="13"/>
@@ -25841,11 +25883,11 @@
       <c r="W19" s="19"/>
       <c r="X19" s="20"/>
       <c r="Y19" s="19"/>
-      <c r="Z19" s="129" t="s">
-        <v>296</v>
+      <c r="Z19" s="128" t="s">
+        <v>295</v>
       </c>
       <c r="AA19" s="21" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="AB19" s="19"/>
       <c r="AC19" s="19"/>
@@ -25904,8 +25946,8 @@
       <c r="H21" s="82" t="s">
         <v>97</v>
       </c>
-      <c r="I21" s="139" t="s">
-        <v>295</v>
+      <c r="I21" s="138" t="s">
+        <v>294</v>
       </c>
       <c r="J21" s="19"/>
       <c r="K21" s="19"/>
@@ -26216,10 +26258,10 @@
       <c r="O28" s="21"/>
       <c r="P28" s="19"/>
       <c r="Q28" s="19"/>
-      <c r="R28" s="80" t="s">
+      <c r="R28" s="64" t="s">
         <v>86</v>
       </c>
-      <c r="S28" s="159"/>
+      <c r="S28" s="165"/>
       <c r="T28" s="20"/>
       <c r="U28" s="19"/>
       <c r="V28" s="19"/>
@@ -26230,8 +26272,8 @@
       <c r="AA28" s="111" t="s">
         <v>252</v>
       </c>
-      <c r="AB28" s="139" t="s">
-        <v>295</v>
+      <c r="AB28" s="138" t="s">
+        <v>294</v>
       </c>
       <c r="AC28" s="19"/>
       <c r="AD28" s="19"/>
@@ -26353,8 +26395,8 @@
       <c r="S31" s="19"/>
       <c r="T31" s="20"/>
       <c r="U31" s="19"/>
-      <c r="V31" s="129" t="s">
-        <v>297</v>
+      <c r="V31" s="128" t="s">
+        <v>296</v>
       </c>
       <c r="W31" s="19"/>
       <c r="X31" s="20"/>
@@ -26445,8 +26487,8 @@
       <c r="AE33" s="112" t="s">
         <v>188</v>
       </c>
-      <c r="AF33" s="149" t="s">
-        <v>295</v>
+      <c r="AF33" s="148" t="s">
+        <v>294</v>
       </c>
       <c r="AG33" s="5"/>
       <c r="AH33" s="5"/>
@@ -26631,8 +26673,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AI38"/>
   <sheetViews>
-    <sheetView topLeftCell="O9" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="AI13" sqref="AI13"/>
+    <sheetView topLeftCell="C21" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="75" workbookViewId="0">
+      <selection activeCell="AB13" sqref="AB13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="6" defaultRowHeight="36" customHeight="1" x14ac:dyDescent="0"/>
@@ -26962,8 +27004,8 @@
       <c r="Z10" s="79" t="s">
         <v>135</v>
       </c>
-      <c r="AA10" s="152" t="s">
-        <v>295</v>
+      <c r="AA10" s="151" t="s">
+        <v>294</v>
       </c>
       <c r="AB10" s="13"/>
       <c r="AC10" s="13"/>
@@ -26991,8 +27033,8 @@
       <c r="L11" s="71" t="s">
         <v>159</v>
       </c>
-      <c r="M11" s="139" t="s">
-        <v>295</v>
+      <c r="M11" s="138" t="s">
+        <v>294</v>
       </c>
       <c r="N11" s="19"/>
       <c r="O11" s="21"/>
@@ -27118,8 +27160,8 @@
       <c r="P14" s="113" t="s">
         <v>144</v>
       </c>
-      <c r="Q14" s="137" t="s">
-        <v>295</v>
+      <c r="Q14" s="136" t="s">
+        <v>294</v>
       </c>
       <c r="R14" s="24"/>
       <c r="S14" s="24"/>
@@ -27222,8 +27264,8 @@
       <c r="AE16" s="81" t="s">
         <v>270</v>
       </c>
-      <c r="AF16" s="149" t="s">
-        <v>295</v>
+      <c r="AF16" s="148" t="s">
+        <v>294</v>
       </c>
       <c r="AG16" s="5"/>
       <c r="AH16" s="5"/>
@@ -27291,8 +27333,8 @@
       <c r="P18" s="40" t="s">
         <v>229</v>
       </c>
-      <c r="Q18" s="129" t="s">
-        <v>298</v>
+      <c r="Q18" s="128" t="s">
+        <v>297</v>
       </c>
       <c r="R18" s="19"/>
       <c r="S18" s="19"/>
@@ -27310,8 +27352,8 @@
       <c r="AA18" s="80" t="s">
         <v>135</v>
       </c>
-      <c r="AB18" s="155" t="s">
-        <v>295</v>
+      <c r="AB18" s="154" t="s">
+        <v>294</v>
       </c>
       <c r="AC18" s="19"/>
       <c r="AD18" s="19"/>
@@ -27514,8 +27556,8 @@
       <c r="Q23" s="80" t="s">
         <v>270</v>
       </c>
-      <c r="R23" s="139" t="s">
-        <v>295</v>
+      <c r="R23" s="138" t="s">
+        <v>294</v>
       </c>
       <c r="S23" s="19"/>
       <c r="T23" s="20"/>
@@ -27562,8 +27604,8 @@
       <c r="V24" s="80" t="s">
         <v>135</v>
       </c>
-      <c r="W24" s="139" t="s">
-        <v>295</v>
+      <c r="W24" s="138" t="s">
+        <v>294</v>
       </c>
       <c r="X24" s="20"/>
       <c r="Y24" s="19"/>
@@ -27609,8 +27651,8 @@
       <c r="AC25" s="87" t="s">
         <v>270</v>
       </c>
-      <c r="AD25" s="150" t="s">
-        <v>295</v>
+      <c r="AD25" s="149" t="s">
+        <v>294</v>
       </c>
       <c r="AE25" s="32"/>
       <c r="AF25" s="41"/>
@@ -27693,10 +27735,9 @@
       <c r="S27" s="19"/>
       <c r="T27" s="20"/>
       <c r="U27" s="19"/>
-      <c r="W27" s="80" t="s">
-        <v>264</v>
-      </c>
-      <c r="X27" s="20"/>
+      <c r="W27" s="81" t="s">
+        <v>135</v>
+      </c>
       <c r="Y27" s="19"/>
       <c r="Z27" s="19"/>
       <c r="AA27" s="21"/>
@@ -27905,11 +27946,11 @@
       <c r="AB32" s="19"/>
       <c r="AC32" s="19"/>
       <c r="AD32" s="19"/>
-      <c r="AE32" s="81" t="s">
-        <v>135</v>
-      </c>
-      <c r="AF32" s="149" t="s">
-        <v>295</v>
+      <c r="AE32" s="167" t="s">
+        <v>264</v>
+      </c>
+      <c r="AF32" s="148" t="s">
+        <v>294</v>
       </c>
       <c r="AG32" s="5"/>
       <c r="AH32" s="5"/>
